--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2_agile.xlsx
@@ -638,7 +638,7 @@
         <v>32</v>
       </c>
       <c r="C4">
-        <v>-0.06132072312482892</v>
+        <v>-0.06765116008204639</v>
       </c>
       <c r="D4">
         <v>-0.06247727040309081</v>
@@ -647,19 +647,19 @@
         <v>-0.001170337390813496</v>
       </c>
       <c r="G4">
-        <v>-0.08128046110721843</v>
+        <v>-0.07869113373964533</v>
       </c>
       <c r="H4">
-        <v>0.02844287960171518</v>
+        <v>0.04686864859474594</v>
       </c>
       <c r="I4">
-        <v>0.01973275000531</v>
+        <v>0.01973302955732118</v>
       </c>
       <c r="J4">
-        <v>0.05770560627932032</v>
+        <v>0.05642539261162248</v>
       </c>
       <c r="K4">
-        <v>-0.08311926246077049</v>
+        <v>-0.08633515161340606</v>
       </c>
       <c r="L4">
         <v>-0.4339208529408341</v>
@@ -668,10 +668,10 @@
         <v>-0.002566701126668045</v>
       </c>
       <c r="O4">
-        <v>-0.3197312966612518</v>
+        <v>-0.3158403447936138</v>
       </c>
       <c r="P4">
-        <v>0.07103932671357306</v>
+        <v>0.09467164881086593</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -680,7 +680,7 @@
         <v>33</v>
       </c>
       <c r="C5">
-        <v>0.06444533739381349</v>
+        <v>0.06512110225284409</v>
       </c>
       <c r="D5">
         <v>0.1124779580991183</v>
@@ -689,19 +689,19 @@
         <v>-0.008870563650822543</v>
       </c>
       <c r="G5">
-        <v>0.1375202170848087</v>
+        <v>0.1372220947368838</v>
       </c>
       <c r="H5">
-        <v>0.02248966640358665</v>
+        <v>0.020719425180777</v>
       </c>
       <c r="I5">
-        <v>0.0217038475241539</v>
+        <v>0.02170403414816137</v>
       </c>
       <c r="J5">
-        <v>-0.001137197855125479</v>
+        <v>-0.0009813540406908637</v>
       </c>
       <c r="K5">
-        <v>0.1214463988418559</v>
+        <v>0.1217188492527539</v>
       </c>
       <c r="L5">
         <v>0.8361388374135533</v>
@@ -710,10 +710,10 @@
         <v>0.006906730836269232</v>
       </c>
       <c r="O5">
-        <v>0.6505331663093266</v>
+        <v>0.6509254538130181</v>
       </c>
       <c r="P5">
-        <v>0.01710651111626044</v>
+        <v>0.0149230326929213</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -722,7 +722,7 @@
         <v>34</v>
       </c>
       <c r="C6">
-        <v>0.2317082386123295</v>
+        <v>0.2309754915110196</v>
       </c>
       <c r="D6">
         <v>0.02334994106199764</v>
@@ -731,19 +731,19 @@
         <v>-0.01880289041611561</v>
       </c>
       <c r="G6">
-        <v>-0.6367569489902778</v>
+        <v>-0.6364771882750874</v>
       </c>
       <c r="H6">
-        <v>0.9542865139794605</v>
+        <v>0.9480169362246773</v>
       </c>
       <c r="I6">
-        <v>0.9749380372055213</v>
+        <v>0.9749379623255182</v>
       </c>
       <c r="J6">
-        <v>-0.2921423532103791</v>
+        <v>-0.2922849931433049</v>
       </c>
       <c r="K6">
-        <v>0.01218482026339281</v>
+        <v>0.01205768342630733</v>
       </c>
       <c r="L6">
         <v>0.01521753929670157</v>
@@ -752,10 +752,10 @@
         <v>0.01301571191262847</v>
       </c>
       <c r="O6">
-        <v>0.0006155005686200226</v>
+        <v>0.001111090124443605</v>
       </c>
       <c r="P6">
-        <v>0.4155560255182409</v>
+        <v>0.4136089996163599</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -766,7 +766,7 @@
         <v>35</v>
       </c>
       <c r="C7">
-        <v>0.7126444061697762</v>
+        <v>0.7118704887948194</v>
       </c>
       <c r="D7">
         <v>-0.005447067577882703</v>
@@ -775,19 +775,19 @@
         <v>-0.001111417868456715</v>
       </c>
       <c r="G7">
-        <v>0.002755607246224289</v>
+        <v>0.002871801330872053</v>
       </c>
       <c r="H7">
-        <v>-0.004474226386969055</v>
+        <v>-0.003226814337072573</v>
       </c>
       <c r="I7">
-        <v>0.0009388744695549788</v>
+        <v>0.0009386538615461543</v>
       </c>
       <c r="J7">
-        <v>-0.003802465933574188</v>
+        <v>-0.003856583439909375</v>
       </c>
       <c r="K7">
-        <v>-0.3693123850444953</v>
+        <v>-0.3692750938430037</v>
       </c>
       <c r="L7">
         <v>0.004095465571818622</v>
@@ -796,10 +796,10 @@
         <v>-0.01333783282151331</v>
       </c>
       <c r="O7">
-        <v>-0.00276513227060529</v>
+        <v>-0.002747457901898316</v>
       </c>
       <c r="P7">
-        <v>-0.006139796693591867</v>
+        <v>-0.004325322989012919</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -810,7 +810,7 @@
         <v>35</v>
       </c>
       <c r="C8">
-        <v>0.4336211136648445</v>
+        <v>0.433391452375658</v>
       </c>
       <c r="D8">
         <v>-0.005752270598090824</v>
@@ -819,19 +819,19 @@
         <v>0.006484083811363352</v>
       </c>
       <c r="G8">
-        <v>-0.01065136487405459</v>
+        <v>-0.01092960370118415</v>
       </c>
       <c r="H8">
-        <v>0.01347268681090747</v>
+        <v>0.01503877365755094</v>
       </c>
       <c r="I8">
-        <v>0.01705725879429035</v>
+        <v>0.01705734193029368</v>
       </c>
       <c r="J8">
-        <v>-0.005550214454000887</v>
+        <v>-0.005598663208142972</v>
       </c>
       <c r="K8">
-        <v>0.882924554100982</v>
+        <v>0.8822939513877579</v>
       </c>
       <c r="L8">
         <v>-0.01468114273124571</v>
@@ -840,10 +840,10 @@
         <v>0.01840767606430704</v>
       </c>
       <c r="O8">
-        <v>-0.006284720603388824</v>
+        <v>-0.005853703338148132</v>
       </c>
       <c r="P8">
-        <v>-0.002081116595244663</v>
+        <v>-0.003057197306287892</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -854,7 +854,7 @@
         <v>36</v>
       </c>
       <c r="C9">
-        <v>-0.03452099542883982</v>
+        <v>-0.03471126580445062</v>
       </c>
       <c r="D9">
         <v>0.01134116819764673</v>
@@ -863,19 +863,19 @@
         <v>-0.01161151956846078</v>
       </c>
       <c r="G9">
-        <v>0.01555382635015305</v>
+        <v>0.01567670145906806</v>
       </c>
       <c r="H9">
-        <v>-0.01634600484584019</v>
+        <v>-0.01460084948003398</v>
       </c>
       <c r="I9">
-        <v>-0.01634195143767805</v>
+        <v>-0.01634184026967361</v>
       </c>
       <c r="J9">
-        <v>0.01399585104398807</v>
+        <v>0.01398212846775497</v>
       </c>
       <c r="K9">
-        <v>0.02218230962329238</v>
+        <v>0.02199143924765757</v>
       </c>
       <c r="L9">
         <v>-0.005810813896432555</v>
@@ -884,10 +884,10 @@
         <v>-0.003555218638208745</v>
       </c>
       <c r="O9">
-        <v>-0.01114549734181989</v>
+        <v>-0.01106096885843875</v>
       </c>
       <c r="P9">
-        <v>0.01598587139143485</v>
+        <v>0.01577002335080093</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -898,7 +898,7 @@
         <v>37</v>
       </c>
       <c r="C10">
-        <v>0.01248348405133936</v>
+        <v>0.0128436349777454</v>
       </c>
       <c r="D10">
         <v>-0.003002327832093113</v>
@@ -907,19 +907,19 @@
         <v>-0.004435655217426208</v>
       </c>
       <c r="G10">
-        <v>-0.01672976774119071</v>
+        <v>-0.01715485230219409</v>
       </c>
       <c r="H10">
-        <v>0.01014958869398355</v>
+        <v>0.00943600050544002</v>
       </c>
       <c r="I10">
-        <v>0.01517028415881136</v>
+        <v>0.01516988211079528</v>
       </c>
       <c r="J10">
-        <v>-0.003435175822353686</v>
+        <v>-0.003362985787442842</v>
       </c>
       <c r="K10">
-        <v>0.008455665458226617</v>
+        <v>0.008483349459333977</v>
       </c>
       <c r="L10">
         <v>0.008979729287189169</v>
@@ -928,10 +928,10 @@
         <v>-0.0093742075109683</v>
       </c>
       <c r="O10">
-        <v>0.009390736599629464</v>
+        <v>0.009310005588400222</v>
       </c>
       <c r="P10">
-        <v>0.01302646400905856</v>
+        <v>0.01308106669924266</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -940,7 +940,7 @@
         <v>38</v>
       </c>
       <c r="C11">
-        <v>0.1121872029834881</v>
+        <v>0.1121617271744691</v>
       </c>
       <c r="D11">
         <v>-0.01355069564602782</v>
@@ -949,19 +949,19 @@
         <v>0.02103135626525425</v>
       </c>
       <c r="G11">
-        <v>0.01261727618469105</v>
+        <v>0.01268636988345479</v>
       </c>
       <c r="H11">
-        <v>0.004399776751991069</v>
+        <v>0.004874002850960113</v>
       </c>
       <c r="I11">
-        <v>0.2239009458520378</v>
+        <v>0.2239012362520494</v>
       </c>
       <c r="J11">
-        <v>-0.02176352854988062</v>
+        <v>-0.02179430283967897</v>
       </c>
       <c r="K11">
-        <v>0.01592418562896742</v>
+        <v>0.01600909120036365</v>
       </c>
       <c r="L11">
         <v>-0.003718718836748753</v>
@@ -970,10 +970,10 @@
         <v>0.0119153550686142</v>
       </c>
       <c r="O11">
-        <v>-0.004310487052419482</v>
+        <v>-0.004180517351220694</v>
       </c>
       <c r="P11">
-        <v>0.01190320972412839</v>
+        <v>0.01126911933076477</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -982,7 +982,7 @@
         <v>39</v>
       </c>
       <c r="C12">
-        <v>-0.1821734929829397</v>
+        <v>-0.1820187823527513</v>
       </c>
       <c r="D12">
         <v>0.008274097386963894</v>
@@ -991,19 +991,19 @@
         <v>-0.001387766455510658</v>
       </c>
       <c r="G12">
-        <v>-0.008089238627569544</v>
+        <v>-0.008153445542137821</v>
       </c>
       <c r="H12">
-        <v>0.01743566200942648</v>
+        <v>0.01644312084972483</v>
       </c>
       <c r="I12">
-        <v>0.01745732441029297</v>
+        <v>0.01745755231430209</v>
       </c>
       <c r="J12">
-        <v>0.0005562600710514173</v>
+        <v>0.0006523332750483469</v>
       </c>
       <c r="K12">
-        <v>-0.01590553110022124</v>
+        <v>-0.01572385051695402</v>
       </c>
       <c r="L12">
         <v>-0.009811264424450577</v>
@@ -1012,10 +1012,10 @@
         <v>0.01825651349826054</v>
       </c>
       <c r="O12">
-        <v>-0.002299253371970135</v>
+        <v>-0.002667945898717836</v>
       </c>
       <c r="P12">
-        <v>0.01383879895355196</v>
+        <v>0.01270445100417804</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1026,7 +1026,7 @@
         <v>40</v>
       </c>
       <c r="C13">
-        <v>0.03297568576702743</v>
+        <v>0.03418689909547595</v>
       </c>
       <c r="D13">
         <v>-0.003862417402496696</v>
@@ -1035,19 +1035,19 @@
         <v>-0.001327900085116003</v>
       </c>
       <c r="G13">
-        <v>-0.007730959413238376</v>
+        <v>-0.008359286158371445</v>
       </c>
       <c r="H13">
-        <v>-0.002516450692658027</v>
+        <v>-0.006853553458142138</v>
       </c>
       <c r="I13">
-        <v>-0.00490474877218995</v>
+        <v>-0.004905113668204546</v>
       </c>
       <c r="J13">
-        <v>0.0004408564022690893</v>
+        <v>0.0007164863817083913</v>
       </c>
       <c r="K13">
-        <v>0.02698005496720219</v>
+        <v>0.02759805787192231</v>
       </c>
       <c r="L13">
         <v>-0.01481656772866271</v>
@@ -1056,10 +1056,10 @@
         <v>-0.00590392929215717</v>
       </c>
       <c r="O13">
-        <v>-0.009318146196725847</v>
+        <v>-0.009842959977718398</v>
       </c>
       <c r="P13">
-        <v>-0.003753652470146099</v>
+        <v>-0.007359816198392648</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1070,7 +1070,7 @@
         <v>40</v>
       </c>
       <c r="C14">
-        <v>-0.02396381961455278</v>
+        <v>-0.02452969931718797</v>
       </c>
       <c r="D14">
         <v>0.009303267444130696</v>
@@ -1079,19 +1079,19 @@
         <v>-0.009293678387747136</v>
       </c>
       <c r="G14">
-        <v>0.005563230654529226</v>
+        <v>0.005786192487447698</v>
       </c>
       <c r="H14">
-        <v>-0.00340042228001689</v>
+        <v>-0.002115552468622098</v>
       </c>
       <c r="I14">
-        <v>-0.008074700962988037</v>
+        <v>-0.008075050595002022</v>
       </c>
       <c r="J14">
-        <v>-0.009817183222824074</v>
+        <v>-0.009847853832331411</v>
       </c>
       <c r="K14">
-        <v>-0.0546114852244594</v>
+        <v>-0.0547140925245637</v>
       </c>
       <c r="L14">
         <v>0.01015621864624875</v>
@@ -1100,10 +1100,10 @@
         <v>0.008729757373190294</v>
       </c>
       <c r="O14">
-        <v>0.003164942334597693</v>
+        <v>0.003228782337151293</v>
       </c>
       <c r="P14">
-        <v>-0.03229008849160354</v>
+        <v>-0.03271537676461507</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1114,7 +1114,7 @@
         <v>41</v>
       </c>
       <c r="C15">
-        <v>-0.0192554326102173</v>
+        <v>-0.01814566238982649</v>
       </c>
       <c r="D15">
         <v>-0.01304049124161965</v>
@@ -1123,19 +1123,19 @@
         <v>0.01950393678015747</v>
       </c>
       <c r="G15">
-        <v>0.0239217975328719</v>
+        <v>0.02363473467338938</v>
       </c>
       <c r="H15">
-        <v>0.0350538899141556</v>
+        <v>0.03222957220118288</v>
       </c>
       <c r="I15">
-        <v>-0.00791711676468467</v>
+        <v>-0.007917280444691217</v>
       </c>
       <c r="J15">
-        <v>-0.0116053064169239</v>
+        <v>-0.01141909079348118</v>
       </c>
       <c r="K15">
-        <v>-4.299667371986694E-05</v>
+        <v>0.000454298802171952</v>
       </c>
       <c r="L15">
         <v>0.0106751199790048</v>
@@ -1144,10 +1144,10 @@
         <v>0.02446341601853664</v>
       </c>
       <c r="O15">
-        <v>0.004646108441844337</v>
+        <v>0.003574206862968274</v>
       </c>
       <c r="P15">
-        <v>0.191568301230732</v>
+        <v>0.1875355058054202</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1158,7 +1158,7 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>-0.08458358210334327</v>
+        <v>-0.08437315806292631</v>
       </c>
       <c r="D16">
         <v>0.008000246624009864</v>
@@ -1167,19 +1167,19 @@
         <v>-0.002516718532668741</v>
       </c>
       <c r="G16">
-        <v>-0.007665080562603221</v>
+        <v>-0.007619388688775547</v>
       </c>
       <c r="H16">
-        <v>0.007794752663790106</v>
+        <v>0.00680130152005206</v>
       </c>
       <c r="I16">
-        <v>0.007431940713277627</v>
+        <v>0.00743179229727169</v>
       </c>
       <c r="J16">
-        <v>0.007203445018510762</v>
+        <v>0.007222579931477054</v>
       </c>
       <c r="K16">
-        <v>-0.05279257593570303</v>
+        <v>-0.05265642354625694</v>
       </c>
       <c r="L16">
         <v>0.000681021627240865</v>
@@ -1188,10 +1188,10 @@
         <v>-0.01384630413785216</v>
       </c>
       <c r="O16">
-        <v>-0.002489388099575524</v>
+        <v>-0.002749147309965892</v>
       </c>
       <c r="P16">
-        <v>0.006731808941272357</v>
+        <v>0.008119003908760155</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1200,7 +1200,7 @@
         <v>42</v>
       </c>
       <c r="C17">
-        <v>0.004014973312598932</v>
+        <v>0.004824555456982217</v>
       </c>
       <c r="D17">
         <v>0.000706219804248792</v>
@@ -1209,19 +1209,19 @@
         <v>-0.004559023766360951</v>
       </c>
       <c r="G17">
-        <v>-0.01450844544433782</v>
+        <v>-0.01463303924132157</v>
       </c>
       <c r="H17">
-        <v>0.009225860913034435</v>
+        <v>0.006446923841876953</v>
       </c>
       <c r="I17">
-        <v>0.006111149044445961</v>
+        <v>0.006110963764438549</v>
       </c>
       <c r="J17">
-        <v>0.01751787792594086</v>
+        <v>0.0176979837258292</v>
       </c>
       <c r="K17">
-        <v>-0.00324457827378313</v>
+        <v>-0.002749342573973702</v>
       </c>
       <c r="L17">
         <v>-0.01696649578265983</v>
@@ -1230,10 +1230,10 @@
         <v>0.0008718805788752232</v>
       </c>
       <c r="O17">
-        <v>-0.00522878478515139</v>
+        <v>-0.006125435669017426</v>
       </c>
       <c r="P17">
-        <v>0.002438866081554643</v>
+        <v>0.001568186558727462</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1244,7 +1244,7 @@
         <v>43</v>
       </c>
       <c r="C18">
-        <v>-0.04886202176248086</v>
+        <v>-0.04848182113927284</v>
       </c>
       <c r="D18">
         <v>-0.01802358638494345</v>
@@ -1253,19 +1253,19 @@
         <v>0.01383945962557838</v>
       </c>
       <c r="G18">
-        <v>-0.0001709871428394857</v>
+        <v>-0.0003796122391844895</v>
       </c>
       <c r="H18">
-        <v>0.2387287986691519</v>
+        <v>0.234333400669336</v>
       </c>
       <c r="I18">
-        <v>-0.0001069800042792002</v>
+        <v>-0.0001069672362786894</v>
       </c>
       <c r="J18">
-        <v>-0.01440918011711642</v>
+        <v>-0.01434370993874759</v>
       </c>
       <c r="K18">
-        <v>-0.01902341903293676</v>
+        <v>-0.01871920558076822</v>
       </c>
       <c r="L18">
         <v>-0.0159471199338848</v>
@@ -1274,10 +1274,10 @@
         <v>0.009107491948299675</v>
       </c>
       <c r="O18">
-        <v>-0.00756700302268012</v>
+        <v>-0.008029177185167085</v>
       </c>
       <c r="P18">
-        <v>0.2232112795204511</v>
+        <v>0.2173218987408759</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1288,7 +1288,7 @@
         <v>44</v>
       </c>
       <c r="C19">
-        <v>0.04272218724488748</v>
+        <v>0.04227114783484591</v>
       </c>
       <c r="D19">
         <v>0.008829597665183904</v>
@@ -1297,19 +1297,19 @@
         <v>0.1131024278520971</v>
       </c>
       <c r="G19">
-        <v>0.1092073552802942</v>
+        <v>0.1094334312573372</v>
       </c>
       <c r="H19">
-        <v>0.005299930003997199</v>
+        <v>0.005983449263337969</v>
       </c>
       <c r="I19">
-        <v>0.002195564631822585</v>
+        <v>0.002195511831820473</v>
       </c>
       <c r="J19">
-        <v>0.01107223903483359</v>
+        <v>0.01102103080897602</v>
       </c>
       <c r="K19">
-        <v>0.02107083818683352</v>
+        <v>0.02082615481704619</v>
       </c>
       <c r="L19">
         <v>0.005575834975033398</v>
@@ -1318,10 +1318,10 @@
         <v>0.2874864590194584</v>
       </c>
       <c r="O19">
-        <v>0.1198316798332672</v>
+        <v>0.1203613347024534</v>
       </c>
       <c r="P19">
-        <v>0.02103411424936457</v>
+        <v>0.02085496278619851</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1330,7 +1330,7 @@
         <v>45</v>
       </c>
       <c r="C20">
-        <v>0.005415282840611313</v>
+        <v>0.005982523535300941</v>
       </c>
       <c r="D20">
         <v>0.02431146903645876</v>
@@ -1339,19 +1339,19 @@
         <v>0.04517135393485416</v>
       </c>
       <c r="G20">
-        <v>0.06481089667243585</v>
+        <v>0.06441415217656607</v>
       </c>
       <c r="H20">
-        <v>0.003028737721149508</v>
+        <v>0.0009750130950005238</v>
       </c>
       <c r="I20">
-        <v>-0.002348462397938495</v>
+        <v>-0.00234852326194093</v>
       </c>
       <c r="J20">
-        <v>-0.1257358370664931</v>
+        <v>-0.1256441222657079</v>
       </c>
       <c r="K20">
-        <v>0.003070453562818142</v>
+        <v>0.003373735142949405</v>
       </c>
       <c r="L20">
         <v>0.01872932830117313</v>
@@ -1360,10 +1360,10 @@
         <v>0.1250787693231508</v>
       </c>
       <c r="O20">
-        <v>0.0671660150386406</v>
+        <v>0.06715160899006435</v>
       </c>
       <c r="P20">
-        <v>0.02175970656638826</v>
+        <v>0.01713511873340475</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1372,7 +1372,7 @@
         <v>46</v>
       </c>
       <c r="C21">
-        <v>0.01253799621351985</v>
+        <v>0.01280130233605209</v>
       </c>
       <c r="D21">
         <v>-0.008950570822022831</v>
@@ -1381,19 +1381,19 @@
         <v>0.1505055708202228</v>
       </c>
       <c r="G21">
-        <v>0.1576356535374261</v>
+        <v>0.1575813352952534</v>
       </c>
       <c r="H21">
-        <v>0.001591271199650848</v>
+        <v>0.002339818941592757</v>
       </c>
       <c r="I21">
-        <v>0.003811498328459933</v>
+        <v>0.003811116920444676</v>
       </c>
       <c r="J21">
-        <v>-0.006845488987677063</v>
+        <v>-0.006800204297963671</v>
       </c>
       <c r="K21">
-        <v>0.01513683410947336</v>
+        <v>0.01492919848516794</v>
       </c>
       <c r="L21">
         <v>-0.007676837203073487</v>
@@ -1402,10 +1402,10 @@
         <v>0.3239262939810517</v>
       </c>
       <c r="O21">
-        <v>0.1311425273897011</v>
+        <v>0.1315999843999993</v>
       </c>
       <c r="P21">
-        <v>0.004471830226873208</v>
+        <v>0.00511772526070901</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1414,7 +1414,7 @@
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-0.0307669375506775</v>
+        <v>-0.0322240675609627</v>
       </c>
       <c r="D22">
         <v>-0.005675592323023692</v>
@@ -1423,19 +1423,19 @@
         <v>0.009258873010354919</v>
       </c>
       <c r="G22">
-        <v>-0.0008428334737133388</v>
+        <v>-0.0002652048106081924</v>
       </c>
       <c r="H22">
-        <v>-0.0009911963916478556</v>
+        <v>0.002838021233520849</v>
       </c>
       <c r="I22">
-        <v>-0.01083848654553946</v>
+        <v>-0.01083852523354101</v>
       </c>
       <c r="J22">
-        <v>-0.0432185714549776</v>
+        <v>-0.04353137426898489</v>
       </c>
       <c r="K22">
-        <v>-0.008873984610959385</v>
+        <v>-0.009630905473236218</v>
       </c>
       <c r="L22">
         <v>-0.009748495973939838</v>
@@ -1444,10 +1444,10 @@
         <v>0.0489698050947922</v>
       </c>
       <c r="O22">
-        <v>0.03282091091283643</v>
+        <v>0.03383563076142523</v>
       </c>
       <c r="P22">
-        <v>0.008464583858583353</v>
+        <v>0.01523322608132904</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1458,7 +1458,7 @@
         <v>48</v>
       </c>
       <c r="C23">
-        <v>0.02109913956396558</v>
+        <v>0.02191800884472035</v>
       </c>
       <c r="D23">
         <v>0.00190353300414132</v>
@@ -1467,19 +1467,19 @@
         <v>0.1226909046836362</v>
       </c>
       <c r="G23">
-        <v>0.1158667097546684</v>
+        <v>0.1155862328794493</v>
       </c>
       <c r="H23">
-        <v>-0.006640490473619618</v>
+        <v>-0.007862187674487507</v>
       </c>
       <c r="I23">
-        <v>-0.01244677700987108</v>
+        <v>-0.01244695336187813</v>
       </c>
       <c r="J23">
-        <v>0.01581489324736917</v>
+        <v>0.01596334275790404</v>
       </c>
       <c r="K23">
-        <v>-0.03614985456599418</v>
+        <v>-0.03594567686182707</v>
       </c>
       <c r="L23">
         <v>-0.0224758650590346</v>
@@ -1488,10 +1488,10 @@
         <v>-0.5016470787858831</v>
       </c>
       <c r="O23">
-        <v>-0.1970381594975264</v>
+        <v>-0.1976281035211241</v>
       </c>
       <c r="P23">
-        <v>-0.04065775794631032</v>
+        <v>-0.04133810114152404</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1500,7 +1500,7 @@
         <v>49</v>
       </c>
       <c r="C24">
-        <v>0.06805243357009734</v>
+        <v>0.06881364150454565</v>
       </c>
       <c r="D24">
         <v>0.007633207409328296</v>
@@ -1509,19 +1509,19 @@
         <v>0.2815851742394069</v>
       </c>
       <c r="G24">
-        <v>0.2485349060693962</v>
+        <v>0.2483218887808755</v>
       </c>
       <c r="H24">
-        <v>0.04209666302786651</v>
+        <v>0.03847366435494658</v>
       </c>
       <c r="I24">
-        <v>0.0122876524915061</v>
+        <v>0.01228746145149846</v>
       </c>
       <c r="J24">
-        <v>0.01099545213565154</v>
+        <v>0.01108400445958716</v>
       </c>
       <c r="K24">
-        <v>0.05321567051262682</v>
+        <v>0.05366025008241</v>
       </c>
       <c r="L24">
         <v>-0.002930071893202876</v>
@@ -1530,10 +1530,10 @@
         <v>0.7166786425551455</v>
       </c>
       <c r="O24">
-        <v>0.2460439864817594</v>
+        <v>0.2456902659236106</v>
       </c>
       <c r="P24">
-        <v>0.07507453173898126</v>
+        <v>0.07307824909912995</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1544,7 +1544,7 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <v>-0.02730739683629587</v>
+        <v>-0.02809961142798445</v>
       </c>
       <c r="D25">
         <v>-0.01569881131595245</v>
@@ -1553,19 +1553,19 @@
         <v>0.00765463125018525</v>
       </c>
       <c r="G25">
-        <v>0.4908434367857374</v>
+        <v>0.491853677658147</v>
       </c>
       <c r="H25">
-        <v>-0.03095154229406169</v>
+        <v>-0.02909084372363374</v>
       </c>
       <c r="I25">
-        <v>0.01928701613148064</v>
+        <v>0.01928704579548183</v>
       </c>
       <c r="J25">
-        <v>-0.2838820003240701</v>
+        <v>-0.2839769980468222</v>
       </c>
       <c r="K25">
-        <v>0.007632231377289254</v>
+        <v>0.007916882524675302</v>
       </c>
       <c r="L25">
         <v>-0.0155681725907269</v>
@@ -1574,10 +1574,10 @@
         <v>-0.003917108796684351</v>
       </c>
       <c r="O25">
-        <v>-0.5208088405443536</v>
+        <v>-0.5215254948770197</v>
       </c>
       <c r="P25">
-        <v>0.03409385281975411</v>
+        <v>0.03454269853370794</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1586,7 +1586,7 @@
         <v>51</v>
       </c>
       <c r="C26">
-        <v>0.03840061459202458</v>
+        <v>0.03883552024142081</v>
       </c>
       <c r="D26">
         <v>-0.0006603015624120623</v>
@@ -1595,19 +1595,19 @@
         <v>0.01198932220757289</v>
       </c>
       <c r="G26">
-        <v>0.001178524559140982</v>
+        <v>0.0009294900851796032</v>
       </c>
       <c r="H26">
-        <v>-0.07196547993461919</v>
+        <v>-0.07375156269406251</v>
       </c>
       <c r="I26">
-        <v>0.0122017175120687</v>
+        <v>0.01220160797606432</v>
       </c>
       <c r="J26">
-        <v>-0.0001194655729506533</v>
+        <v>-1.112299246120376E-05</v>
       </c>
       <c r="K26">
-        <v>-0.02826138372245534</v>
+        <v>-0.02792811730912469</v>
       </c>
       <c r="L26">
         <v>0.009684547299381891</v>
@@ -1616,10 +1616,10 @@
         <v>0.008937643365505734</v>
       </c>
       <c r="O26">
-        <v>0.01185835669833427</v>
+        <v>0.01170333474013339</v>
       </c>
       <c r="P26">
-        <v>0.1377425549177022</v>
+        <v>0.1336730711709228</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1630,7 +1630,7 @@
         <v>52</v>
       </c>
       <c r="C27">
-        <v>-0.009349704277988169</v>
+        <v>-0.009528155325126211</v>
       </c>
       <c r="D27">
         <v>-0.0438329677693187</v>
@@ -1639,19 +1639,19 @@
         <v>-0.002728780813151232</v>
       </c>
       <c r="G27">
-        <v>-0.03844418620976744</v>
+        <v>-0.03835879113435164</v>
       </c>
       <c r="H27">
-        <v>-0.02565267693010707</v>
+        <v>-0.02470693682827747</v>
       </c>
       <c r="I27">
-        <v>-0.02272702074908083</v>
+        <v>-0.02272703390108135</v>
       </c>
       <c r="J27">
-        <v>0.008247938885794587</v>
+        <v>0.008167167218643422</v>
       </c>
       <c r="K27">
-        <v>-0.04966325373053014</v>
+        <v>-0.04983361284134451</v>
       </c>
       <c r="L27">
         <v>-0.2703447203177888</v>
@@ -1660,10 +1660,10 @@
         <v>0.01218178992727159</v>
       </c>
       <c r="O27">
-        <v>-0.1588524718260989</v>
+        <v>-0.1588230529129221</v>
       </c>
       <c r="P27">
-        <v>-0.01501309480852379</v>
+        <v>-0.01412466968498679</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1674,7 +1674,7 @@
         <v>53</v>
       </c>
       <c r="C28">
-        <v>-0.01591475574059023</v>
+        <v>-0.014644425033777</v>
       </c>
       <c r="D28">
         <v>-0.003927406429096257</v>
@@ -1683,19 +1683,19 @@
         <v>-0.003448036457921458</v>
       </c>
       <c r="G28">
-        <v>-0.04392357295694291</v>
+        <v>-0.04441476878459075</v>
       </c>
       <c r="H28">
-        <v>0.01541917645676706</v>
+        <v>0.01209248390769935</v>
       </c>
       <c r="I28">
-        <v>0.009357163574286542</v>
+        <v>0.009357204182288165</v>
       </c>
       <c r="J28">
-        <v>-0.005399493727755019</v>
+        <v>-0.005147043477417011</v>
       </c>
       <c r="K28">
-        <v>-0.01341748104869924</v>
+        <v>-0.01279634979185399</v>
       </c>
       <c r="L28">
         <v>-0.07358263676730546</v>
@@ -1704,10 +1704,10 @@
         <v>0.01830134895605396</v>
       </c>
       <c r="O28">
-        <v>-0.02162372236894889</v>
+        <v>-0.02223276117731044</v>
       </c>
       <c r="P28">
-        <v>0.0123084027003361</v>
+        <v>0.005880669931226796</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1718,7 +1718,7 @@
         <v>54</v>
       </c>
       <c r="C29">
-        <v>0.003523815404952616</v>
+        <v>0.002896455283858211</v>
       </c>
       <c r="D29">
         <v>0.006002623056104921</v>
@@ -1727,19 +1727,19 @@
         <v>0.002228218169128726</v>
       </c>
       <c r="G29">
-        <v>0.006317598492703939</v>
+        <v>0.006581377223255088</v>
       </c>
       <c r="H29">
-        <v>-0.007383870727354828</v>
+        <v>-0.00698551851942074</v>
       </c>
       <c r="I29">
-        <v>-0.007644891473795657</v>
+        <v>-0.007644638705785548</v>
       </c>
       <c r="J29">
-        <v>-0.001538485791754851</v>
+        <v>-0.001558874752637183</v>
       </c>
       <c r="K29">
-        <v>-0.01789021492360859</v>
+        <v>-0.01795073783802951</v>
       </c>
       <c r="L29">
         <v>0.04295909922236396</v>
@@ -1748,10 +1748,10 @@
         <v>-0.01993854607754184</v>
       </c>
       <c r="O29">
-        <v>0.004676745787069831</v>
+        <v>0.004830913633236544</v>
       </c>
       <c r="P29">
-        <v>-0.003599785487991419</v>
+        <v>-0.004123114340924573</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1762,7 +1762,7 @@
         <v>55</v>
       </c>
       <c r="C30">
-        <v>0.006540513381620534</v>
+        <v>0.006726098381043934</v>
       </c>
       <c r="D30">
         <v>0.006413414080536562</v>
@@ -1771,19 +1771,19 @@
         <v>-0.002731674061266962</v>
       </c>
       <c r="G30">
-        <v>0.002339805405592216</v>
+        <v>0.002255953146238126</v>
       </c>
       <c r="H30">
-        <v>0.004094324419772977</v>
+        <v>0.005027697801107911</v>
       </c>
       <c r="I30">
-        <v>0.002834183729367349</v>
+        <v>0.00283410424136417</v>
       </c>
       <c r="J30">
-        <v>-0.001199772769718584</v>
+        <v>-0.001147895615596344</v>
       </c>
       <c r="K30">
-        <v>-0.009042856297714249</v>
+        <v>-0.009136884365475374</v>
       </c>
       <c r="L30">
         <v>0.03512232054089282</v>
@@ -1792,10 +1792,10 @@
         <v>-0.006490536835621472</v>
       </c>
       <c r="O30">
-        <v>0.01276656607866264</v>
+        <v>0.01273103302124132</v>
       </c>
       <c r="P30">
-        <v>0.01368209565128382</v>
+        <v>0.0137497051899882</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1806,7 +1806,7 @@
         <v>56</v>
       </c>
       <c r="C31">
-        <v>0.3434840330993613</v>
+        <v>0.3423567217582688</v>
       </c>
       <c r="D31">
         <v>0.9876190863847633</v>
@@ -1815,19 +1815,19 @@
         <v>-0.9180295893611834</v>
       </c>
       <c r="G31">
-        <v>-0.3745411063736442</v>
+        <v>-0.3742340448893617</v>
       </c>
       <c r="H31">
-        <v>0.1290354271454171</v>
+        <v>0.1301307840212313</v>
       </c>
       <c r="I31">
-        <v>0.01635504967820198</v>
+        <v>0.0163551425102057</v>
       </c>
       <c r="J31">
-        <v>0.7783161398854208</v>
+        <v>0.7782438621251035</v>
       </c>
       <c r="K31">
-        <v>0.002505389668215586</v>
+        <v>0.002137879573515183</v>
       </c>
       <c r="L31">
         <v>0.0005378334935133396</v>
@@ -1836,10 +1836,10 @@
         <v>0.00468222076328883</v>
       </c>
       <c r="O31">
-        <v>0.02573621709344868</v>
+        <v>0.02626204665048186</v>
       </c>
       <c r="P31">
-        <v>-0.06470488223619528</v>
+        <v>-0.06062437519297499</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1850,7 +1850,7 @@
         <v>57</v>
       </c>
       <c r="C32">
-        <v>0.03415317487012699</v>
+        <v>0.03416970232678809</v>
       </c>
       <c r="D32">
         <v>0.07474604814184192</v>
@@ -1859,19 +1859,19 @@
         <v>-0.0677100554124022</v>
       </c>
       <c r="G32">
-        <v>-0.03532341194093647</v>
+        <v>-0.03534719584588782</v>
       </c>
       <c r="H32">
-        <v>0.01872864708514588</v>
+        <v>0.01720366993614679</v>
       </c>
       <c r="I32">
-        <v>0.0032590325143613</v>
+        <v>0.003258951298358052</v>
       </c>
       <c r="J32">
-        <v>0.2233267783586617</v>
+        <v>0.223369791021805</v>
       </c>
       <c r="K32">
-        <v>-0.01354643910185756</v>
+        <v>-0.01344471970578879</v>
       </c>
       <c r="L32">
         <v>0.001641176417647057</v>
@@ -1880,10 +1880,10 @@
         <v>-0.002185570071422803</v>
       </c>
       <c r="O32">
-        <v>0.008048854977954198</v>
+        <v>0.007847439097897563</v>
       </c>
       <c r="P32">
-        <v>-0.01120284899211396</v>
+        <v>-0.01122601177704047</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1894,7 +1894,7 @@
         <v>58</v>
       </c>
       <c r="C33">
-        <v>-0.005111139084445562</v>
+        <v>-0.005478744507149779</v>
       </c>
       <c r="D33">
         <v>-0.001167913582716543</v>
@@ -1903,19 +1903,19 @@
         <v>-0.0029021400200856</v>
       </c>
       <c r="G33">
-        <v>-0.0009185231407409255</v>
+        <v>-0.0007695220147808805</v>
       </c>
       <c r="H33">
-        <v>-0.004206161544246461</v>
+        <v>-0.003529363629174545</v>
       </c>
       <c r="I33">
-        <v>-0.005349035637961424</v>
+        <v>-0.005348972853958914</v>
       </c>
       <c r="J33">
-        <v>0.002614323948337584</v>
+        <v>0.002569975066561446</v>
       </c>
       <c r="K33">
-        <v>-0.01625739722629589</v>
+        <v>-0.0162233300889332</v>
       </c>
       <c r="L33">
         <v>-0.02263928893757155</v>
@@ -1924,10 +1924,10 @@
         <v>-0.01021851717674068</v>
       </c>
       <c r="O33">
-        <v>-0.02754548452581938</v>
+        <v>-0.02733769069350763</v>
       </c>
       <c r="P33">
-        <v>0.0244651350906054</v>
+        <v>0.02298900072756003</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2_agile.xlsx
@@ -638,7 +638,7 @@
         <v>32</v>
       </c>
       <c r="C4">
-        <v>-0.06765116008204639</v>
+        <v>-0.0613421976536879</v>
       </c>
       <c r="D4">
         <v>-0.06247727040309081</v>
@@ -647,31 +647,31 @@
         <v>-0.001170337390813496</v>
       </c>
       <c r="G4">
-        <v>-0.07869113373964533</v>
+        <v>-0.08036622849464913</v>
       </c>
       <c r="H4">
-        <v>0.04686864859474594</v>
+        <v>0.02677563582302543</v>
       </c>
       <c r="I4">
-        <v>0.01973302955732118</v>
+        <v>0.01973275000531</v>
       </c>
       <c r="J4">
-        <v>0.05642539261162248</v>
+        <v>0.05800933766790695</v>
       </c>
       <c r="K4">
-        <v>-0.08633515161340606</v>
+        <v>-0.07997453369498132</v>
       </c>
       <c r="L4">
         <v>-0.4339208529408341</v>
       </c>
       <c r="M4">
-        <v>-0.002566701126668045</v>
+        <v>-0.0025669200066768</v>
       </c>
       <c r="O4">
-        <v>-0.3158403447936138</v>
+        <v>-0.3170872469874899</v>
       </c>
       <c r="P4">
-        <v>0.09467164881086593</v>
+        <v>0.01973746043749841</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -680,7 +680,7 @@
         <v>33</v>
       </c>
       <c r="C5">
-        <v>0.06512110225284409</v>
+        <v>0.06448911704356468</v>
       </c>
       <c r="D5">
         <v>0.1124779580991183</v>
@@ -689,31 +689,31 @@
         <v>-0.008870563650822543</v>
       </c>
       <c r="G5">
-        <v>0.1372220947368838</v>
+        <v>0.1374348327613933</v>
       </c>
       <c r="H5">
-        <v>0.020719425180777</v>
+        <v>0.02230841167633646</v>
       </c>
       <c r="I5">
-        <v>0.02170403414816137</v>
+        <v>0.0217038475241539</v>
       </c>
       <c r="J5">
-        <v>-0.0009813540406908637</v>
+        <v>-0.000773882144069676</v>
       </c>
       <c r="K5">
-        <v>0.1217188492527539</v>
+        <v>0.1207101452444058</v>
       </c>
       <c r="L5">
         <v>0.8361388374135533</v>
       </c>
       <c r="M5">
-        <v>0.006906730836269232</v>
+        <v>0.006907102260284089</v>
       </c>
       <c r="O5">
-        <v>0.6509254538130181</v>
+        <v>0.6268275460011017</v>
       </c>
       <c r="P5">
-        <v>0.0149230326929213</v>
+        <v>0.02308576709943068</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -722,7 +722,7 @@
         <v>34</v>
       </c>
       <c r="C6">
-        <v>0.2309754915110196</v>
+        <v>0.244952450310098</v>
       </c>
       <c r="D6">
         <v>0.02334994106199764</v>
@@ -731,31 +731,31 @@
         <v>-0.01880289041611561</v>
       </c>
       <c r="G6">
-        <v>-0.6364771882750874</v>
+        <v>-0.6010957307958292</v>
       </c>
       <c r="H6">
-        <v>0.9480169362246773</v>
+        <v>0.9338619432104776</v>
       </c>
       <c r="I6">
-        <v>0.9749379623255182</v>
+        <v>0.9749380372055213</v>
       </c>
       <c r="J6">
-        <v>-0.2922849931433049</v>
+        <v>-0.2857818636348004</v>
       </c>
       <c r="K6">
-        <v>0.01205768342630733</v>
+        <v>0.02410049040401961</v>
       </c>
       <c r="L6">
         <v>0.01521753929670157</v>
       </c>
       <c r="M6">
-        <v>0.01301571191262847</v>
+        <v>0.01301570212062808</v>
       </c>
       <c r="O6">
-        <v>0.001111090124443605</v>
+        <v>0.003948974269958971</v>
       </c>
       <c r="P6">
-        <v>0.4136089996163599</v>
+        <v>0.481355824086233</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -766,7 +766,7 @@
         <v>35</v>
       </c>
       <c r="C7">
-        <v>0.7118704887948194</v>
+        <v>0.7085310213332406</v>
       </c>
       <c r="D7">
         <v>-0.005447067577882703</v>
@@ -775,31 +775,31 @@
         <v>-0.001111417868456715</v>
       </c>
       <c r="G7">
-        <v>0.002871801330872053</v>
+        <v>0.003162364350494573</v>
       </c>
       <c r="H7">
-        <v>-0.003226814337072573</v>
+        <v>-0.002993067383722695</v>
       </c>
       <c r="I7">
-        <v>0.0009386538615461543</v>
+        <v>0.0009388744695549788</v>
       </c>
       <c r="J7">
-        <v>-0.003856583439909375</v>
+        <v>-0.003864557584147266</v>
       </c>
       <c r="K7">
-        <v>-0.3692750938430037</v>
+        <v>-0.3686705851788234</v>
       </c>
       <c r="L7">
         <v>0.004095465571818622</v>
       </c>
       <c r="M7">
-        <v>-0.01333783282151331</v>
+        <v>-0.01333766933350677</v>
       </c>
       <c r="O7">
-        <v>-0.002747457901898316</v>
+        <v>-0.00209221150768846</v>
       </c>
       <c r="P7">
-        <v>-0.004325322989012919</v>
+        <v>-0.007211398368455934</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -810,7 +810,7 @@
         <v>35</v>
       </c>
       <c r="C8">
-        <v>0.433391452375658</v>
+        <v>0.4322176843287073</v>
       </c>
       <c r="D8">
         <v>-0.005752270598090824</v>
@@ -819,31 +819,31 @@
         <v>0.006484083811363352</v>
       </c>
       <c r="G8">
-        <v>-0.01092960370118415</v>
+        <v>-0.01016325016653001</v>
       </c>
       <c r="H8">
-        <v>0.01503877365755094</v>
+        <v>0.01261100882444035</v>
       </c>
       <c r="I8">
-        <v>0.01705734193029368</v>
+        <v>0.01705725879429035</v>
       </c>
       <c r="J8">
-        <v>-0.005598663208142972</v>
+        <v>-0.00553989891757341</v>
       </c>
       <c r="K8">
-        <v>0.8822939513877579</v>
+        <v>0.8812624399864974</v>
       </c>
       <c r="L8">
         <v>-0.01468114273124571</v>
       </c>
       <c r="M8">
-        <v>0.01840767606430704</v>
+        <v>0.01840745036829801</v>
       </c>
       <c r="O8">
-        <v>-0.005853703338148132</v>
+        <v>-0.006258806746352269</v>
       </c>
       <c r="P8">
-        <v>-0.003057197306287892</v>
+        <v>-0.0001481286779251471</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -854,7 +854,7 @@
         <v>36</v>
       </c>
       <c r="C9">
-        <v>-0.03471126580445062</v>
+        <v>-0.03660628572025142</v>
       </c>
       <c r="D9">
         <v>0.01134116819764673</v>
@@ -863,31 +863,31 @@
         <v>-0.01161151956846078</v>
       </c>
       <c r="G9">
-        <v>0.01567670145906806</v>
+        <v>0.01714962586998503</v>
       </c>
       <c r="H9">
-        <v>-0.01460084948003398</v>
+        <v>-0.009228710673148425</v>
       </c>
       <c r="I9">
-        <v>-0.01634184026967361</v>
+        <v>-0.01634195143767805</v>
       </c>
       <c r="J9">
-        <v>0.01398212846775497</v>
+        <v>0.01403270558951532</v>
       </c>
       <c r="K9">
-        <v>0.02199143924765757</v>
+        <v>0.02145713548228542</v>
       </c>
       <c r="L9">
         <v>-0.005810813896432555</v>
       </c>
       <c r="M9">
-        <v>-0.003555218638208745</v>
+        <v>-0.003555441934217677</v>
       </c>
       <c r="O9">
-        <v>-0.01106096885843875</v>
+        <v>-0.01222728327309133</v>
       </c>
       <c r="P9">
-        <v>0.01577002335080093</v>
+        <v>0.003721433140857325</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -898,7 +898,7 @@
         <v>37</v>
       </c>
       <c r="C10">
-        <v>0.0128436349777454</v>
+        <v>0.01345835420233417</v>
       </c>
       <c r="D10">
         <v>-0.003002327832093113</v>
@@ -907,31 +907,31 @@
         <v>-0.004435655217426208</v>
       </c>
       <c r="G10">
-        <v>-0.01715485230219409</v>
+        <v>-0.01597742915109716</v>
       </c>
       <c r="H10">
-        <v>0.00943600050544002</v>
+        <v>0.009554301694172066</v>
       </c>
       <c r="I10">
-        <v>0.01516988211079528</v>
+        <v>0.01517028415881136</v>
       </c>
       <c r="J10">
-        <v>-0.003362985787442842</v>
+        <v>-0.003398920508851265</v>
       </c>
       <c r="K10">
-        <v>0.008483349459333977</v>
+        <v>0.008389175183567006</v>
       </c>
       <c r="L10">
         <v>0.008979729287189169</v>
       </c>
       <c r="M10">
-        <v>-0.0093742075109683</v>
+        <v>-0.009374450198978007</v>
       </c>
       <c r="O10">
-        <v>0.009310005588400222</v>
+        <v>0.00931866306074652</v>
       </c>
       <c r="P10">
-        <v>0.01308106669924266</v>
+        <v>0.01691966410078656</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -940,7 +940,7 @@
         <v>38</v>
       </c>
       <c r="C11">
-        <v>0.1121617271744691</v>
+        <v>0.1217623800704952</v>
       </c>
       <c r="D11">
         <v>-0.01355069564602782</v>
@@ -949,31 +949,31 @@
         <v>0.02103135626525425</v>
       </c>
       <c r="G11">
-        <v>0.01268636988345479</v>
+        <v>0.01283819590552784</v>
       </c>
       <c r="H11">
-        <v>0.004874002850960113</v>
+        <v>0.004627863545114541</v>
       </c>
       <c r="I11">
-        <v>0.2239012362520494</v>
+        <v>0.2239009458520378</v>
       </c>
       <c r="J11">
-        <v>-0.02179430283967897</v>
+        <v>-0.02180167578346144</v>
       </c>
       <c r="K11">
-        <v>0.01600909120036365</v>
+        <v>0.02276483735859349</v>
       </c>
       <c r="L11">
         <v>-0.003718718836748753</v>
       </c>
       <c r="M11">
-        <v>0.0119153550686142</v>
+        <v>0.01191483071659323</v>
       </c>
       <c r="O11">
-        <v>-0.004180517351220694</v>
+        <v>-0.004952570406102816</v>
       </c>
       <c r="P11">
-        <v>0.01126911933076477</v>
+        <v>0.007093736443749456</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -982,7 +982,7 @@
         <v>39</v>
       </c>
       <c r="C12">
-        <v>-0.1820187823527513</v>
+        <v>-0.2086620849544834</v>
       </c>
       <c r="D12">
         <v>0.008274097386963894</v>
@@ -991,31 +991,31 @@
         <v>-0.001387766455510658</v>
       </c>
       <c r="G12">
-        <v>-0.008153445542137821</v>
+        <v>-0.00769594878783795</v>
       </c>
       <c r="H12">
-        <v>0.01644312084972483</v>
+        <v>0.01904131477765259</v>
       </c>
       <c r="I12">
-        <v>0.01745755231430209</v>
+        <v>0.01745732441029297</v>
       </c>
       <c r="J12">
-        <v>0.0006523332750483469</v>
+        <v>0.0006726105878729827</v>
       </c>
       <c r="K12">
-        <v>-0.01572385051695402</v>
+        <v>-0.0319952399358096</v>
       </c>
       <c r="L12">
         <v>-0.009811264424450577</v>
       </c>
       <c r="M12">
-        <v>0.01825651349826054</v>
+        <v>0.01825691593027663</v>
       </c>
       <c r="O12">
-        <v>-0.002667945898717836</v>
+        <v>-0.002363656414546256</v>
       </c>
       <c r="P12">
-        <v>0.01270445100417804</v>
+        <v>0.00989395949975838</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1026,7 +1026,7 @@
         <v>40</v>
       </c>
       <c r="C13">
-        <v>0.03418689909547595</v>
+        <v>0.03408062305922491</v>
       </c>
       <c r="D13">
         <v>-0.003862417402496696</v>
@@ -1035,31 +1035,31 @@
         <v>-0.001327900085116003</v>
       </c>
       <c r="G13">
-        <v>-0.008359286158371445</v>
+        <v>-0.007703735636149425</v>
       </c>
       <c r="H13">
-        <v>-0.006853553458142138</v>
+        <v>-0.004879405443176217</v>
       </c>
       <c r="I13">
-        <v>-0.004905113668204546</v>
+        <v>-0.00490474877218995</v>
       </c>
       <c r="J13">
-        <v>0.0007164863817083913</v>
+        <v>0.0003641693430911776</v>
       </c>
       <c r="K13">
-        <v>0.02759805787192231</v>
+        <v>0.0274204975128199</v>
       </c>
       <c r="L13">
         <v>-0.01481656772866271</v>
       </c>
       <c r="M13">
-        <v>-0.00590392929215717</v>
+        <v>-0.00590370225214809</v>
       </c>
       <c r="O13">
-        <v>-0.009842959977718398</v>
+        <v>-0.008800637728025508</v>
       </c>
       <c r="P13">
-        <v>-0.007359816198392648</v>
+        <v>-0.007532085997283439</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1070,7 +1070,7 @@
         <v>40</v>
       </c>
       <c r="C14">
-        <v>-0.02452969931718797</v>
+        <v>-0.02521865275274611</v>
       </c>
       <c r="D14">
         <v>0.009303267444130696</v>
@@ -1079,31 +1079,31 @@
         <v>-0.009293678387747136</v>
       </c>
       <c r="G14">
-        <v>0.005786192487447698</v>
+        <v>0.00676187153447486</v>
       </c>
       <c r="H14">
-        <v>-0.002115552468622098</v>
+        <v>0.001514724828588993</v>
       </c>
       <c r="I14">
-        <v>-0.008075050595002022</v>
+        <v>-0.008074700962988037</v>
       </c>
       <c r="J14">
-        <v>-0.009847853832331411</v>
+        <v>-0.00976609221270686</v>
       </c>
       <c r="K14">
-        <v>-0.0547140925245637</v>
+        <v>-0.05454451427778056</v>
       </c>
       <c r="L14">
         <v>0.01015621864624875</v>
       </c>
       <c r="M14">
-        <v>0.008729757373190294</v>
+        <v>0.008729707741188308</v>
       </c>
       <c r="O14">
-        <v>0.003228782337151293</v>
+        <v>0.001391676823667073</v>
       </c>
       <c r="P14">
-        <v>-0.03271537676461507</v>
+        <v>-0.03057577975103119</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1114,7 +1114,7 @@
         <v>41</v>
       </c>
       <c r="C15">
-        <v>-0.01814566238982649</v>
+        <v>-0.0209298851251954</v>
       </c>
       <c r="D15">
         <v>-0.01304049124161965</v>
@@ -1123,31 +1123,31 @@
         <v>0.01950393678015747</v>
       </c>
       <c r="G15">
-        <v>0.02363473467338938</v>
+        <v>0.02429551469982058</v>
       </c>
       <c r="H15">
-        <v>0.03222957220118288</v>
+        <v>0.03226213213848528</v>
       </c>
       <c r="I15">
-        <v>-0.007917280444691217</v>
+        <v>-0.00791711676468467</v>
       </c>
       <c r="J15">
-        <v>-0.01141909079348118</v>
+        <v>-0.01167512861181733</v>
       </c>
       <c r="K15">
-        <v>0.000454298802171952</v>
+        <v>0.0003239541249581649</v>
       </c>
       <c r="L15">
         <v>0.0106751199790048</v>
       </c>
       <c r="M15">
-        <v>0.02446341601853664</v>
+        <v>0.02446306456252258</v>
       </c>
       <c r="O15">
-        <v>0.003574206862968274</v>
+        <v>0.002863763154550526</v>
       </c>
       <c r="P15">
-        <v>0.1875355058054202</v>
+        <v>0.1379556868302274</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1158,7 +1158,7 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>-0.08437315806292631</v>
+        <v>-0.08514678052587121</v>
       </c>
       <c r="D16">
         <v>0.008000246624009864</v>
@@ -1167,31 +1167,31 @@
         <v>-0.002516718532668741</v>
       </c>
       <c r="G16">
-        <v>-0.007619388688775547</v>
+        <v>-0.007635356465414258</v>
       </c>
       <c r="H16">
-        <v>0.00680130152005206</v>
+        <v>0.007705348052213921</v>
       </c>
       <c r="I16">
-        <v>0.00743179229727169</v>
+        <v>0.007431940713277627</v>
       </c>
       <c r="J16">
-        <v>0.007222579931477054</v>
+        <v>0.007239815292017946</v>
       </c>
       <c r="K16">
-        <v>-0.05265642354625694</v>
+        <v>-0.05278317638332705</v>
       </c>
       <c r="L16">
         <v>0.000681021627240865</v>
       </c>
       <c r="M16">
-        <v>-0.01384630413785216</v>
+        <v>-0.01384669936986798</v>
       </c>
       <c r="O16">
-        <v>-0.002749147309965892</v>
+        <v>-0.002216513368660534</v>
       </c>
       <c r="P16">
-        <v>0.008119003908760155</v>
+        <v>0.008644586457783456</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1200,7 +1200,7 @@
         <v>42</v>
       </c>
       <c r="C17">
-        <v>0.004824555456982217</v>
+        <v>0.004517899572715982</v>
       </c>
       <c r="D17">
         <v>0.000706219804248792</v>
@@ -1209,31 +1209,31 @@
         <v>-0.004559023766360951</v>
       </c>
       <c r="G17">
-        <v>-0.01463303924132157</v>
+        <v>-0.01553234049329362</v>
       </c>
       <c r="H17">
-        <v>0.006446923841876953</v>
+        <v>0.007531377997255119</v>
       </c>
       <c r="I17">
-        <v>0.006110963764438549</v>
+        <v>0.006111149044445961</v>
       </c>
       <c r="J17">
-        <v>0.0176979837258292</v>
+        <v>0.01758605156076597</v>
       </c>
       <c r="K17">
-        <v>-0.002749342573973702</v>
+        <v>-0.003702030196081207</v>
       </c>
       <c r="L17">
         <v>-0.01696649578265983</v>
       </c>
       <c r="M17">
-        <v>0.0008718805788752232</v>
+        <v>0.0008716020828640833</v>
       </c>
       <c r="O17">
-        <v>-0.006125435669017426</v>
+        <v>-0.003394569447782777</v>
       </c>
       <c r="P17">
-        <v>0.001568186558727462</v>
+        <v>0.009634006945360277</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1244,7 +1244,7 @@
         <v>43</v>
       </c>
       <c r="C18">
-        <v>-0.04848182113927284</v>
+        <v>-0.04820253946410157</v>
       </c>
       <c r="D18">
         <v>-0.01802358638494345</v>
@@ -1253,31 +1253,31 @@
         <v>0.01383945962557838</v>
       </c>
       <c r="G18">
-        <v>-0.0003796122391844895</v>
+        <v>-0.001104145100165804</v>
       </c>
       <c r="H18">
-        <v>0.234333400669336</v>
+        <v>0.1983555143662205</v>
       </c>
       <c r="I18">
-        <v>-0.0001069672362786894</v>
+        <v>-0.0001069800042792002</v>
       </c>
       <c r="J18">
-        <v>-0.01434370993874759</v>
+        <v>-0.01448964429645086</v>
       </c>
       <c r="K18">
-        <v>-0.01871920558076822</v>
+        <v>-0.01883317102532684</v>
       </c>
       <c r="L18">
         <v>-0.0159471199338848</v>
       </c>
       <c r="M18">
-        <v>0.009107491948299675</v>
+        <v>0.00910774826830993</v>
       </c>
       <c r="O18">
-        <v>-0.008029177185167085</v>
+        <v>-0.006284359451374378</v>
       </c>
       <c r="P18">
-        <v>0.2173218987408759</v>
+        <v>0.1596115895524636</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1288,7 +1288,7 @@
         <v>44</v>
       </c>
       <c r="C19">
-        <v>0.04227114783484591</v>
+        <v>0.04377167627886705</v>
       </c>
       <c r="D19">
         <v>0.008829597665183904</v>
@@ -1297,31 +1297,31 @@
         <v>0.1131024278520971</v>
       </c>
       <c r="G19">
-        <v>0.1094334312573372</v>
+        <v>0.1051878422235137</v>
       </c>
       <c r="H19">
-        <v>0.005983449263337969</v>
+        <v>-0.00200782625631305</v>
       </c>
       <c r="I19">
-        <v>0.002195511831820473</v>
+        <v>0.002195564631822585</v>
       </c>
       <c r="J19">
-        <v>0.01102103080897602</v>
+        <v>0.01108985791556371</v>
       </c>
       <c r="K19">
-        <v>0.02082615481704619</v>
+        <v>0.02065246546609862</v>
       </c>
       <c r="L19">
         <v>0.005575834975033398</v>
       </c>
       <c r="M19">
-        <v>0.2874864590194584</v>
+        <v>0.2874863420914536</v>
       </c>
       <c r="O19">
-        <v>0.1203613347024534</v>
+        <v>0.1145438192377528</v>
       </c>
       <c r="P19">
-        <v>0.02085496278619851</v>
+        <v>0.0168156699846268</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1330,7 +1330,7 @@
         <v>45</v>
       </c>
       <c r="C20">
-        <v>0.005982523535300941</v>
+        <v>0.008164934534597381</v>
       </c>
       <c r="D20">
         <v>0.02431146903645876</v>
@@ -1339,31 +1339,31 @@
         <v>0.04517135393485416</v>
       </c>
       <c r="G20">
-        <v>0.06441415217656607</v>
+        <v>0.06355404983816199</v>
       </c>
       <c r="H20">
-        <v>0.0009750130950005238</v>
+        <v>-0.009118235884729434</v>
       </c>
       <c r="I20">
-        <v>-0.00234852326194093</v>
+        <v>-0.002348462397938495</v>
       </c>
       <c r="J20">
-        <v>-0.1256441222657079</v>
+        <v>-0.1257927229728504</v>
       </c>
       <c r="K20">
-        <v>0.003373735142949405</v>
+        <v>0.004940628389625134</v>
       </c>
       <c r="L20">
         <v>0.01872932830117313</v>
       </c>
       <c r="M20">
-        <v>0.1250787693231508</v>
+        <v>0.1250785413231416</v>
       </c>
       <c r="O20">
-        <v>0.06715160899006435</v>
+        <v>0.06397081244683249</v>
       </c>
       <c r="P20">
-        <v>0.01713511873340475</v>
+        <v>0.004222007688880307</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1372,7 +1372,7 @@
         <v>46</v>
       </c>
       <c r="C21">
-        <v>0.01280130233605209</v>
+        <v>0.0133140699405628</v>
       </c>
       <c r="D21">
         <v>-0.008950570822022831</v>
@@ -1381,31 +1381,31 @@
         <v>0.1505055708202228</v>
       </c>
       <c r="G21">
-        <v>0.1575813352952534</v>
+        <v>0.1540113166244526</v>
       </c>
       <c r="H21">
-        <v>0.002339818941592757</v>
+        <v>-0.001780414823216593</v>
       </c>
       <c r="I21">
-        <v>0.003811116920444676</v>
+        <v>0.003811498328459933</v>
       </c>
       <c r="J21">
-        <v>-0.006800204297963671</v>
+        <v>-0.006843343435588151</v>
       </c>
       <c r="K21">
-        <v>0.01492919848516794</v>
+        <v>0.0157855850474234</v>
       </c>
       <c r="L21">
         <v>-0.007676837203073487</v>
       </c>
       <c r="M21">
-        <v>0.3239262939810517</v>
+        <v>0.3239262060450482</v>
       </c>
       <c r="O21">
-        <v>0.1315999843999993</v>
+        <v>0.1260002412000096</v>
       </c>
       <c r="P21">
-        <v>0.00511772526070901</v>
+        <v>-0.001454512090180484</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1414,7 +1414,7 @@
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-0.0322240675609627</v>
+        <v>-0.02903570400942816</v>
       </c>
       <c r="D22">
         <v>-0.005675592323023692</v>
@@ -1423,31 +1423,31 @@
         <v>0.009258873010354919</v>
       </c>
       <c r="G22">
-        <v>-0.0002652048106081924</v>
+        <v>-0.003031419769256791</v>
       </c>
       <c r="H22">
-        <v>0.002838021233520849</v>
+        <v>-0.0102239949369598</v>
       </c>
       <c r="I22">
-        <v>-0.01083852523354101</v>
+        <v>-0.01083848654553946</v>
       </c>
       <c r="J22">
-        <v>-0.04353137426898489</v>
+        <v>-0.04337973362165616</v>
       </c>
       <c r="K22">
-        <v>-0.009630905473236218</v>
+        <v>-0.01018644367145775</v>
       </c>
       <c r="L22">
         <v>-0.009748495973939838</v>
       </c>
       <c r="M22">
-        <v>0.0489698050947922</v>
+        <v>0.04896950221478009</v>
       </c>
       <c r="O22">
-        <v>0.03383563076142523</v>
+        <v>0.03249725678789027</v>
       </c>
       <c r="P22">
-        <v>0.01523322608132904</v>
+        <v>0.008404102128164084</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1458,7 +1458,7 @@
         <v>48</v>
       </c>
       <c r="C23">
-        <v>0.02191800884472035</v>
+        <v>0.02433132423725297</v>
       </c>
       <c r="D23">
         <v>0.00190353300414132</v>
@@ -1467,31 +1467,31 @@
         <v>0.1226909046836362</v>
       </c>
       <c r="G23">
-        <v>0.1155862328794493</v>
+        <v>0.1097946635277865</v>
       </c>
       <c r="H23">
-        <v>-0.007862187674487507</v>
+        <v>-0.0187655725266229</v>
       </c>
       <c r="I23">
-        <v>-0.01244695336187813</v>
+        <v>-0.01244677700987108</v>
       </c>
       <c r="J23">
-        <v>0.01596334275790404</v>
+        <v>0.01568670031405686</v>
       </c>
       <c r="K23">
-        <v>-0.03594567686182707</v>
+        <v>-0.03915443302217731</v>
       </c>
       <c r="L23">
         <v>-0.0224758650590346</v>
       </c>
       <c r="M23">
-        <v>-0.5016470787858831</v>
+        <v>-0.5016472203858887</v>
       </c>
       <c r="O23">
-        <v>-0.1976281035211241</v>
+        <v>-0.1823585943343438</v>
       </c>
       <c r="P23">
-        <v>-0.04133810114152404</v>
+        <v>-0.0009354295094171802</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1500,7 +1500,7 @@
         <v>49</v>
       </c>
       <c r="C24">
-        <v>0.06881364150454565</v>
+        <v>0.07554787386991495</v>
       </c>
       <c r="D24">
         <v>0.007633207409328296</v>
@@ -1509,31 +1509,31 @@
         <v>0.2815851742394069</v>
       </c>
       <c r="G24">
-        <v>0.2483218887808755</v>
+        <v>0.2362826118193044</v>
       </c>
       <c r="H24">
-        <v>0.03847366435494658</v>
+        <v>0.009143363117734523</v>
       </c>
       <c r="I24">
-        <v>0.01228746145149846</v>
+        <v>0.0122876524915061</v>
       </c>
       <c r="J24">
-        <v>0.01108400445958716</v>
+        <v>0.01111350420454361</v>
       </c>
       <c r="K24">
-        <v>0.05366025008241</v>
+        <v>0.05496055986242238</v>
       </c>
       <c r="L24">
         <v>-0.002930071893202876</v>
       </c>
       <c r="M24">
-        <v>0.7166786425551455</v>
+        <v>0.7166787610191503</v>
       </c>
       <c r="O24">
-        <v>0.2456902659236106</v>
+        <v>0.2303133907165356</v>
       </c>
       <c r="P24">
-        <v>0.07307824909912995</v>
+        <v>0.04961222272048891</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1544,7 +1544,7 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <v>-0.02809961142798445</v>
+        <v>-0.08391623999664959</v>
       </c>
       <c r="D25">
         <v>-0.01569881131595245</v>
@@ -1553,31 +1553,31 @@
         <v>0.00765463125018525</v>
       </c>
       <c r="G25">
-        <v>0.491853677658147</v>
+        <v>0.5578229417689176</v>
       </c>
       <c r="H25">
-        <v>-0.02909084372363374</v>
+        <v>0.1765733809509352</v>
       </c>
       <c r="I25">
-        <v>0.01928704579548183</v>
+        <v>0.01928701613148064</v>
       </c>
       <c r="J25">
-        <v>-0.2839769980468222</v>
+        <v>-0.2819054359861612</v>
       </c>
       <c r="K25">
-        <v>0.007916882524675302</v>
+        <v>0.04534666981386679</v>
       </c>
       <c r="L25">
         <v>-0.0155681725907269</v>
       </c>
       <c r="M25">
-        <v>-0.003917108796684351</v>
+        <v>-0.003917042556681702</v>
       </c>
       <c r="O25">
-        <v>-0.5215254948770197</v>
+        <v>-0.5691725677589026</v>
       </c>
       <c r="P25">
-        <v>0.03454269853370794</v>
+        <v>-0.3638714127948565</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1586,7 +1586,7 @@
         <v>51</v>
       </c>
       <c r="C26">
-        <v>0.03883552024142081</v>
+        <v>0.03965534328221373</v>
       </c>
       <c r="D26">
         <v>-0.0006603015624120623</v>
@@ -1595,31 +1595,31 @@
         <v>0.01198932220757289</v>
       </c>
       <c r="G26">
-        <v>0.0009294900851796032</v>
+        <v>0.0005765744870629794</v>
       </c>
       <c r="H26">
-        <v>-0.07375156269406251</v>
+        <v>-0.0599976854399074</v>
       </c>
       <c r="I26">
-        <v>0.01220160797606432</v>
+        <v>0.0122017175120687</v>
       </c>
       <c r="J26">
-        <v>-1.112299246120376E-05</v>
+        <v>-4.512504186998173E-05</v>
       </c>
       <c r="K26">
-        <v>-0.02792811730912469</v>
+        <v>-0.02791159897246395</v>
       </c>
       <c r="L26">
         <v>0.009684547299381891</v>
       </c>
       <c r="M26">
-        <v>0.008937643365505734</v>
+        <v>0.008937885477515417</v>
       </c>
       <c r="O26">
-        <v>0.01170333474013339</v>
+        <v>0.01150169479606779</v>
       </c>
       <c r="P26">
-        <v>0.1336730711709228</v>
+        <v>0.1147604966224199</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1630,7 +1630,7 @@
         <v>52</v>
       </c>
       <c r="C27">
-        <v>-0.009528155325126211</v>
+        <v>-0.00926855557074222</v>
       </c>
       <c r="D27">
         <v>-0.0438329677693187</v>
@@ -1639,31 +1639,31 @@
         <v>-0.002728780813151232</v>
       </c>
       <c r="G27">
-        <v>-0.03835879113435164</v>
+        <v>-0.03912918569316742</v>
       </c>
       <c r="H27">
-        <v>-0.02470693682827747</v>
+        <v>-0.02645114121804564</v>
       </c>
       <c r="I27">
-        <v>-0.02272703390108135</v>
+        <v>-0.02272702074908083</v>
       </c>
       <c r="J27">
-        <v>0.008167167218643422</v>
+        <v>0.008133125377036716</v>
       </c>
       <c r="K27">
-        <v>-0.04983361284134451</v>
+        <v>-0.04974789856591594</v>
       </c>
       <c r="L27">
         <v>-0.2703447203177888</v>
       </c>
       <c r="M27">
-        <v>0.01218178992727159</v>
+        <v>0.0121813426632537</v>
       </c>
       <c r="O27">
-        <v>-0.1588230529129221</v>
+        <v>-0.1537306330612253</v>
       </c>
       <c r="P27">
-        <v>-0.01412466968498679</v>
+        <v>-0.01611570899662836</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1674,7 +1674,7 @@
         <v>53</v>
       </c>
       <c r="C28">
-        <v>-0.014644425033777</v>
+        <v>-0.01421429893657196</v>
       </c>
       <c r="D28">
         <v>-0.003927406429096257</v>
@@ -1683,31 +1683,31 @@
         <v>-0.003448036457921458</v>
       </c>
       <c r="G28">
-        <v>-0.04441476878459075</v>
+        <v>-0.04597995726319828</v>
       </c>
       <c r="H28">
-        <v>0.01209248390769935</v>
+        <v>0.007925923229036928</v>
       </c>
       <c r="I28">
-        <v>0.009357204182288165</v>
+        <v>0.009357163574286542</v>
       </c>
       <c r="J28">
-        <v>-0.005147043477417011</v>
+        <v>-0.005378237022874141</v>
       </c>
       <c r="K28">
-        <v>-0.01279634979185399</v>
+        <v>-0.01471520180460807</v>
       </c>
       <c r="L28">
         <v>-0.07358263676730546</v>
       </c>
       <c r="M28">
-        <v>0.01830134895605396</v>
+        <v>0.01830149948405998</v>
       </c>
       <c r="O28">
-        <v>-0.02223276117731044</v>
+        <v>-0.01778847671153906</v>
       </c>
       <c r="P28">
-        <v>0.005880669931226796</v>
+        <v>0.02121107144044285</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1718,7 +1718,7 @@
         <v>54</v>
       </c>
       <c r="C29">
-        <v>0.002896455283858211</v>
+        <v>0.004101514052060562</v>
       </c>
       <c r="D29">
         <v>0.006002623056104921</v>
@@ -1727,31 +1727,31 @@
         <v>0.002228218169128726</v>
       </c>
       <c r="G29">
-        <v>0.006581377223255088</v>
+        <v>0.006334658461386337</v>
       </c>
       <c r="H29">
-        <v>-0.00698551851942074</v>
+        <v>-0.008551363542054539</v>
       </c>
       <c r="I29">
-        <v>-0.007644638705785548</v>
+        <v>-0.007644891473795657</v>
       </c>
       <c r="J29">
-        <v>-0.001558874752637183</v>
+        <v>-0.001611779730792152</v>
       </c>
       <c r="K29">
-        <v>-0.01795073783802951</v>
+        <v>-0.01729460325178413</v>
       </c>
       <c r="L29">
         <v>0.04295909922236396</v>
       </c>
       <c r="M29">
-        <v>-0.01993854607754184</v>
+        <v>-0.01993859369354375</v>
       </c>
       <c r="O29">
-        <v>0.004830913633236544</v>
+        <v>0.004856851394274055</v>
       </c>
       <c r="P29">
-        <v>-0.004123114340924573</v>
+        <v>-0.002055873298234932</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1762,7 +1762,7 @@
         <v>55</v>
       </c>
       <c r="C30">
-        <v>0.006726098381043934</v>
+        <v>0.006576779591071182</v>
       </c>
       <c r="D30">
         <v>0.006413414080536562</v>
@@ -1771,31 +1771,31 @@
         <v>-0.002731674061266962</v>
       </c>
       <c r="G30">
-        <v>0.002255953146238126</v>
+        <v>0.002969789686791587</v>
       </c>
       <c r="H30">
-        <v>0.005027697801107911</v>
+        <v>0.004122977828919113</v>
       </c>
       <c r="I30">
-        <v>0.00283410424136417</v>
+        <v>0.002834183729367349</v>
       </c>
       <c r="J30">
-        <v>-0.001147895615596344</v>
+        <v>-0.001156684175932992</v>
       </c>
       <c r="K30">
-        <v>-0.009136884365475374</v>
+        <v>-0.008836650977466038</v>
       </c>
       <c r="L30">
         <v>0.03512232054089282</v>
       </c>
       <c r="M30">
-        <v>-0.006490536835621472</v>
+        <v>-0.00649047203561888</v>
       </c>
       <c r="O30">
-        <v>0.01273103302124132</v>
+        <v>0.01261579308063172</v>
       </c>
       <c r="P30">
-        <v>0.0137497051899882</v>
+        <v>0.009610928928437157</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1806,7 +1806,7 @@
         <v>56</v>
       </c>
       <c r="C31">
-        <v>0.3423567217582688</v>
+        <v>0.3125422584216903</v>
       </c>
       <c r="D31">
         <v>0.9876190863847633</v>
@@ -1815,31 +1815,31 @@
         <v>-0.9180295893611834</v>
       </c>
       <c r="G31">
-        <v>-0.3742340448893617</v>
+        <v>-0.3475145592765824</v>
       </c>
       <c r="H31">
-        <v>0.1301307840212313</v>
+        <v>0.222707776684311</v>
       </c>
       <c r="I31">
-        <v>0.0163551425102057</v>
+        <v>0.01635504967820198</v>
       </c>
       <c r="J31">
-        <v>0.7782438621251035</v>
+        <v>0.7811742206598598</v>
       </c>
       <c r="K31">
-        <v>0.002137879573515183</v>
+        <v>0.006266424538656981</v>
       </c>
       <c r="L31">
         <v>0.0005378334935133396</v>
       </c>
       <c r="M31">
-        <v>0.00468222076328883</v>
+        <v>0.00468178127527125</v>
       </c>
       <c r="O31">
-        <v>0.02626204665048186</v>
+        <v>0.01650372901214915</v>
       </c>
       <c r="P31">
-        <v>-0.06062437519297499</v>
+        <v>-0.0880451077138043</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1850,7 +1850,7 @@
         <v>57</v>
       </c>
       <c r="C32">
-        <v>0.03416970232678809</v>
+        <v>0.02964580246583209</v>
       </c>
       <c r="D32">
         <v>0.07474604814184192</v>
@@ -1859,31 +1859,31 @@
         <v>-0.0677100554124022</v>
       </c>
       <c r="G32">
-        <v>-0.03534719584588782</v>
+        <v>-0.03369756624390265</v>
       </c>
       <c r="H32">
-        <v>0.01720366993614679</v>
+        <v>0.03740993477639738</v>
       </c>
       <c r="I32">
-        <v>0.003258951298358052</v>
+        <v>0.0032590325143613</v>
       </c>
       <c r="J32">
-        <v>0.223369791021805</v>
+        <v>0.2240876307581914</v>
       </c>
       <c r="K32">
-        <v>-0.01344471970578879</v>
+        <v>-0.0127752074230083</v>
       </c>
       <c r="L32">
         <v>0.001641176417647057</v>
       </c>
       <c r="M32">
-        <v>-0.002185570071422803</v>
+        <v>-0.002185626711425068</v>
       </c>
       <c r="O32">
-        <v>0.007847439097897563</v>
+        <v>0.008014030400561216</v>
       </c>
       <c r="P32">
-        <v>-0.01122601177704047</v>
+        <v>-0.01612488141299525</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1894,7 +1894,7 @@
         <v>58</v>
       </c>
       <c r="C33">
-        <v>-0.005478744507149779</v>
+        <v>-0.005052352234094088</v>
       </c>
       <c r="D33">
         <v>-0.001167913582716543</v>
@@ -1903,31 +1903,31 @@
         <v>-0.0029021400200856</v>
       </c>
       <c r="G33">
-        <v>-0.0007695220147808805</v>
+        <v>-0.001897313931892557</v>
       </c>
       <c r="H33">
-        <v>-0.003529363629174545</v>
+        <v>-0.003495412651816505</v>
       </c>
       <c r="I33">
-        <v>-0.005348972853958914</v>
+        <v>-0.005349035637961424</v>
       </c>
       <c r="J33">
-        <v>0.002569975066561446</v>
+        <v>0.002542494921360989</v>
       </c>
       <c r="K33">
-        <v>-0.0162233300889332</v>
+        <v>-0.01670667062026682</v>
       </c>
       <c r="L33">
         <v>-0.02263928893757155</v>
       </c>
       <c r="M33">
-        <v>-0.01021851717674068</v>
+        <v>-0.01021900936876037</v>
       </c>
       <c r="O33">
-        <v>-0.02733769069350763</v>
+        <v>-0.02616318469452738</v>
       </c>
       <c r="P33">
-        <v>0.02298900072756003</v>
+        <v>0.02289747979589919</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2_agile.xlsx
@@ -624,12 +624,12 @@
       </c>
       <c r="N2" s="1" t="inlineStr">
         <is>
-          <t>Crude glycerol GWP [kg*CO2*eq / gal]</t>
+          <t>Crude glycerol GWP [kg*CO2*eq / kg]</t>
         </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Electricity GWP [kg*CO2*eq / kWhr]</t>
+          <t>Electricity GWP [kg*CO2*eq / MWhr]</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="Z2" s="1" t="inlineStr">
         <is>
-          <t>Electricity GWP derivative [kg*CO2*eq / kWhr]</t>
+          <t>Electricity GWP derivative [kg*CO2*eq / MWhr]</t>
         </is>
       </c>
     </row>
@@ -712,71 +712,71 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.2017521752175217</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01586558655865586</v>
+        <v>-0.7</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.05525352535253525</v>
+        <v>0.7</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04693754349510926</v>
+        <v>-0.2051956704170308</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.09703615981043037</v>
+        <v>0.7</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06873087308730871</v>
+        <v>-0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07625562556255625</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04248424842484248</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04225622562256225</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.04225622562256225</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.04225622562256225</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04225622562256225</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>-0.09519351935193518</v>
+        <v>-0.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.2653825382538254</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.02741074107410741</v>
+        <v>-0.3</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1558094705843707</v>
+        <v>0.3</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2018330516450388</v>
+        <v>-0.6</v>
       </c>
       <c r="U4" t="n">
-        <v>0.286996699669967</v>
+        <v>-0.7</v>
       </c>
       <c r="V4" t="n">
-        <v>0.17000900090009</v>
+        <v>-0.6</v>
       </c>
       <c r="W4" t="n">
-        <v>0.17000900090009</v>
+        <v>-0.6</v>
       </c>
       <c r="X4" t="n">
-        <v>0.17000900090009</v>
+        <v>-0.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.17000900090009</v>
+        <v>-0.6</v>
       </c>
       <c r="Z4" t="inlineStr"/>
     </row>
@@ -788,71 +788,71 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01306930693069307</v>
+        <v>0.2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1998679867986798</v>
+        <v>-0.4</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1276567656765676</v>
+        <v>0.4</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.07198273593524125</v>
+        <v>-0.6668859288553501</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.03918179323575739</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1032703270327033</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1110951095109511</v>
+        <v>-0.2</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05992199219921992</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1024662466246624</v>
+        <v>0.3</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1024662466246624</v>
+        <v>0.3</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1024662466246624</v>
+        <v>0.3</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1024662466246624</v>
+        <v>0.3</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>0.1721932193219322</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8444524452445243</v>
+        <v>0.3</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.1156675667566757</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.03150837799864618</v>
+        <v>0.6</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1311581718424893</v>
+        <v>-0.3</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.03617161716171617</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02151815181518152</v>
+        <v>-0.3</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02151815181518152</v>
+        <v>-0.3</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02151815181518152</v>
+        <v>-0.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.02151815181518152</v>
+        <v>-0.3</v>
       </c>
       <c r="Z5" t="inlineStr"/>
     </row>
@@ -864,71 +864,71 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1835703570357035</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.05338133813381338</v>
+        <v>0.3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03449144914491448</v>
+        <v>-0.3</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1012827337398053</v>
+        <v>-0.2051956704170308</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01394891045954353</v>
+        <v>-0.3</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9016981698169815</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9742574257425741</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1422862286228623</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00744074407440744</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00744074407440744</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00744074407440744</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00744074407440744</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>-0.06459045904590459</v>
+        <v>-0.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1621482148214821</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="R6" t="n">
-        <v>0.09460546054605459</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.01653016852620843</v>
+        <v>-0.7</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1354316762517815</v>
+        <v>0.6</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04498049804980497</v>
+        <v>-0.3</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0836003600360036</v>
+        <v>0.6</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0836003600360036</v>
+        <v>0.6</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0836003600360036</v>
+        <v>0.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0836003600360036</v>
+        <v>0.6</v>
       </c>
       <c r="Z6" t="inlineStr"/>
     </row>
@@ -944,71 +944,71 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6824242424242423</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02965496549654965</v>
+        <v>0.3</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.06327032703270327</v>
+        <v>-0.3</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1488630895561597</v>
+        <v>-0.2051956704170308</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0444156357145534</v>
+        <v>-0.3</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.01204920492049205</v>
+        <v>-0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.00204020402040204</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.06497449744974497</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.06347434743474346</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.06347434743474346</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.06347434743474346</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.06347434743474346</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>-0.2492289228922892</v>
+        <v>0.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.09218121812181217</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.01323732373237324</v>
+        <v>0.7</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.05798792743546186</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.1778666146979832</v>
+        <v>0.4</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.1765616561656166</v>
+        <v>0.3</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.1406660666066606</v>
+        <v>0.4</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.1406660666066606</v>
+        <v>0.4</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.1406660666066606</v>
+        <v>0.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.1406660666066606</v>
+        <v>0.4</v>
       </c>
       <c r="Z7" t="inlineStr"/>
     </row>
@@ -1024,71 +1024,71 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.4862286228622862</v>
+        <v>0.7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07014701470147015</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1618481848184818</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03648112973618835</v>
+        <v>-0.5642880936468347</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1624831992471183</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.05819381938193819</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005976597659765976</v>
+        <v>0.2</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0785118511851185</v>
+        <v>-0.6</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.04121212121212121</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04121212121212121</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04121212121212121</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.04121212121212121</v>
+        <v>0</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>0.8391839183918391</v>
+        <v>0.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.02898289828982898</v>
+        <v>0.3</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03318331833183318</v>
+        <v>0.6</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.1071332974715328</v>
+        <v>0.6</v>
       </c>
       <c r="T8" t="n">
-        <v>0.04046024329078438</v>
+        <v>0.3</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.003816381638163816</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="V8" t="n">
-        <v>0.06683468346834683</v>
+        <v>0.3</v>
       </c>
       <c r="W8" t="n">
-        <v>0.06683468346834683</v>
+        <v>0.3</v>
       </c>
       <c r="X8" t="n">
-        <v>0.06683468346834683</v>
+        <v>0.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.06683468346834683</v>
+        <v>0.3</v>
       </c>
       <c r="Z8" t="inlineStr"/>
     </row>
@@ -1104,71 +1104,71 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1478307830783078</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.004524452445244524</v>
+        <v>-0.6</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03661566156615661</v>
+        <v>0.6</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03660969220043737</v>
+        <v>-0.1025978352085154</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003361183243263501</v>
+        <v>0.6</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.01962196219621962</v>
+        <v>-0.6</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03785178517851785</v>
+        <v>-0.7</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06925892589258925</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06088208820882088</v>
+        <v>0.2</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06088208820882088</v>
+        <v>0.2</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06088208820882088</v>
+        <v>0.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.06088208820882088</v>
+        <v>0.2</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>0.1737293729372937</v>
+        <v>0.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.08793279327932792</v>
+        <v>0.3</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04987698769876987</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.0824824129662918</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="T9" t="n">
-        <v>0.002905022660249168</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008616861686168617</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="V9" t="n">
-        <v>0.05197719771977197</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="W9" t="n">
-        <v>0.05197719771977197</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="X9" t="n">
-        <v>0.05197719771977197</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.05197719771977197</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="Z9" t="inlineStr"/>
     </row>
@@ -1184,71 +1184,71 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.07624362436243623</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.08388838883888387</v>
+        <v>0.3</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1578277827782778</v>
+        <v>-0.3</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01199916332990924</v>
+        <v>0.5642880936468347</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1545484059478427</v>
+        <v>-0.3</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.05604560456045604</v>
+        <v>-0.7</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04612061206120611</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01597359735973597</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1277767776777678</v>
+        <v>-0.6</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1277767776777678</v>
+        <v>-0.6</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1277767776777678</v>
+        <v>-0.6</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1277767776777678</v>
+        <v>-0.6</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>0.0676987698769877</v>
+        <v>0.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0938013801380138</v>
+        <v>0.6</v>
       </c>
       <c r="R10" t="n">
-        <v>0.296993699369937</v>
+        <v>-0.3</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.2235663185753502</v>
+        <v>0.3</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1156547141329364</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.0749114911491149</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.05796579657965795</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.05796579657965795</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.05796579657965795</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.05796579657965795</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="Z10" t="inlineStr"/>
     </row>
@@ -1260,71 +1260,71 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1383018301830183</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1215841584158416</v>
+        <v>-0.3</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1027062706270627</v>
+        <v>0.3</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1135084118876772</v>
+        <v>-0.6668859288553501</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.08223494931420218</v>
+        <v>0.3</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0401080108010801</v>
+        <v>-0.3</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1783978397839784</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08662466246624663</v>
+        <v>-0.7</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.06966696669666966</v>
+        <v>0.4</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.06966696669666966</v>
+        <v>0.4</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.06966696669666966</v>
+        <v>0.4</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.06966696669666966</v>
+        <v>0.4</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>-0.09422142214221421</v>
+        <v>0.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.07507950795079507</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1431743174317432</v>
+        <v>0.3</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03060607622319813</v>
+        <v>0.7</v>
       </c>
       <c r="T11" t="n">
-        <v>0.02804787374244704</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="U11" t="n">
-        <v>0.07671167116711669</v>
+        <v>-0.2</v>
       </c>
       <c r="V11" t="n">
-        <v>0.05706570657065705</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="W11" t="n">
-        <v>0.05706570657065705</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="X11" t="n">
-        <v>0.05706570657065705</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.05706570657065705</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="Z11" t="inlineStr"/>
     </row>
@@ -1336,71 +1336,71 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.2334593459345934</v>
+        <v>-0.4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.142022202220222</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1628442844284428</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1178428035395015</v>
+        <v>-0.6668859288553501</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1890425489818343</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.09285328532853285</v>
+        <v>0.3</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1013261326132613</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01767776777677768</v>
+        <v>0.2</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.1573717371737174</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.1573717371737174</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.1573717371737174</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1573717371737174</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>-0.1512151215121512</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.008592859285928591</v>
+        <v>-0.6</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.05316531653165316</v>
+        <v>-0.3</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1289810311277151</v>
+        <v>-0.3</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1682512297770758</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09978997899789979</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="V12" t="n">
-        <v>0.175997599759976</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="W12" t="n">
-        <v>0.175997599759976</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>0.175997599759976</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.175997599759976</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="Z12" t="inlineStr"/>
     </row>
@@ -1416,71 +1416,71 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.000948094809480948</v>
+        <v>-0.3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0574017401740174</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.06061806180618062</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.02025777115238249</v>
+        <v>0.2051956704170308</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.04145059192496024</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04756075607560756</v>
+        <v>-0.6</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01347734773477348</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1174797479747975</v>
+        <v>-0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01528952895289529</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.01528952895289529</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.01528952895289529</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.01528952895289529</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>0.004512451245124512</v>
+        <v>0.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.02042604260426042</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="R13" t="n">
-        <v>0.03841584158415842</v>
+        <v>-0.4</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.08924366093698259</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="T13" t="n">
-        <v>0.08987563907969223</v>
+        <v>-0.2</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.08774077407740774</v>
+        <v>0.6</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1605400540054005</v>
+        <v>-0.2</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1605400540054005</v>
+        <v>-0.2</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1605400540054005</v>
+        <v>-0.2</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.1605400540054005</v>
+        <v>-0.2</v>
       </c>
       <c r="Z13" t="inlineStr"/>
     </row>
@@ -1496,71 +1496,71 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.02618661866186618</v>
+        <v>-0.2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02585058505850584</v>
+        <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.05246924692469247</v>
+        <v>-0.6</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1107902340721263</v>
+        <v>0.8720815992723809</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.06507490843475514</v>
+        <v>-0.6</v>
       </c>
       <c r="H14" t="n">
-        <v>0.000684068406840684</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0302070207020702</v>
+        <v>-0.3</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.1781698169816981</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03001500150015001</v>
+        <v>-0.7</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03001500150015001</v>
+        <v>-0.7</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03001500150015001</v>
+        <v>-0.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.03001500150015001</v>
+        <v>-0.7</v>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>0.04792079207920791</v>
+        <v>-0.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02279027902790279</v>
+        <v>0.2</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1018901890189019</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>0.007326690416638231</v>
+        <v>-0.4</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.04449966529563499</v>
+        <v>0.3</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0971017101710171</v>
+        <v>0.6</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.001728172817281728</v>
+        <v>0.3</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.001728172817281728</v>
+        <v>0.3</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.001728172817281728</v>
+        <v>0.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.001728172817281728</v>
+        <v>0.3</v>
       </c>
       <c r="Z14" t="inlineStr"/>
     </row>
@@ -1576,71 +1576,71 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.1441464146414641</v>
+        <v>0.2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04915691569156915</v>
+        <v>-0.4</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01245724572457246</v>
+        <v>0.4</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00498944801728369</v>
+        <v>-0.6668859288553501</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02639729268548728</v>
+        <v>0.4</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.01754575457545754</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.04292829282928293</v>
+        <v>-0.2</v>
       </c>
       <c r="J15" t="n">
-        <v>0.005292529252925292</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.1607440744074407</v>
+        <v>0.3</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.1607440744074407</v>
+        <v>0.3</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.1607440744074407</v>
+        <v>0.3</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.1607440744074407</v>
+        <v>0.3</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>-0.09082508250825082</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.004956495649564956</v>
+        <v>0.3</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.06987098709870986</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1998538279165752</v>
+        <v>0.6</v>
       </c>
       <c r="T15" t="n">
-        <v>0.04370738638829431</v>
+        <v>-0.3</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1812901290129013</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="V15" t="n">
-        <v>0.06139813981398139</v>
+        <v>-0.3</v>
       </c>
       <c r="W15" t="n">
-        <v>0.06139813981398139</v>
+        <v>-0.3</v>
       </c>
       <c r="X15" t="n">
-        <v>0.06139813981398139</v>
+        <v>-0.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.06139813981398139</v>
+        <v>-0.3</v>
       </c>
       <c r="Z15" t="inlineStr"/>
     </row>
@@ -1656,71 +1656,71 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.09891389138913891</v>
+        <v>-0.2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0432043204320432</v>
+        <v>0.4</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.09082508250825082</v>
+        <v>-0.4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08917337401196836</v>
+        <v>0.6668859288553501</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.06682752541159967</v>
+        <v>-0.4</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08918091809180917</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04168016801680167</v>
+        <v>0.2</v>
       </c>
       <c r="J16" t="n">
-        <v>0.07372337233723371</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.01155715571557156</v>
+        <v>-0.3</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01155715571557156</v>
+        <v>-0.3</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01155715571557156</v>
+        <v>-0.3</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.01155715571557156</v>
+        <v>-0.3</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>-0.0628022802280228</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.04786078607860785</v>
+        <v>-0.3</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.04894089408940894</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.04019453642362616</v>
+        <v>-0.6</v>
       </c>
       <c r="T16" t="n">
-        <v>0.07147316082282457</v>
+        <v>0.3</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1357695769576958</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="V16" t="n">
-        <v>0.07158715871587158</v>
+        <v>0.3</v>
       </c>
       <c r="W16" t="n">
-        <v>0.07158715871587158</v>
+        <v>0.3</v>
       </c>
       <c r="X16" t="n">
-        <v>0.07158715871587158</v>
+        <v>0.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.07158715871587158</v>
+        <v>0.3</v>
       </c>
       <c r="Z16" t="inlineStr"/>
     </row>
@@ -1732,71 +1732,71 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.008484848484848484</v>
+        <v>-0.4</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.003684368436843684</v>
+        <v>-0.2</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0005520552055205519</v>
+        <v>0.2</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1602806607858948</v>
+        <v>0.6155870112510925</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001506530346534176</v>
+        <v>0.2</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.04561656165616561</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.07153915391539153</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1257965796579658</v>
+        <v>-0.3</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.01452145214521452</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.01452145214521452</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.01452145214521452</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.01452145214521452</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>0.1022382238223822</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.02733873387338734</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="R17" t="n">
-        <v>0.05628562856285628</v>
+        <v>-0.7</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.03976143157141109</v>
+        <v>0.3</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.004159464263538582</v>
+        <v>-0.6</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.05683768376837683</v>
+        <v>0.3</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.06811881188118811</v>
+        <v>-0.6</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.06811881188118811</v>
+        <v>-0.6</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.06811881188118811</v>
+        <v>-0.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.06811881188118811</v>
+        <v>-0.6</v>
       </c>
       <c r="Z17" t="inlineStr"/>
     </row>
@@ -1812,71 +1812,71 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.07473147314731472</v>
+        <v>0.6</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01221722172217222</v>
+        <v>0.2</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.05191719171917192</v>
+        <v>-0.2</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04548050223362027</v>
+        <v>-0.6668859288553501</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.02943436183029323</v>
+        <v>-0.2</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1988358835883588</v>
+        <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.02761476147614761</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1056945694569457</v>
+        <v>-0.3</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.04733273327332733</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.04733273327332733</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.04733273327332733</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.04733273327332733</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>-0.04496849684968496</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.03744374437443744</v>
+        <v>0.4</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.1351335133513351</v>
+        <v>0.7</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0538493699587401</v>
+        <v>0.2</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.03646883818940898</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06354635463546354</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.002364236423642364</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.002364236423642364</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.002364236423642364</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.002364236423642364</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="Z18" t="inlineStr"/>
     </row>
@@ -1892,71 +1892,71 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.1316891689168917</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.05586558655865585</v>
+        <v>0.3</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2103810381038103</v>
+        <v>-0.3</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.07888837687204615</v>
+        <v>0.3077935056255462</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1394590940307633</v>
+        <v>-0.3</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0576057605760576</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002796279627962796</v>
+        <v>0.6</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.04412841284128412</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07884788478847884</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>0.07884788478847884</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>0.07884788478847884</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="N19" t="n">
-        <v>0.07884788478847884</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>0.055001500150015</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.0445004500450045</v>
+        <v>-0.4</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3148034803480347</v>
+        <v>0.2</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.1531386573290444</v>
+        <v>-0.7</v>
       </c>
       <c r="T19" t="n">
-        <v>0.021565591773296</v>
+        <v>0.4</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1561716171617162</v>
+        <v>-0.2</v>
       </c>
       <c r="V19" t="n">
-        <v>0.000624062406240624</v>
+        <v>0.4</v>
       </c>
       <c r="W19" t="n">
-        <v>0.000624062406240624</v>
+        <v>0.4</v>
       </c>
       <c r="X19" t="n">
-        <v>0.000624062406240624</v>
+        <v>0.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.000624062406240624</v>
+        <v>0.4</v>
       </c>
       <c r="Z19" t="inlineStr"/>
     </row>
@@ -1968,71 +1968,71 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.01675367536753675</v>
+        <v>0.2</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04843684368436843</v>
+        <v>0.4</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03449144914491448</v>
+        <v>-0.4</v>
       </c>
       <c r="F20" t="n">
-        <v>0.114383861048992</v>
+        <v>-0.3590924232298039</v>
       </c>
       <c r="G20" t="n">
-        <v>0.008697061641944307</v>
+        <v>-0.4</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07437143714371436</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01389738973897389</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.00414041404140414</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.1092469246924692</v>
+        <v>-0.3</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.1092469246924692</v>
+        <v>-0.3</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.1092469246924692</v>
+        <v>-0.3</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.1092469246924692</v>
+        <v>-0.3</v>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>-0.08243624362436243</v>
+        <v>-0.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.00072007200720072</v>
+        <v>0.3</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.03246324632463246</v>
+        <v>0.6</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.04616175883192264</v>
+        <v>-0.6</v>
       </c>
       <c r="T20" t="n">
-        <v>0.003751320583999443</v>
+        <v>0.7</v>
       </c>
       <c r="U20" t="n">
-        <v>0.008496849684968496</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="V20" t="n">
-        <v>0.007788778877887788</v>
+        <v>0.7</v>
       </c>
       <c r="W20" t="n">
-        <v>0.007788778877887788</v>
+        <v>0.7</v>
       </c>
       <c r="X20" t="n">
-        <v>0.007788778877887788</v>
+        <v>0.7</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.007788778877887788</v>
+        <v>0.7</v>
       </c>
       <c r="Z20" t="inlineStr"/>
     </row>
@@ -2044,71 +2044,71 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.103054305430543</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1326732673267327</v>
+        <v>-0.7</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03243924392439244</v>
+        <v>0.7</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2280575675335607</v>
+        <v>-0.4103913408340616</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01016757931087209</v>
+        <v>0.7</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01022502250225022</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>0.117971797179718</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.0347074707470747</v>
+        <v>0.2</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.1222802280228023</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.1222802280228023</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.1222802280228023</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.1222802280228023</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>-0.1308730873087308</v>
+        <v>-0.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.04625262526252625</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2306990699069907</v>
+        <v>-0.7</v>
       </c>
       <c r="S21" t="n">
-        <v>0.08940005991139359</v>
+        <v>-0.7</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2399524708914076</v>
+        <v>-0.6</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05275727572757275</v>
+        <v>-0.7</v>
       </c>
       <c r="V21" t="n">
-        <v>0.2168496849684968</v>
+        <v>-0.6</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2168496849684968</v>
+        <v>-0.6</v>
       </c>
       <c r="X21" t="n">
-        <v>0.2168496849684968</v>
+        <v>-0.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.2168496849684968</v>
+        <v>-0.6</v>
       </c>
       <c r="Z21" t="inlineStr"/>
     </row>
@@ -2120,71 +2120,71 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0261986198619862</v>
+        <v>0.6</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01765376537653765</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.007956795679567957</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1877318079141157</v>
+        <v>0.3590924232298039</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.05328675863159528</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.1667086708670867</v>
+        <v>0.7</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1066306630663066</v>
+        <v>0.6</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.0477047704770477</v>
+        <v>0.7</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.03476747674767477</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.03476747674767477</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.03476747674767477</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.03476747674767477</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>0.06613861386138613</v>
+        <v>-0.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.07764776477647764</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="R22" t="n">
-        <v>0.08342034203420341</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.1240725094692776</v>
+        <v>-0.2</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.01895467264683239</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.0507050705070507</v>
+        <v>0.3</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.09094509450945093</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.09094509450945093</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.09094509450945093</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.09094509450945093</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="Z22" t="inlineStr"/>
     </row>
@@ -2200,71 +2200,71 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.1669006900690069</v>
+        <v>-0.3</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2108370837083708</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3224842484248424</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="F23" t="n">
-        <v>0.008907542165825483</v>
+        <v>-0.5642880936468347</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2617521450691451</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.0333993399339934</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.07461146114611461</v>
+        <v>0.2</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.1038223822382238</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1507830783078308</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1507830783078308</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1507830783078308</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1507830783078308</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>-0.1615241524152415</v>
+        <v>-0.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.1208280828082808</v>
+        <v>-0.7</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.3296609660966096</v>
+        <v>-0.4</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.1183699622484459</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.1147243866281046</v>
+        <v>-0.7</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.05105310531053105</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.03647164716471647</v>
+        <v>-0.7</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.03647164716471647</v>
+        <v>-0.7</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.03647164716471647</v>
+        <v>-0.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.03647164716471647</v>
+        <v>-0.7</v>
       </c>
       <c r="Z23" t="inlineStr"/>
     </row>
@@ -2276,71 +2276,71 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.04379237923792378</v>
+        <v>0.3</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03861986198619861</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2362316231623162</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1039152032458568</v>
+        <v>-0.2051956704170308</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2106861682232775</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.03595559555955596</v>
+        <v>-0.6</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.09278127812781277</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>0.163060306030603</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="K24" t="n">
-        <v>0.09333333333333331</v>
+        <v>-0.3</v>
       </c>
       <c r="L24" t="n">
-        <v>0.09333333333333331</v>
+        <v>-0.3</v>
       </c>
       <c r="M24" t="n">
-        <v>0.09333333333333331</v>
+        <v>-0.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.09333333333333331</v>
+        <v>-0.3</v>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.03795979597959796</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.07372337233723371</v>
+        <v>0.7</v>
       </c>
       <c r="R24" t="n">
-        <v>0.4608700870087009</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.2647233102261209</v>
+        <v>0.6</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.0410304440195523</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.1261206120612061</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.06163816381638163</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.06163816381638163</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.06163816381638163</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.06163816381638163</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="inlineStr"/>
     </row>
@@ -2356,71 +2356,71 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.2188058805880588</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.05969396939693969</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.03564356435643564</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1284767559395282</v>
+        <v>-0.9746794344808964</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2103140372213448</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.08277227722772276</v>
+        <v>0.3</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2388598859885989</v>
+        <v>0.6</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.6041764176417641</v>
+        <v>-0.2</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.1967116711671167</v>
+        <v>0.6</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.1967116711671167</v>
+        <v>0.6</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.1967116711671167</v>
+        <v>0.6</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.1967116711671167</v>
+        <v>0.6</v>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>-0.04952895289528952</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.09414941494149415</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.07038703870387038</v>
+        <v>0.2</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.04362328317032878</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2619802253606522</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1801500150015001</v>
+        <v>-0.7</v>
       </c>
       <c r="V25" t="n">
-        <v>0.2821962196219622</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="W25" t="n">
-        <v>0.2821962196219622</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="X25" t="n">
-        <v>0.2821962196219622</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.2821962196219622</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="Z25" t="inlineStr"/>
     </row>
@@ -2432,71 +2432,71 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.06095409540954094</v>
+        <v>-0.3</v>
       </c>
       <c r="D26" t="n">
-        <v>0.04796879687968796</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02057005700570057</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01988432780384959</v>
+        <v>0.2051956704170308</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.01761019934952698</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.1670927092709271</v>
+        <v>0.6</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.0586978697869787</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.1031983198319832</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01242124212421242</v>
+        <v>0.3</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01242124212421242</v>
+        <v>0.3</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01242124212421242</v>
+        <v>0.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.01242124212421242</v>
+        <v>0.3</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>-0.05576957695769576</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.2127212721272127</v>
+        <v>-0.7</v>
       </c>
       <c r="R26" t="n">
-        <v>0.04646864686468646</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.03450401989313374</v>
+        <v>-0.6</v>
       </c>
       <c r="T26" t="n">
-        <v>0.02678142791328882</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04681668166816681</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.00288028802880288</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.00288028802880288</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.00288028802880288</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-0.00288028802880288</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="inlineStr"/>
     </row>
@@ -2512,71 +2512,71 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.02868286828682868</v>
+        <v>0.3</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.03641164116411641</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.04213621362136213</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.0358566834812645</v>
+        <v>-0.3590924232298039</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.07089695798112226</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06714671467146714</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>0.13002100210021</v>
+        <v>0.3</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.01706570657065706</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.03092709270927092</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.03092709270927092</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.03092709270927092</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.03092709270927092</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>0.05782178217821781</v>
+        <v>-0.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.3439063906390639</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="R27" t="n">
-        <v>0.006660666066606659</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="S27" t="n">
-        <v>0.1139426682035808</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.08118457955068234</v>
+        <v>-0.3</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01363336333633363</v>
+        <v>-0.6</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.06485448544854484</v>
+        <v>-0.3</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.06485448544854484</v>
+        <v>-0.3</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.06485448544854484</v>
+        <v>-0.3</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.06485448544854484</v>
+        <v>-0.3</v>
       </c>
       <c r="Z27" t="inlineStr"/>
     </row>
@@ -2592,71 +2592,71 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.1582118211821182</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0793999399939994</v>
+        <v>-0.7</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.07305130513051304</v>
+        <v>0.7</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1475407327810269</v>
+        <v>-0.2051956704170308</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.04082637217978274</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.02255025502550255</v>
+        <v>-0.2</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.05557755775577557</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1992919291929193</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.007956795679567957</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="L28" t="n">
-        <v>0.007956795679567957</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="M28" t="n">
-        <v>0.007956795679567957</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="N28" t="n">
-        <v>0.007956795679567957</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>-0.07111911191119111</v>
+        <v>-0.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.1291689168916892</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.0818121812181218</v>
+        <v>-0.3</v>
       </c>
       <c r="S28" t="n">
-        <v>0.1232183304551868</v>
+        <v>0.3</v>
       </c>
       <c r="T28" t="n">
-        <v>0.09955104512994362</v>
+        <v>-0.6</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06853885388538854</v>
+        <v>-0.7</v>
       </c>
       <c r="V28" t="n">
-        <v>0.1283528352835283</v>
+        <v>-0.6</v>
       </c>
       <c r="W28" t="n">
-        <v>0.1283528352835283</v>
+        <v>-0.6</v>
       </c>
       <c r="X28" t="n">
-        <v>0.1283528352835283</v>
+        <v>-0.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.1283528352835283</v>
+        <v>-0.6</v>
       </c>
       <c r="Z28" t="inlineStr"/>
     </row>
@@ -2672,71 +2672,71 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.0981218121812181</v>
+        <v>-0.4</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0009720972097209719</v>
+        <v>0.2</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02967896789678968</v>
+        <v>-0.2</v>
       </c>
       <c r="F29" t="n">
-        <v>0.008019848960296483</v>
+        <v>0.1025978352085154</v>
       </c>
       <c r="G29" t="n">
-        <v>0.005611975593663166</v>
+        <v>-0.2</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.1413381338133813</v>
+        <v>-0.2</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1531833183318331</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.132949294929493</v>
+        <v>-0.3</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.08091209120912089</v>
+        <v>-0.6</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.08091209120912089</v>
+        <v>-0.6</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.08091209120912089</v>
+        <v>-0.6</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.08091209120912089</v>
+        <v>-0.6</v>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>-0.08486048604860486</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.08930093009300928</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.02475847584758476</v>
+        <v>-0.3</v>
       </c>
       <c r="S29" t="n">
-        <v>0.05176806053003992</v>
+        <v>-0.3</v>
       </c>
       <c r="T29" t="n">
-        <v>0.02370234397794208</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0554095409540954</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.008376837683768377</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.008376837683768377</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.008376837683768377</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-0.008376837683768377</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="inlineStr"/>
     </row>
@@ -2752,71 +2752,71 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1801380138013801</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.04433243324332432</v>
+        <v>0.6</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0072007200720072</v>
+        <v>-0.6</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.03239774099075494</v>
+        <v>0.8207826816681233</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.02724959272217195</v>
+        <v>-0.6</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04297629762976297</v>
+        <v>-0.4</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02935493549354935</v>
+        <v>-0.7</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.1335973597359736</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0395079507950795</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0395079507950795</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0395079507950795</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0395079507950795</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>0.042004200420042</v>
+        <v>0.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.1213921392139214</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.08373237323732372</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="S30" t="n">
-        <v>0.05819244917123009</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.0134327287471852</v>
+        <v>0.2</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03782778277827783</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="V30" t="n">
-        <v>-0.03330333033303329</v>
+        <v>0.2</v>
       </c>
       <c r="W30" t="n">
-        <v>-0.03330333033303329</v>
+        <v>0.2</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.03330333033303329</v>
+        <v>0.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.03330333033303329</v>
+        <v>0.2</v>
       </c>
       <c r="Z30" t="inlineStr"/>
     </row>
@@ -2832,71 +2832,71 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4388838883888388</v>
+        <v>0.6</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9899069906990697</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.9114551455145513</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>0.02976527148470343</v>
+        <v>0.5642880936468347</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.9086178623481402</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.1366816681668167</v>
+        <v>0.3</v>
       </c>
       <c r="I31" t="n">
-        <v>0.003516351635163516</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3988838883888388</v>
+        <v>0.3</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.8588418841884188</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.8588418841884188</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.8588418841884188</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.8588418841884188</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>0.007116711671167116</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0648064806480648</v>
+        <v>0.4</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.1792259225922592</v>
+        <v>0.7</v>
       </c>
       <c r="S31" t="n">
-        <v>0.4926688000849789</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.4430219578009326</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1281728172817282</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="V31" t="n">
-        <v>0.6864566456645663</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="W31" t="n">
-        <v>0.6864566456645663</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="X31" t="n">
-        <v>0.6864566456645663</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.6864566456645663</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="Z31" t="inlineStr"/>
     </row>
@@ -2912,71 +2912,71 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.03101110111011101</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.07228322832283227</v>
+        <v>-0.6</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02447044704470447</v>
+        <v>0.6</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1234689418559232</v>
+        <v>-0.5642880936468347</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01703399650782467</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.1842064206420642</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1543354335433543</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.02527452745274527</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>0.03775577557755776</v>
+        <v>0.3</v>
       </c>
       <c r="L32" t="n">
-        <v>0.03775577557755776</v>
+        <v>0.3</v>
       </c>
       <c r="M32" t="n">
-        <v>0.03775577557755776</v>
+        <v>0.3</v>
       </c>
       <c r="N32" t="n">
-        <v>0.03775577557755776</v>
+        <v>0.3</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>-0.003936393639363936</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.01615361536153615</v>
+        <v>0.3</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.2030603060306031</v>
+        <v>-0.6</v>
       </c>
       <c r="S32" t="n">
-        <v>0.1884367027845724</v>
+        <v>-0.6</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.04119850318171548</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2245664566456646</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.002652265226522653</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.002652265226522653</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.002652265226522653</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.002652265226522653</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="Z32" t="inlineStr"/>
     </row>
@@ -2992,71 +2992,71 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.01732973297329733</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1530993099309931</v>
+        <v>0.4</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1086468646864686</v>
+        <v>-0.4</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04478259171341127</v>
+        <v>0.1538967528127731</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1015077339465577</v>
+        <v>-0.4</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.002352235223522352</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.03878787878787878</v>
+        <v>-0.3</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.1668046804680468</v>
+        <v>-0.6</v>
       </c>
       <c r="K33" t="n">
-        <v>0.08843684368436842</v>
+        <v>-0.3</v>
       </c>
       <c r="L33" t="n">
-        <v>0.08843684368436842</v>
+        <v>-0.3</v>
       </c>
       <c r="M33" t="n">
-        <v>0.08843684368436842</v>
+        <v>-0.3</v>
       </c>
       <c r="N33" t="n">
-        <v>0.08843684368436842</v>
+        <v>-0.3</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>0.05284128412841284</v>
+        <v>0.7</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.01834983498349835</v>
+        <v>0.2</v>
       </c>
       <c r="R33" t="n">
-        <v>0.04763276327632763</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.06124824451741417</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.08704264177465587</v>
+        <v>0.3</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.1935313531353135</v>
+        <v>0.6</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.1341254125412541</v>
+        <v>0.3</v>
       </c>
       <c r="W33" t="n">
-        <v>-0.1341254125412541</v>
+        <v>0.3</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.1341254125412541</v>
+        <v>0.3</v>
       </c>
       <c r="Y33" t="n">
-        <v>-0.1341254125412541</v>
+        <v>0.3</v>
       </c>
       <c r="Z33" t="inlineStr"/>
     </row>
@@ -3072,71 +3072,71 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.1082868286828683</v>
+        <v>-0.3</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.001584158415841584</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.1028382838283828</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.01300317495547307</v>
+        <v>-0.05129891760425771</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.0693424107311129</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.08280828082808279</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.08427242724272427</v>
+        <v>0.7</v>
       </c>
       <c r="J34" t="n">
-        <v>0.05639363936393639</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1863786378637864</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1863786378637864</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1863786378637864</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0.1863786378637864</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>0.09531353135313529</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.097017701770177</v>
+        <v>-0.2</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.1857545754575457</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="S34" t="n">
-        <v>0.2319035869804902</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="T34" t="n">
-        <v>-0.157561466640911</v>
+        <v>0.3</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01093309330933093</v>
+        <v>-0.4</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.1385778577857786</v>
+        <v>0.3</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.1385778577857786</v>
+        <v>0.3</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.1385778577857786</v>
+        <v>0.3</v>
       </c>
       <c r="Y34" t="n">
-        <v>-0.1385778577857786</v>
+        <v>0.3</v>
       </c>
       <c r="Z34" t="inlineStr"/>
     </row>
@@ -3152,71 +3152,71 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.0252025202520252</v>
+        <v>-0.7</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1216201620162016</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1417941794179418</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.03891769453481277</v>
+        <v>-0.1025978352085154</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1347414332643256</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02043804380438044</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01275727572757276</v>
+        <v>-0.3</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.05179717971797179</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>0.142994299429943</v>
+        <v>-0.3</v>
       </c>
       <c r="L35" t="n">
-        <v>0.142994299429943</v>
+        <v>-0.3</v>
       </c>
       <c r="M35" t="n">
-        <v>0.142994299429943</v>
+        <v>-0.3</v>
       </c>
       <c r="N35" t="n">
-        <v>0.142994299429943</v>
+        <v>-0.3</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>0.05113711371137113</v>
+        <v>0.2</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.1332013201320132</v>
+        <v>0.7</v>
       </c>
       <c r="R35" t="n">
-        <v>0.08943294329432942</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.05822854124224801</v>
+        <v>-0.6</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.04275305043172485</v>
+        <v>-0.2</v>
       </c>
       <c r="U35" t="n">
-        <v>0.06363036303630362</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.07429942994299429</v>
+        <v>-0.2</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.07429942994299429</v>
+        <v>-0.2</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.07429942994299429</v>
+        <v>-0.2</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.07429942994299429</v>
+        <v>-0.2</v>
       </c>
       <c r="Z35" t="inlineStr"/>
     </row>
@@ -3232,71 +3232,71 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.02447044704470447</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08393639363936392</v>
+        <v>-0.7</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.03921992199219921</v>
+        <v>0.7</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09421179820610882</v>
+        <v>-0.2051956704170308</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.04467372657073256</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.07978397839783978</v>
+        <v>-0.2</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.07734773477347733</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1182478247824782</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0141014101410141</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0141014101410141</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0141014101410141</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0141014101410141</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>-0.05714971497149714</v>
+        <v>-0.4</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.03228322832283228</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="R36" t="n">
-        <v>0.007596759675967596</v>
+        <v>-0.3</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.1089499317127682</v>
+        <v>0.3</v>
       </c>
       <c r="T36" t="n">
-        <v>0.07575266734505115</v>
+        <v>-0.6</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.09623762376237623</v>
+        <v>-0.7</v>
       </c>
       <c r="V36" t="n">
-        <v>0.1606240624062406</v>
+        <v>-0.6</v>
       </c>
       <c r="W36" t="n">
-        <v>0.1606240624062406</v>
+        <v>-0.6</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1606240624062406</v>
+        <v>-0.6</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.1606240624062406</v>
+        <v>-0.6</v>
       </c>
       <c r="Z36" t="inlineStr"/>
     </row>
@@ -3312,71 +3312,71 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.06091809180918091</v>
+        <v>0.7</v>
       </c>
       <c r="D37" t="n">
-        <v>0.06209420942094209</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.000876087608760876</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2049040799245216</v>
+        <v>0.1025978352085154</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.05526745589994699</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.09735373537353735</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02844284428442844</v>
+        <v>0.3</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.18999099909991</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2675067506750675</v>
+        <v>0.3</v>
       </c>
       <c r="L37" t="n">
-        <v>0.2675067506750675</v>
+        <v>0.3</v>
       </c>
       <c r="M37" t="n">
-        <v>0.2675067506750675</v>
+        <v>0.3</v>
       </c>
       <c r="N37" t="n">
-        <v>0.2675067506750675</v>
+        <v>0.3</v>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>0.1396699669966996</v>
+        <v>-0.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.06911491149114911</v>
+        <v>-0.7</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1790939093909391</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.08905116989155368</v>
+        <v>0.6</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2420171977408409</v>
+        <v>0.2</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1557515751575157</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1933753375337534</v>
+        <v>0.2</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1933753375337534</v>
+        <v>0.2</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1933753375337534</v>
+        <v>0.2</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1933753375337534</v>
+        <v>0.2</v>
       </c>
       <c r="Z37" t="inlineStr"/>
     </row>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2_agile.xlsx
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.04426296791451871</v>
+        <v>-0.0442456625698265</v>
       </c>
       <c r="D4" t="n">
         <v>0.001848087241923489</v>
@@ -745,71 +745,75 @@
       <c r="F4" t="n">
         <v>0.008526461045058442</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0.1287387667219146</v>
+      </c>
       <c r="H4" t="n">
-        <v>-0.01315395710215828</v>
+        <v>-0.01334144875765795</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01694490326979613</v>
+        <v>0.01686929337877173</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04486100304579314</v>
+        <v>0.04112118661522411</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0106100799764032</v>
+        <v>0.01041581283263251</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0106100799764032</v>
+        <v>0.01041581283263251</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0106100799764032</v>
+        <v>0.01041581283263251</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0106100799764032</v>
+        <v>0.01041581283263251</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>0.009691843779673751</v>
+        <v>0.009503051708122068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.008259038250361528</v>
+        <v>0.008075385059015401</v>
       </c>
       <c r="R4" t="n">
-        <v>0.008259038250361528</v>
+        <v>0.008075385059015401</v>
       </c>
       <c r="S4" t="n">
-        <v>0.008259038250361528</v>
+        <v>0.008075385059015401</v>
       </c>
       <c r="T4" t="n">
-        <v>0.008259038250361528</v>
+        <v>0.008075385059015401</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.09190504745220188</v>
+        <v>-0.09306013140240525</v>
       </c>
       <c r="V4" t="n">
         <v>-0.4204887782595511</v>
       </c>
       <c r="W4" t="n">
-        <v>0.002726031373041255</v>
-      </c>
-      <c r="X4" t="inlineStr"/>
+        <v>0.002726292877051715</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.01165510854007328</v>
+      </c>
       <c r="Y4" t="n">
-        <v>-0.04661573840862953</v>
+        <v>-0.04241350048054002</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0547679327827173</v>
+        <v>0.05901436642457465</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.04229067567562703</v>
+        <v>-0.03843701059348042</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.04229067567562703</v>
+        <v>-0.03843701059348042</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.04229067567562703</v>
+        <v>-0.03843701059348042</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.04229067567562703</v>
+        <v>-0.03843701059348042</v>
       </c>
       <c r="AE4" t="inlineStr"/>
     </row>
@@ -821,7 +825,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.04728541513941659</v>
+        <v>0.04729050035562001</v>
       </c>
       <c r="D5" t="n">
         <v>-0.01802946216117848</v>
@@ -832,71 +836,75 @@
       <c r="F5" t="n">
         <v>0.02059190395967616</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>0.01425260329325505</v>
+      </c>
       <c r="H5" t="n">
-        <v>0.08063872095354883</v>
+        <v>0.08061144418445776</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.008698709339948372</v>
+        <v>-0.008702816220112647</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.03203404150315733</v>
+        <v>-0.03152076941863658</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0380475952179038</v>
+        <v>0.03802152334486093</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0380475952179038</v>
+        <v>0.03802152334486093</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0380475952179038</v>
+        <v>0.03802152334486093</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0380475952179038</v>
+        <v>0.03802152334486093</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>0.04088967590758703</v>
+        <v>0.04085464790618591</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04396648198265927</v>
+        <v>0.04394068409362736</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04396648198265927</v>
+        <v>0.04394068409362736</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04396648198265927</v>
+        <v>0.04394068409362736</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04396648198265927</v>
+        <v>0.04394068409362736</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1404903832836153</v>
+        <v>0.1407299386211975</v>
       </c>
       <c r="V5" t="n">
         <v>0.8379598503503939</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.001214672880586915</v>
-      </c>
-      <c r="X5" t="inlineStr"/>
+        <v>-0.001214322384572895</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.0272546784711676</v>
+      </c>
       <c r="Y5" t="n">
-        <v>0.08446527880261114</v>
+        <v>0.08374404354176174</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.007095040795801632</v>
+        <v>0.006434607617384304</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.04345724871428994</v>
+        <v>0.04232595980503839</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.04345724871428994</v>
+        <v>0.04232595980503839</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.04345724871428994</v>
+        <v>0.04232595980503839</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.04345724871428994</v>
+        <v>0.04232595980503839</v>
       </c>
       <c r="AE5" t="inlineStr"/>
     </row>
@@ -908,7 +916,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1541489051739562</v>
+        <v>0.1541471024858841</v>
       </c>
       <c r="D6" t="n">
         <v>0.9745859242634368</v>
@@ -919,71 +927,75 @@
       <c r="F6" t="n">
         <v>0.0218012074640483</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0.01187166778881887</v>
+      </c>
       <c r="H6" t="n">
-        <v>0.01284593724983749</v>
+        <v>0.01284558483382339</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9084979990599199</v>
+        <v>0.9084944479237778</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.02135582534876287</v>
+        <v>-0.02218209364129765</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01277709612708384</v>
+        <v>0.01276350559854022</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01277709612708384</v>
+        <v>0.01276350559854022</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01277709612708384</v>
+        <v>0.01276350559854022</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01277709612708384</v>
+        <v>0.01276350559854022</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>0.01121402156856086</v>
+        <v>0.01120987091239483</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01193413823736553</v>
+        <v>0.01191961372478455</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01193413823736553</v>
+        <v>0.01191961372478455</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01193413823736553</v>
+        <v>0.01191961372478455</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01193413823736553</v>
+        <v>0.01191961372478455</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.03960207432008297</v>
+        <v>-0.03958824071952963</v>
       </c>
       <c r="V6" t="n">
         <v>-0.01891835365273414</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.002905241780209671</v>
-      </c>
-      <c r="X6" t="inlineStr"/>
+        <v>-0.002905193780207751</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.01564591661845719</v>
+      </c>
       <c r="Y6" t="n">
-        <v>-0.00566965126678605</v>
+        <v>-0.006586210631448425</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.03910538038021522</v>
+        <v>-0.03862491168899646</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.0093366400214656</v>
+        <v>-0.009943514893740594</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.0093366400214656</v>
+        <v>-0.009943514893740594</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.0093366400214656</v>
+        <v>-0.009943514893740594</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.0093366400214656</v>
+        <v>-0.009943514893740594</v>
       </c>
       <c r="AE6" t="inlineStr"/>
     </row>
@@ -999,7 +1011,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7417060904682434</v>
+        <v>0.7416843109473724</v>
       </c>
       <c r="D7" t="n">
         <v>0.02393801068552042</v>
@@ -1010,71 +1022,75 @@
       <c r="F7" t="n">
         <v>0.004761460606458423</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0.006715608490468112</v>
+      </c>
       <c r="H7" t="n">
-        <v>-0.0009859927114397083</v>
+        <v>-0.0009035118121404723</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01667098607483944</v>
+        <v>0.01670398521215941</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.02922215789444879</v>
+        <v>-0.02828301179149071</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0007992580159703206</v>
+        <v>-0.0007278045411121816</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0007992580159703206</v>
+        <v>-0.0007278045411121816</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0007992580159703206</v>
+        <v>-0.0007278045411121816</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.0007992580159703206</v>
+        <v>-0.0007278045411121816</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>-0.001107159884286395</v>
+        <v>-0.001038197609527904</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.00113177975727119</v>
+        <v>-0.001056808074272323</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.00113177975727119</v>
+        <v>-0.001056808074272323</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.00113177975727119</v>
+        <v>-0.001056808074272323</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.00113177975727119</v>
+        <v>-0.001056808074272323</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.4477259690450388</v>
+        <v>-0.4471748041269921</v>
       </c>
       <c r="V7" t="n">
         <v>-0.004772968414918735</v>
       </c>
       <c r="W7" t="n">
-        <v>0.007202802720112108</v>
-      </c>
-      <c r="X7" t="inlineStr"/>
+        <v>0.007203056448122257</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.005770189352830706</v>
+      </c>
       <c r="Y7" t="n">
-        <v>0.01614282582971303</v>
+        <v>0.01414761550990462</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.01595470959818838</v>
+        <v>0.01445244691409787</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01142505895300236</v>
+        <v>0.009810064712402587</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.01142505895300236</v>
+        <v>0.009810064712402587</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01142505895300236</v>
+        <v>0.009810064712402587</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.01142505895300236</v>
+        <v>0.009810064712402587</v>
       </c>
       <c r="AE7" t="inlineStr"/>
     </row>
@@ -1090,7 +1106,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3556245131689805</v>
+        <v>0.3556448620977944</v>
       </c>
       <c r="D8" t="n">
         <v>-0.01610497302819892</v>
@@ -1101,71 +1117,75 @@
       <c r="F8" t="n">
         <v>0.00315506326220253</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>-0.02413510737949718</v>
+      </c>
       <c r="H8" t="n">
-        <v>0.007431766953270677</v>
+        <v>0.007453765354150614</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.006216739160669566</v>
+        <v>-0.006248670681946826</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002159097596685742</v>
+        <v>0.001353717610177368</v>
       </c>
       <c r="K8" t="n">
-        <v>0.005493914427756577</v>
+        <v>0.005538773501550938</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005493914427756577</v>
+        <v>0.005538773501550938</v>
       </c>
       <c r="M8" t="n">
-        <v>0.005493914427756577</v>
+        <v>0.005538773501550938</v>
       </c>
       <c r="N8" t="n">
-        <v>0.005493914427756577</v>
+        <v>0.005538773501550938</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>0.00613720450148818</v>
+        <v>0.006190886167635446</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.005977304111092163</v>
+        <v>0.006034812433392497</v>
       </c>
       <c r="R8" t="n">
-        <v>0.005977304111092163</v>
+        <v>0.006034812433392497</v>
       </c>
       <c r="S8" t="n">
-        <v>0.005977304111092163</v>
+        <v>0.006034812433392497</v>
       </c>
       <c r="T8" t="n">
-        <v>0.005977304111092163</v>
+        <v>0.006034812433392497</v>
       </c>
       <c r="U8" t="n">
-        <v>0.8053574664542986</v>
+        <v>0.8050963181238526</v>
       </c>
       <c r="V8" t="n">
         <v>0.01812922402116896</v>
       </c>
       <c r="W8" t="n">
-        <v>0.006137044565481782</v>
-      </c>
-      <c r="X8" t="inlineStr"/>
+        <v>0.006137113397484536</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.004310529217127683</v>
+      </c>
       <c r="Y8" t="n">
-        <v>0.004026167105046684</v>
+        <v>0.003746051669842066</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.02341510615260424</v>
+        <v>0.02347286993091479</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.005038266345530653</v>
+        <v>0.004695532027821281</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.005038266345530653</v>
+        <v>0.004695532027821281</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.005038266345530653</v>
+        <v>0.004695532027821281</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.005038266345530653</v>
+        <v>0.004695532027821281</v>
       </c>
       <c r="AE8" t="inlineStr"/>
     </row>
@@ -1181,7 +1201,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.001783697063347882</v>
+        <v>0.001767918982716759</v>
       </c>
       <c r="D9" t="n">
         <v>0.01773145318925812</v>
@@ -1192,71 +1212,75 @@
       <c r="F9" t="n">
         <v>-0.00113914775756591</v>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>0.002885613763081493</v>
+      </c>
       <c r="H9" t="n">
-        <v>-0.00065472175418887</v>
+        <v>-0.0005416987416679496</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01468407466736298</v>
+        <v>0.01467736061909442</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00241653907973719</v>
+        <v>0.000554040071810426</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0006017361840694473</v>
+        <v>0.0006965781398631254</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0006017361840694473</v>
+        <v>0.0006965781398631254</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0006017361840694473</v>
+        <v>0.0006965781398631254</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0006017361840694473</v>
+        <v>0.0006965781398631254</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>-0.0003519366860774674</v>
+        <v>-0.0002665673386626935</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0002515415140616605</v>
+        <v>0.00035645550225822</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0002515415140616605</v>
+        <v>0.00035645550225822</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0002515415140616605</v>
+        <v>0.00035645550225822</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0002515415140616605</v>
+        <v>0.00035645550225822</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006875551667022065</v>
+        <v>0.006651180842047233</v>
       </c>
       <c r="V9" t="n">
         <v>0.007617971536718861</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.03343405871336234</v>
-      </c>
-      <c r="X9" t="inlineStr"/>
+        <v>-0.03343421202536848</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.009430720817570726</v>
+      </c>
       <c r="Y9" t="n">
-        <v>-0.004199830535993221</v>
+        <v>-0.004659296730371868</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.002982545207301808</v>
+        <v>-0.002464395842575834</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.008250943914037755</v>
+        <v>-0.008550974070038962</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.008250943914037755</v>
+        <v>-0.008550974070038962</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.008250943914037755</v>
+        <v>-0.008550974070038962</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.008250943914037755</v>
+        <v>-0.008550974070038962</v>
       </c>
       <c r="AE9" t="inlineStr"/>
     </row>
@@ -1272,7 +1296,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.005214238288569531</v>
+        <v>0.005199057903962316</v>
       </c>
       <c r="D10" t="n">
         <v>-0.001249191313967652</v>
@@ -1283,71 +1307,75 @@
       <c r="F10" t="n">
         <v>0.01837369878294795</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>0.008926219311557676</v>
+      </c>
       <c r="H10" t="n">
-        <v>0.01967308725092349</v>
+        <v>0.01967216305888652</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.002441227201649087</v>
+        <v>-0.002451833282073331</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01070057114735412</v>
+        <v>0.01036195532531539</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0169568775422751</v>
+        <v>0.01697521488700859</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0169568775422751</v>
+        <v>0.01697521488700859</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0169568775422751</v>
+        <v>0.01697521488700859</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0169568775422751</v>
+        <v>0.01697521488700859</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>0.01686323117052925</v>
+        <v>0.01687164019486561</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01725176545807061</v>
+        <v>0.01726847665873906</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01725176545807061</v>
+        <v>0.01726847665873906</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01725176545807061</v>
+        <v>0.01726847665873906</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01725176545807061</v>
+        <v>0.01726847665873906</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03038845590353823</v>
+        <v>0.03007839576313583</v>
       </c>
       <c r="V10" t="n">
         <v>0.03244985198599407</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.005397943991917759</v>
-      </c>
-      <c r="X10" t="inlineStr"/>
+        <v>-0.005397620855904834</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-0.007843941993544179</v>
+      </c>
       <c r="Y10" t="n">
-        <v>0.00801454179258167</v>
+        <v>0.008079210083168403</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.01791041486041659</v>
+        <v>-0.01668063829922553</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.005440571449622857</v>
+        <v>0.005557078974283159</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.005440571449622857</v>
+        <v>0.005557078974283159</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.005440571449622857</v>
+        <v>0.005557078974283159</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.005440571449622857</v>
+        <v>0.005557078974283159</v>
       </c>
       <c r="AE10" t="inlineStr"/>
     </row>
@@ -1359,7 +1387,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.07841198848047953</v>
+        <v>0.07842425420897016</v>
       </c>
       <c r="D11" t="n">
         <v>0.2044248277609931</v>
@@ -1370,71 +1398,75 @@
       <c r="F11" t="n">
         <v>-0.003456671466266859</v>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0.01492375701223015</v>
+      </c>
       <c r="H11" t="n">
-        <v>-0.003215811872632474</v>
+        <v>-0.003253065346122613</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.01133492426139697</v>
+        <v>-0.011328349989134</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01516124282684183</v>
+        <v>0.01463051448476099</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.004569733622789344</v>
+        <v>-0.004610765176430606</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.004569733622789344</v>
+        <v>-0.004610765176430606</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.004569733622789344</v>
+        <v>-0.004610765176430606</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.004569733622789344</v>
+        <v>-0.004610765176430606</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>-0.003712967188518687</v>
+        <v>-0.003743591093743644</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.004364805870592234</v>
+        <v>-0.004392050767682031</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.004364805870592234</v>
+        <v>-0.004392050767682031</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.004364805870592234</v>
+        <v>-0.004392050767682031</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.004364805870592234</v>
+        <v>-0.004392050767682031</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.01729610622784425</v>
+        <v>-0.01771931696477268</v>
       </c>
       <c r="V11" t="n">
         <v>-0.01824191909767676</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01604594368183775</v>
-      </c>
-      <c r="X11" t="inlineStr"/>
+        <v>0.01604575888183035</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.01027606856878734</v>
+      </c>
       <c r="Y11" t="n">
-        <v>-0.02297365099894604</v>
+        <v>-0.02150914434836577</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.01862726186509047</v>
+        <v>-0.01824263132170525</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.01381491703259668</v>
+        <v>-0.01235127188605087</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.01381491703259668</v>
+        <v>-0.01235127188605087</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.01381491703259668</v>
+        <v>-0.01235127188605087</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.01381491703259668</v>
+        <v>-0.01235127188605087</v>
       </c>
       <c r="AE11" t="inlineStr"/>
     </row>
@@ -1446,7 +1478,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.2156424670896987</v>
+        <v>-0.2156189041767561</v>
       </c>
       <c r="D12" t="n">
         <v>-5.514902620596104e-05</v>
@@ -1457,71 +1489,75 @@
       <c r="F12" t="n">
         <v>0.01066696871467875</v>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>-0.01209005372592042</v>
+      </c>
       <c r="H12" t="n">
-        <v>0.01534704589388183</v>
+        <v>0.01529450086778003</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003551437774057511</v>
+        <v>0.003534879405395176</v>
       </c>
       <c r="J12" t="n">
-        <v>0.006700201295626242</v>
+        <v>0.005980525889019079</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01611675107667004</v>
+        <v>0.01606102768244111</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01611675107667004</v>
+        <v>0.01606102768244111</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01611675107667004</v>
+        <v>0.01606102768244111</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01611675107667004</v>
+        <v>0.01606102768244111</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>0.01647053672282147</v>
+        <v>0.0164092325603693</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01652452222898089</v>
+        <v>0.01645411697816468</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01652452222898089</v>
+        <v>0.01645411697816468</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01652452222898089</v>
+        <v>0.01645411697816468</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01652452222898089</v>
+        <v>0.01645411697816468</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.00711824428472977</v>
+        <v>-0.007241879233675169</v>
       </c>
       <c r="V12" t="n">
         <v>0.007429694409187775</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0002446038817841552</v>
-      </c>
-      <c r="X12" t="inlineStr"/>
+        <v>0.0002444677537787101</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.006748986305191447</v>
+      </c>
       <c r="Y12" t="n">
-        <v>0.02232958687718347</v>
+        <v>0.02331967629278705</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.01139716979988679</v>
+        <v>0.01167889304315572</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01356063030242521</v>
+        <v>0.01424722136988885</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01356063030242521</v>
+        <v>0.01424722136988885</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.01356063030242521</v>
+        <v>0.01424722136988885</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.01356063030242521</v>
+        <v>0.01424722136988885</v>
       </c>
       <c r="AE12" t="inlineStr"/>
     </row>
@@ -1537,7 +1573,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.01003376152135046</v>
+        <v>-0.0100265201450608</v>
       </c>
       <c r="D13" t="n">
         <v>-0.01226435703457428</v>
@@ -1548,71 +1584,75 @@
       <c r="F13" t="n">
         <v>0.003141748925669956</v>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>0.03283360420635405</v>
+      </c>
       <c r="H13" t="n">
-        <v>0.005348764149950566</v>
+        <v>0.005289866035594641</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01228123642724946</v>
+        <v>-0.01229445101977804</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01763444869301161</v>
+        <v>0.01723712978078289</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00497515152700606</v>
+        <v>0.004924699876987995</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00497515152700606</v>
+        <v>0.004924699876987995</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00497515152700606</v>
+        <v>0.004924699876987995</v>
       </c>
       <c r="N13" t="n">
-        <v>0.00497515152700606</v>
+        <v>0.004924699876987995</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>0.005064117034564681</v>
+        <v>0.005006310152252405</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.004957552710302108</v>
+        <v>0.004909831684393266</v>
       </c>
       <c r="R13" t="n">
-        <v>0.004957552710302108</v>
+        <v>0.004909831684393266</v>
       </c>
       <c r="S13" t="n">
-        <v>0.004957552710302108</v>
+        <v>0.004909831684393266</v>
       </c>
       <c r="T13" t="n">
-        <v>0.004957552710302108</v>
+        <v>0.004909831684393266</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02548604981944199</v>
+        <v>0.02585317370612695</v>
       </c>
       <c r="V13" t="n">
         <v>-0.009351722966068917</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.01715189463807578</v>
-      </c>
-      <c r="X13" t="inlineStr"/>
+        <v>-0.01715158935806357</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.01335853878132447</v>
+      </c>
       <c r="Y13" t="n">
-        <v>-0.02705240057009602</v>
+        <v>-0.02749982337199293</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.01308445645937826</v>
+        <v>-0.01289780653191226</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.02407042733081709</v>
+        <v>-0.02480721689628867</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.02407042733081709</v>
+        <v>-0.02480721689628867</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.02407042733081709</v>
+        <v>-0.02480721689628867</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.02407042733081709</v>
+        <v>-0.02480721689628867</v>
       </c>
       <c r="AE13" t="inlineStr"/>
     </row>
@@ -1628,7 +1668,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.01195812095832484</v>
+        <v>-0.01195603420624137</v>
       </c>
       <c r="D14" t="n">
         <v>-0.001211770608470824</v>
@@ -1639,71 +1679,75 @@
       <c r="F14" t="n">
         <v>0.01733285848531434</v>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>-0.01175913047122052</v>
+      </c>
       <c r="H14" t="n">
-        <v>0.01505612613824504</v>
+        <v>0.01499709688788387</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.00339214074368563</v>
+        <v>-0.003372610598904423</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.002209273582839697</v>
+        <v>-0.001318289096654792</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01040584832023393</v>
+        <v>0.0103510275180411</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01040584832023393</v>
+        <v>0.0103510275180411</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01040584832023393</v>
+        <v>0.0103510275180411</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01040584832023393</v>
+        <v>0.0103510275180411</v>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>0.009997822671912905</v>
+        <v>0.00994077351763094</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01045391072215643</v>
+        <v>0.01040781718431269</v>
       </c>
       <c r="R14" t="n">
-        <v>0.01045391072215643</v>
+        <v>0.01040781718431269</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01045391072215643</v>
+        <v>0.01040781718431269</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01045391072215643</v>
+        <v>0.01040781718431269</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.05108348421933936</v>
+        <v>-0.05175120955804838</v>
       </c>
       <c r="V14" t="n">
         <v>0.003095320155812806</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0195400176136007</v>
-      </c>
-      <c r="X14" t="inlineStr"/>
+        <v>0.01954009825360393</v>
+      </c>
+      <c r="X14" t="n">
+        <v>-0.003279897410885338</v>
+      </c>
       <c r="Y14" t="n">
-        <v>0.0004049276321971052</v>
+        <v>0.00251189299647572</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.006218796920751875</v>
+        <v>0.006276812699072507</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.004278331083133243</v>
+        <v>0.006577819175112765</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.004278331083133243</v>
+        <v>0.006577819175112765</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.004278331083133243</v>
+        <v>0.006577819175112765</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.004278331083133243</v>
+        <v>0.006577819175112765</v>
       </c>
       <c r="AE14" t="inlineStr"/>
     </row>
@@ -1719,7 +1763,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.0111128223965129</v>
+        <v>-0.01108916655556666</v>
       </c>
       <c r="D15" t="n">
         <v>-0.009827592489103698</v>
@@ -1730,71 +1774,75 @@
       <c r="F15" t="n">
         <v>-0.0139654624146185</v>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>6.496701153548363e-06</v>
+      </c>
       <c r="H15" t="n">
-        <v>-0.01485188824207553</v>
+        <v>-0.01490102747604109</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02918186334327453</v>
+        <v>0.02914265684570627</v>
       </c>
       <c r="J15" t="n">
-        <v>0.007325036858449182</v>
+        <v>0.00470165396205828</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01777620359104814</v>
+        <v>-0.0178495099619804</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.01777620359104814</v>
+        <v>-0.0178495099619804</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.01777620359104814</v>
+        <v>-0.0178495099619804</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.01777620359104814</v>
+        <v>-0.0178495099619804</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>-0.01778952791158112</v>
+        <v>-0.01785552205822088</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.01795661975826479</v>
+        <v>-0.01802962468918499</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.01795661975826479</v>
+        <v>-0.01802962468918499</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.01795661975826479</v>
+        <v>-0.01802962468918499</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.01795661975826479</v>
+        <v>-0.01802962468918499</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01027373292294932</v>
+        <v>0.01050897699635908</v>
       </c>
       <c r="V15" t="n">
         <v>-0.005050621642024865</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.002647349193893968</v>
-      </c>
-      <c r="X15" t="inlineStr"/>
+        <v>-0.002647342377893695</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.0165524097648037</v>
+      </c>
       <c r="Y15" t="n">
-        <v>0.006446741057869641</v>
+        <v>0.005827513865100554</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.09540433562417343</v>
+        <v>0.09544843101793724</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.01046207062648282</v>
+        <v>0.009633589153343565</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.01046207062648282</v>
+        <v>0.009633589153343565</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.01046207062648282</v>
+        <v>0.009633589153343565</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.01046207062648282</v>
+        <v>0.009633589153343565</v>
       </c>
       <c r="AE15" t="inlineStr"/>
     </row>
@@ -1810,7 +1858,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.06720432720017308</v>
+        <v>-0.06719272943970916</v>
       </c>
       <c r="D16" t="n">
         <v>0.0003129411965176478</v>
@@ -1821,71 +1869,75 @@
       <c r="F16" t="n">
         <v>0.005820674056826961</v>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>0.02183724750335933</v>
+      </c>
       <c r="H16" t="n">
-        <v>0.009549147165965886</v>
+        <v>0.009408252952330118</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0002945088117803524</v>
+        <v>0.0002763766190550647</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01887652151433131</v>
+        <v>0.01849619633089253</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01055204634208185</v>
+        <v>0.01041876396875056</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01055204634208185</v>
+        <v>0.01041876396875056</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01055204634208185</v>
+        <v>0.01041876396875056</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01055204634208185</v>
+        <v>0.01041876396875056</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>0.01090808606832344</v>
+        <v>0.01076826302273052</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01100380095215204</v>
+        <v>0.01087781083511243</v>
       </c>
       <c r="R16" t="n">
-        <v>0.01100380095215204</v>
+        <v>0.01087781083511243</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01100380095215204</v>
+        <v>0.01087781083511243</v>
       </c>
       <c r="T16" t="n">
-        <v>0.01100380095215204</v>
+        <v>0.01087781083511243</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.03241804104072164</v>
+        <v>-0.03310879159635166</v>
       </c>
       <c r="V16" t="n">
         <v>0.006972203894888155</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.004062742626509705</v>
-      </c>
-      <c r="X16" t="inlineStr"/>
+        <v>-0.00406257625850305</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-0.03016145931217272</v>
+      </c>
       <c r="Y16" t="n">
-        <v>-0.01756127436645097</v>
+        <v>-0.01475357809414312</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.0137993373839735</v>
+        <v>-0.01287271030690841</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.01393287626931505</v>
+        <v>-0.01103065714522628</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.01393287626931505</v>
+        <v>-0.01103065714522628</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.01393287626931505</v>
+        <v>-0.01103065714522628</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.01393287626931505</v>
+        <v>-0.01103065714522628</v>
       </c>
       <c r="AE16" t="inlineStr"/>
     </row>
@@ -1897,7 +1949,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.001449106425964257</v>
+        <v>-0.001447926297917052</v>
       </c>
       <c r="D17" t="n">
         <v>0.02873035209321408</v>
@@ -1908,71 +1960,75 @@
       <c r="F17" t="n">
         <v>0.02495466378218655</v>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>-0.006368132277009947</v>
+      </c>
       <c r="H17" t="n">
-        <v>0.02126337435453497</v>
+        <v>0.02130036488401459</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02919604734384189</v>
+        <v>0.02917924551916981</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.02724986838578235</v>
+        <v>-0.02778673060216253</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02424063802562552</v>
+        <v>0.02427309380292375</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02424063802562552</v>
+        <v>0.02427309380292375</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02424063802562552</v>
+        <v>0.02427309380292375</v>
       </c>
       <c r="N17" t="n">
-        <v>0.02424063802562552</v>
+        <v>0.02427309380292375</v>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>0.02325778134631125</v>
+        <v>0.02328721437148857</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02380908786436351</v>
+        <v>0.02383899906555996</v>
       </c>
       <c r="R17" t="n">
-        <v>0.02380908786436351</v>
+        <v>0.02383899906555996</v>
       </c>
       <c r="S17" t="n">
-        <v>0.02380908786436351</v>
+        <v>0.02383899906555996</v>
       </c>
       <c r="T17" t="n">
-        <v>0.02380908786436351</v>
+        <v>0.02383899906555996</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.00847243704289748</v>
+        <v>-0.008517606964704279</v>
       </c>
       <c r="V17" t="n">
         <v>0.0009708397828335912</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.01340718303228732</v>
-      </c>
-      <c r="X17" t="inlineStr"/>
+        <v>-0.0134070701362828</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-0.003869083682533519</v>
+      </c>
       <c r="Y17" t="n">
-        <v>-0.01048471827538873</v>
+        <v>-0.0101494374939775</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.01487832385913295</v>
+        <v>-0.01503327429733097</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0.01993086310123452</v>
+        <v>-0.01937560407102416</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.01993086310123452</v>
+        <v>-0.01937560407102416</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.01993086310123452</v>
+        <v>-0.01937560407102416</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.01993086310123452</v>
+        <v>-0.01937560407102416</v>
       </c>
       <c r="AE17" t="inlineStr"/>
     </row>
@@ -1988,7 +2044,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.03639407108776284</v>
+        <v>-0.03639250926370036</v>
       </c>
       <c r="D18" t="n">
         <v>0.004774073566962943</v>
@@ -1999,71 +2055,75 @@
       <c r="F18" t="n">
         <v>0.02048115057924602</v>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>0.02466819041584521</v>
+      </c>
       <c r="H18" t="n">
-        <v>0.0211274101250964</v>
+        <v>0.02106586442663458</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1878683081547323</v>
+        <v>0.1878478389379135</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.01409663369314029</v>
+        <v>-0.01605057107378934</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02025159153006366</v>
+        <v>0.02018397968735918</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02025159153006366</v>
+        <v>0.02018397968735918</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02025159153006366</v>
+        <v>0.02018397968735918</v>
       </c>
       <c r="N18" t="n">
-        <v>0.02025159153006366</v>
+        <v>0.02018397968735918</v>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>0.0199116474524659</v>
+        <v>0.01985522018620881</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.02036674564666982</v>
+        <v>0.0203071625722865</v>
       </c>
       <c r="R18" t="n">
-        <v>0.02036674564666982</v>
+        <v>0.0203071625722865</v>
       </c>
       <c r="S18" t="n">
-        <v>0.02036674564666982</v>
+        <v>0.0203071625722865</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02036674564666982</v>
+        <v>0.0203071625722865</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.01467820445912818</v>
+        <v>-0.01543948132157925</v>
       </c>
       <c r="V18" t="n">
         <v>0.01459290931971637</v>
       </c>
       <c r="W18" t="n">
-        <v>0.003250964482038579</v>
-      </c>
-      <c r="X18" t="inlineStr"/>
+        <v>0.003251031682041267</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.01555247918166526</v>
+      </c>
       <c r="Y18" t="n">
-        <v>0.0004942041797681672</v>
+        <v>0.002140063381602535</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.1168905676516227</v>
+        <v>0.1182957180758287</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.003518635820745433</v>
+        <v>-0.001654758978190359</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.003518635820745433</v>
+        <v>-0.001654758978190359</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.003518635820745433</v>
+        <v>-0.001654758978190359</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.003518635820745433</v>
+        <v>-0.001654758978190359</v>
       </c>
       <c r="AE18" t="inlineStr"/>
     </row>
@@ -2079,7 +2139,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0216857400034296</v>
+        <v>0.02168815862752634</v>
       </c>
       <c r="D19" t="n">
         <v>0.003086546619461864</v>
@@ -2090,71 +2150,75 @@
       <c r="F19" t="n">
         <v>0.1150186616567464</v>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>0.009957186440116577</v>
+      </c>
       <c r="H19" t="n">
-        <v>0.1019619304784772</v>
+        <v>0.1019648367825935</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0008856617634264703</v>
+        <v>0.000878093027123721</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.01455965668901694</v>
+        <v>-0.01537002867654235</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06423399866535993</v>
+        <v>0.0642513674660547</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06423399866535993</v>
+        <v>0.0642513674660547</v>
       </c>
       <c r="M19" t="n">
-        <v>0.06423399866535993</v>
+        <v>0.0642513674660547</v>
       </c>
       <c r="N19" t="n">
-        <v>0.06423399866535993</v>
+        <v>0.0642513674660547</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>0.06610103899604156</v>
+        <v>0.06613368965334757</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.06595307831812312</v>
+        <v>0.06597830068713202</v>
       </c>
       <c r="R19" t="n">
-        <v>0.06595307831812312</v>
+        <v>0.06597830068713202</v>
       </c>
       <c r="S19" t="n">
-        <v>0.06595307831812312</v>
+        <v>0.06597830068713202</v>
       </c>
       <c r="T19" t="n">
-        <v>0.06595307831812312</v>
+        <v>0.06597830068713202</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01430604575624183</v>
+        <v>0.01407664885106595</v>
       </c>
       <c r="V19" t="n">
         <v>0.002352640798105632</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2781759033510361</v>
-      </c>
-      <c r="X19" t="inlineStr"/>
+        <v>0.2781758369190334</v>
+      </c>
+      <c r="X19" t="n">
+        <v>-0.02446761601956175</v>
+      </c>
       <c r="Y19" t="n">
-        <v>0.02774611109384444</v>
+        <v>0.02829561905182476</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.001955614350224574</v>
+        <v>-0.0007343470373738814</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.03613554912542196</v>
+        <v>0.03537670077506803</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.03613554912542196</v>
+        <v>0.03537670077506803</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.03613554912542196</v>
+        <v>0.03537670077506803</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.03613554912542196</v>
+        <v>0.03537670077506803</v>
       </c>
       <c r="AE19" t="inlineStr"/>
     </row>
@@ -2166,7 +2230,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.002141912149676486</v>
+        <v>-0.00215251976610079</v>
       </c>
       <c r="D20" t="n">
         <v>0.0005005567880222714</v>
@@ -2177,71 +2241,75 @@
       <c r="F20" t="n">
         <v>0.07114581145383245</v>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>-0.01376917616224268</v>
+      </c>
       <c r="H20" t="n">
-        <v>0.07085672366626895</v>
+        <v>0.0709160229646409</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03736579704663188</v>
+        <v>0.03736867071074682</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09206304553608241</v>
+        <v>0.09320704149366579</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05202672227306888</v>
+        <v>0.05209077366763094</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05202672227306888</v>
+        <v>0.05209077366763094</v>
       </c>
       <c r="M20" t="n">
-        <v>0.05202672227306888</v>
+        <v>0.05209077366763094</v>
       </c>
       <c r="N20" t="n">
-        <v>0.05202672227306888</v>
+        <v>0.05209077366763094</v>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>0.05347657865106313</v>
+        <v>0.05354024786960991</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.05342115688884626</v>
+        <v>0.05348440217137607</v>
       </c>
       <c r="R20" t="n">
-        <v>0.05342115688884626</v>
+        <v>0.05348440217137607</v>
       </c>
       <c r="S20" t="n">
-        <v>0.05342115688884626</v>
+        <v>0.05348440217137607</v>
       </c>
       <c r="T20" t="n">
-        <v>0.05342115688884626</v>
+        <v>0.05348440217137607</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02273051898922076</v>
+        <v>0.02336827773473111</v>
       </c>
       <c r="V20" t="n">
         <v>-0.002003640944145637</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1494050063282002</v>
-      </c>
-      <c r="X20" t="inlineStr"/>
+        <v>0.1494049153201966</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.006761155909654305</v>
+      </c>
       <c r="Y20" t="n">
-        <v>0.0148703024828121</v>
+        <v>0.01277075436683017</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.0215826050873042</v>
+        <v>0.0208634200985368</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.0164841375233655</v>
+        <v>0.01369689635587585</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.0164841375233655</v>
+        <v>0.01369689635587585</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.0164841375233655</v>
+        <v>0.01369689635587585</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.0164841375233655</v>
+        <v>0.01369689635587585</v>
       </c>
       <c r="AE20" t="inlineStr"/>
     </row>
@@ -2253,7 +2321,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.05603707097748284</v>
+        <v>0.05605088451403537</v>
       </c>
       <c r="D21" t="n">
         <v>-0.002843672465746898</v>
@@ -2264,71 +2332,75 @@
       <c r="F21" t="n">
         <v>0.1397706490788259</v>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>-0.009996282885031528</v>
+      </c>
       <c r="H21" t="n">
-        <v>0.1315507699020308</v>
+        <v>0.1315324298692972</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.004343111117724444</v>
+        <v>-0.004363312590532503</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.0190863957153408</v>
+        <v>-0.02065550555969101</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0865584954303398</v>
+        <v>0.08652068496482739</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0865584954303398</v>
+        <v>0.08652068496482739</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0865584954303398</v>
+        <v>0.08652068496482739</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0865584954303398</v>
+        <v>0.08652068496482739</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>0.08957277363091093</v>
+        <v>0.08953232316529292</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.08903965719358627</v>
+        <v>0.0889946902157876</v>
       </c>
       <c r="R21" t="n">
-        <v>0.08903965719358627</v>
+        <v>0.0889946902157876</v>
       </c>
       <c r="S21" t="n">
-        <v>0.08903965719358627</v>
+        <v>0.0889946902157876</v>
       </c>
       <c r="T21" t="n">
-        <v>0.08903965719358627</v>
+        <v>0.0889946902157876</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0009196632367865293</v>
+        <v>0.0008037940161517605</v>
       </c>
       <c r="V21" t="n">
         <v>0.004550514806020592</v>
       </c>
       <c r="W21" t="n">
-        <v>0.3011650355986014</v>
-      </c>
-      <c r="X21" t="inlineStr"/>
+        <v>0.3011650812946032</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.02292511109356888</v>
+      </c>
       <c r="Y21" t="n">
-        <v>0.02525791483431659</v>
+        <v>0.02483291408131656</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.01931796374871855</v>
+        <v>0.01948551399542056</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.03561061198442448</v>
+        <v>0.03601992969679718</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.03561061198442448</v>
+        <v>0.03601992969679718</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.03561061198442448</v>
+        <v>0.03601992969679718</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.03561061198442448</v>
+        <v>0.03601992969679718</v>
       </c>
       <c r="AE21" t="inlineStr"/>
     </row>
@@ -2340,7 +2412,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.01992983129319325</v>
+        <v>0.01992308729292349</v>
       </c>
       <c r="D22" t="n">
         <v>0.01360888384035535</v>
@@ -2351,71 +2423,75 @@
       <c r="F22" t="n">
         <v>0.03814474491778979</v>
       </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>-0.01770226024941083</v>
+      </c>
       <c r="H22" t="n">
-        <v>0.03292601344504053</v>
+        <v>0.03292583306103332</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01825479970619199</v>
+        <v>0.0182519624260785</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.007498430097892608</v>
+        <v>-0.009081927078304896</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02676387937455517</v>
+        <v>0.02675387463815498</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02676387937455517</v>
+        <v>0.02675387463815498</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02676387937455517</v>
+        <v>0.02675387463815498</v>
       </c>
       <c r="N22" t="n">
-        <v>0.02676387937455517</v>
+        <v>0.02675387463815498</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>0.0261563325982533</v>
+        <v>0.02613751227750049</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.02649165965166638</v>
+        <v>0.02648418729936749</v>
       </c>
       <c r="R22" t="n">
-        <v>0.02649165965166638</v>
+        <v>0.02648418729936749</v>
       </c>
       <c r="S22" t="n">
-        <v>0.02649165965166638</v>
+        <v>0.02648418729936749</v>
       </c>
       <c r="T22" t="n">
-        <v>0.02649165965166638</v>
+        <v>0.02648418729936749</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.007855689914227595</v>
+        <v>-0.007997651071906042</v>
       </c>
       <c r="V22" t="n">
         <v>0.0008311254092450163</v>
       </c>
       <c r="W22" t="n">
-        <v>0.02397909983916399</v>
-      </c>
-      <c r="X22" t="inlineStr"/>
+        <v>0.02397892732715709</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.01045449414823931</v>
+      </c>
       <c r="Y22" t="n">
-        <v>0.009861478666459145</v>
+        <v>0.009583495871339835</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.0113041200681648</v>
+        <v>0.01172966475718659</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.006336028861441154</v>
+        <v>-0.006351796190071846</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.006336028861441154</v>
+        <v>-0.006351796190071846</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.006336028861441154</v>
+        <v>-0.006351796190071846</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.006336028861441154</v>
+        <v>-0.006351796190071846</v>
       </c>
       <c r="AE22" t="inlineStr"/>
     </row>
@@ -2431,7 +2507,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.03066902916276116</v>
+        <v>0.03067900423516017</v>
       </c>
       <c r="D23" t="n">
         <v>-0.003053737370149494</v>
@@ -2442,71 +2518,75 @@
       <c r="F23" t="n">
         <v>0.1396716145148645</v>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>-0.01189688660566666</v>
+      </c>
       <c r="H23" t="n">
-        <v>0.125148726253949</v>
+        <v>0.1250560430502417</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02981529306461171</v>
+        <v>0.02979468810378752</v>
       </c>
       <c r="J23" t="n">
-        <v>0.07717580985700317</v>
+        <v>0.07709313110515438</v>
       </c>
       <c r="K23" t="n">
-        <v>0.07397498283099931</v>
+        <v>0.07391064977242598</v>
       </c>
       <c r="L23" t="n">
-        <v>0.07397498283099931</v>
+        <v>0.07391064977242598</v>
       </c>
       <c r="M23" t="n">
-        <v>0.07397498283099931</v>
+        <v>0.07391064977242598</v>
       </c>
       <c r="N23" t="n">
-        <v>0.07397498283099931</v>
+        <v>0.07391064977242598</v>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>0.07670257881210316</v>
+        <v>0.07663106274524249</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.07623459088938364</v>
+        <v>0.07616110634244425</v>
       </c>
       <c r="R23" t="n">
-        <v>0.07623459088938364</v>
+        <v>0.07616110634244425</v>
       </c>
       <c r="S23" t="n">
-        <v>0.07623459088938364</v>
+        <v>0.07616110634244425</v>
       </c>
       <c r="T23" t="n">
-        <v>0.07623459088938364</v>
+        <v>0.07616110634244425</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.006592598375703933</v>
+        <v>-0.006862129810485192</v>
       </c>
       <c r="V23" t="n">
         <v>0.01577651323906053</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.4946516725540668</v>
-      </c>
-      <c r="X23" t="inlineStr"/>
+        <v>-0.494651577898063</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-0.001178851363931678</v>
+      </c>
       <c r="Y23" t="n">
-        <v>-0.06576926163877046</v>
+        <v>-0.0659407601736304</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.04413202246928089</v>
+        <v>-0.04415462173418486</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.01149840871593635</v>
+        <v>-0.01193836444553458</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.01149840871593635</v>
+        <v>-0.01193836444553458</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.01149840871593635</v>
+        <v>-0.01193836444553458</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.01149840871593635</v>
+        <v>-0.01193836444553458</v>
       </c>
       <c r="AE23" t="inlineStr"/>
     </row>
@@ -2518,7 +2598,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.05749037471561498</v>
+        <v>0.05748545845941833</v>
       </c>
       <c r="D24" t="n">
         <v>-0.002412547968501919</v>
@@ -2529,71 +2609,75 @@
       <c r="F24" t="n">
         <v>0.2862205555448222</v>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>-0.01749838623588178</v>
+      </c>
       <c r="H24" t="n">
-        <v>0.2598817289552691</v>
+        <v>0.2598872344594893</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0743199550047982</v>
+        <v>0.07434013977360558</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1090895516429963</v>
+        <v>0.1105893564006882</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1583827683833107</v>
+        <v>0.1583956806718272</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1583827683833107</v>
+        <v>0.1583956806718272</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1583827683833107</v>
+        <v>0.1583956806718272</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1583827683833107</v>
+        <v>0.1583956806718272</v>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.1644128378405135</v>
+        <v>0.1644275272811011</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1635629049745162</v>
+        <v>0.1635723636628945</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1635629049745162</v>
+        <v>0.1635723636628945</v>
       </c>
       <c r="S24" t="n">
-        <v>0.1635629049745162</v>
+        <v>0.1635723636628945</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1635629049745162</v>
+        <v>0.1635723636628945</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03170299787611991</v>
+        <v>0.03228491284339651</v>
       </c>
       <c r="V24" t="n">
         <v>0.001032660713306428</v>
       </c>
       <c r="W24" t="n">
-        <v>0.7074539431461576</v>
-      </c>
-      <c r="X24" t="inlineStr"/>
+        <v>0.7074540363621613</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.003334636689936425</v>
+      </c>
       <c r="Y24" t="n">
-        <v>0.08917053303882132</v>
+        <v>0.08832705790108231</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.0767162403806496</v>
+        <v>0.0754363653534546</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.1105770693190827</v>
+        <v>0.1101968193518728</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.1105770693190827</v>
+        <v>0.1101968193518728</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1105770693190827</v>
+        <v>0.1101968193518728</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.1105770693190827</v>
+        <v>0.1101968193518728</v>
       </c>
       <c r="AE24" t="inlineStr"/>
     </row>
@@ -2609,7 +2693,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.1347196169407847</v>
+        <v>0.1347388617735545</v>
       </c>
       <c r="D25" t="n">
         <v>0.01544659204186368</v>
@@ -2620,71 +2704,75 @@
       <c r="F25" t="n">
         <v>0.004383705583348223</v>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>-0.01658586785106517</v>
+      </c>
       <c r="H25" t="n">
-        <v>-0.2123974082398963</v>
+        <v>-0.212535349397414</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.3022854483794179</v>
+        <v>-0.3023091463643658</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.6494850372890936</v>
+        <v>-0.6486496730763682</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.2480670913306836</v>
+        <v>-0.2481636872065474</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.2480670913306836</v>
+        <v>-0.2481636872065474</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.2480670913306836</v>
+        <v>-0.2481636872065474</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.2480670913306836</v>
+        <v>-0.2481636872065474</v>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>-0.2672440822417632</v>
+        <v>-0.2673346181173847</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.2619010436280417</v>
+        <v>-0.2620002913120116</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.2619010436280417</v>
+        <v>-0.2620002913120116</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.2619010436280417</v>
+        <v>-0.2620002913120116</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.2619010436280417</v>
+        <v>-0.2620002913120116</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.1156532116021285</v>
+        <v>-0.1165363922454557</v>
       </c>
       <c r="V25" t="n">
         <v>-0.008386270607450822</v>
       </c>
       <c r="W25" t="n">
-        <v>0.02519705159988206</v>
-      </c>
-      <c r="X25" t="inlineStr"/>
+        <v>0.02519675246387009</v>
+      </c>
+      <c r="X25" t="n">
+        <v>-0.01155641037656439</v>
+      </c>
       <c r="Y25" t="n">
-        <v>0.2149393769815751</v>
+        <v>0.218862475698499</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.2556556142902245</v>
+        <v>0.2568892460195698</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.2094769831950793</v>
+        <v>0.213178100623124</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.2094769831950793</v>
+        <v>0.213178100623124</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.2094769831950793</v>
+        <v>0.213178100623124</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.2094769831950793</v>
+        <v>0.213178100623124</v>
       </c>
       <c r="AE25" t="inlineStr"/>
     </row>
@@ -2696,7 +2784,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.03039409571176382</v>
+        <v>0.03040368044814721</v>
       </c>
       <c r="D26" t="n">
         <v>-0.01184250479370019</v>
@@ -2707,71 +2795,75 @@
       <c r="F26" t="n">
         <v>-0.006465406434616256</v>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>0.005128676523710489</v>
+      </c>
       <c r="H26" t="n">
-        <v>-0.008061841954473676</v>
+        <v>-0.008032028577281143</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.09533538093341523</v>
+        <v>-0.09532448435697935</v>
       </c>
       <c r="J26" t="n">
-        <v>0.00222147292736339</v>
+        <v>0.003321441358742263</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.003540569229622769</v>
+        <v>-0.00350752401230096</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.003540569229622769</v>
+        <v>-0.00350752401230096</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.003540569229622769</v>
+        <v>-0.00350752401230096</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.003540569229622769</v>
+        <v>-0.00350752401230096</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>-0.003325381861015274</v>
+        <v>-0.003279632867185314</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.003664069298562772</v>
+        <v>-0.003626106673044266</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.003664069298562772</v>
+        <v>-0.003626106673044266</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.003664069298562772</v>
+        <v>-0.003626106673044266</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.003664069298562772</v>
+        <v>-0.003626106673044266</v>
       </c>
       <c r="U26" t="n">
-        <v>0.002118101172724047</v>
+        <v>0.00252529776501191</v>
       </c>
       <c r="V26" t="n">
         <v>-0.003941845405673816</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.02120734539229381</v>
-      </c>
-      <c r="X26" t="inlineStr"/>
+        <v>-0.0212072324962893</v>
+      </c>
+      <c r="X26" t="n">
+        <v>-0.01851581882013567</v>
+      </c>
       <c r="Y26" t="n">
-        <v>0.0157158474766339</v>
+        <v>0.01550262474810499</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.06386215570648622</v>
+        <v>0.06256739319069572</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.009162502350500092</v>
+        <v>0.00839924577596983</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.009162502350500092</v>
+        <v>0.00839924577596983</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.009162502350500092</v>
+        <v>0.00839924577596983</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.009162502350500092</v>
+        <v>0.00839924577596983</v>
       </c>
       <c r="AE26" t="inlineStr"/>
     </row>
@@ -2787,7 +2879,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.02071921071676843</v>
+        <v>-0.02071357081254283</v>
       </c>
       <c r="D27" t="n">
         <v>0.007681210963248438</v>
@@ -2798,71 +2890,75 @@
       <c r="F27" t="n">
         <v>0.01708948013957921</v>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>-0.003436670609829127</v>
+      </c>
       <c r="H27" t="n">
-        <v>-0.01534312179772487</v>
+        <v>-0.0153863851594554</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.0008633443545337741</v>
+        <v>-0.0008517489940699596</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.01899577329545056</v>
+        <v>-0.01911999778170102</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.001311463636458545</v>
+        <v>-0.001367646198705848</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.001311463636458545</v>
+        <v>-0.001367646198705848</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.001311463636458545</v>
+        <v>-0.001367646198705848</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.001311463636458545</v>
+        <v>-0.001367646198705848</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>-0.003735913301436532</v>
+        <v>-0.00377876626315065</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.003805341464213658</v>
+        <v>-0.003857631418305256</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.003805341464213658</v>
+        <v>-0.003857631418305256</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.003805341464213658</v>
+        <v>-0.003857631418305256</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.003805341464213658</v>
+        <v>-0.003857631418305256</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.03456387623055505</v>
+        <v>-0.03460340384813615</v>
       </c>
       <c r="V27" t="n">
         <v>-0.2612371586734863</v>
       </c>
       <c r="W27" t="n">
-        <v>0.04367353345894134</v>
-      </c>
-      <c r="X27" t="inlineStr"/>
+        <v>0.04367353710694147</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.007003580277206373</v>
+      </c>
       <c r="Y27" t="n">
-        <v>-0.03330189186007567</v>
+        <v>-0.03272557004502279</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.007005849592233983</v>
+        <v>-0.006840579153623166</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.03189815225192608</v>
+        <v>-0.0308350375534015</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.03189815225192608</v>
+        <v>-0.0308350375534015</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.03189815225192608</v>
+        <v>-0.0308350375534015</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.03189815225192608</v>
+        <v>-0.0308350375534015</v>
       </c>
       <c r="AE27" t="inlineStr"/>
     </row>
@@ -2878,7 +2974,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.005864104170564165</v>
+        <v>-0.005876317099052683</v>
       </c>
       <c r="D28" t="n">
         <v>0.0225272674930907</v>
@@ -2889,71 +2985,75 @@
       <c r="F28" t="n">
         <v>-0.005325392949015718</v>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>0.005052191552515847</v>
+      </c>
       <c r="H28" t="n">
-        <v>-0.008256929418277176</v>
+        <v>-0.008141551237662048</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03047867497914699</v>
+        <v>0.03050921862836874</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02319243248360475</v>
+        <v>0.02426185981067769</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.001453141882125675</v>
+        <v>-0.001333031381321255</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.001453141882125675</v>
+        <v>-0.001333031381321255</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.001453141882125675</v>
+        <v>-0.001333031381321255</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.001453141882125675</v>
+        <v>-0.001333031381321255</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>-0.001713834884553395</v>
+        <v>-0.001590203775608151</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.001961250606450024</v>
+        <v>-0.001834338985373559</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.001961250606450024</v>
+        <v>-0.001834338985373559</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.001961250606450024</v>
+        <v>-0.001834338985373559</v>
       </c>
       <c r="T28" t="n">
-        <v>-0.001961250606450024</v>
+        <v>-0.001834338985373559</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.01857622192704888</v>
+        <v>-0.01796209684648387</v>
       </c>
       <c r="V28" t="n">
         <v>-0.09932739488509579</v>
       </c>
       <c r="W28" t="n">
-        <v>0.002665461898618476</v>
-      </c>
-      <c r="X28" t="inlineStr"/>
+        <v>0.002665741546629661</v>
+      </c>
+      <c r="X28" t="n">
+        <v>-0.02447478824865707</v>
+      </c>
       <c r="Y28" t="n">
-        <v>-0.004923242404929695</v>
+        <v>-0.006527933061117322</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.002344117917764716</v>
+        <v>0.001655373570214943</v>
       </c>
       <c r="AA28" t="n">
-        <v>-0.00175065626202625</v>
+        <v>-0.003364746854589873</v>
       </c>
       <c r="AB28" t="n">
-        <v>-0.00175065626202625</v>
+        <v>-0.003364746854589873</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.00175065626202625</v>
+        <v>-0.003364746854589873</v>
       </c>
       <c r="AD28" t="n">
-        <v>-0.00175065626202625</v>
+        <v>-0.003364746854589873</v>
       </c>
       <c r="AE28" t="inlineStr"/>
     </row>
@@ -2969,7 +3069,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.005884361131374445</v>
+        <v>-0.005902863308114532</v>
       </c>
       <c r="D29" t="n">
         <v>0.01502547880901915</v>
@@ -2980,71 +3080,75 @@
       <c r="F29" t="n">
         <v>0.005561900094476002</v>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>0.009536281980466337</v>
+      </c>
       <c r="H29" t="n">
-        <v>0.006954699158187965</v>
+        <v>0.007041127193645087</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01214720467788818</v>
+        <v>0.01214703706188148</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.0140676878198977</v>
+        <v>-0.01410919222235664</v>
       </c>
       <c r="K29" t="n">
-        <v>0.007705190228207607</v>
+        <v>0.007784473367378933</v>
       </c>
       <c r="L29" t="n">
-        <v>0.007705190228207607</v>
+        <v>0.007784473367378933</v>
       </c>
       <c r="M29" t="n">
-        <v>0.007705190228207607</v>
+        <v>0.007784473367378933</v>
       </c>
       <c r="N29" t="n">
-        <v>0.007705190228207607</v>
+        <v>0.007784473367378933</v>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>0.00715224527808981</v>
+        <v>0.007228966657158665</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.007780844759233789</v>
+        <v>0.007864364666574586</v>
       </c>
       <c r="R29" t="n">
-        <v>0.007780844759233789</v>
+        <v>0.007864364666574586</v>
       </c>
       <c r="S29" t="n">
-        <v>0.007780844759233789</v>
+        <v>0.007864364666574586</v>
       </c>
       <c r="T29" t="n">
-        <v>0.007780844759233789</v>
+        <v>0.007864364666574586</v>
       </c>
       <c r="U29" t="n">
-        <v>0.02307506905100276</v>
+        <v>0.02297444213497768</v>
       </c>
       <c r="V29" t="n">
         <v>0.04428893898755755</v>
       </c>
       <c r="W29" t="n">
-        <v>0.004227690409107616</v>
-      </c>
-      <c r="X29" t="inlineStr"/>
+        <v>0.004227991657119666</v>
+      </c>
+      <c r="X29" t="n">
+        <v>-0.01053370557194513</v>
+      </c>
       <c r="Y29" t="n">
-        <v>0.006244768185790727</v>
+        <v>0.005613479168539165</v>
       </c>
       <c r="Z29" t="n">
-        <v>-0.01624062093762484</v>
+        <v>-0.0161422301496892</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.007080927931237116</v>
+        <v>0.006303814140152564</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.007080927931237116</v>
+        <v>0.006303814140152564</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.007080927931237116</v>
+        <v>0.006303814140152564</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.007080927931237116</v>
+        <v>0.006303814140152564</v>
       </c>
       <c r="AE29" t="inlineStr"/>
     </row>
@@ -3060,7 +3164,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.009610161216406447</v>
+        <v>-0.009610130592405222</v>
       </c>
       <c r="D30" t="n">
         <v>-0.03485054933002197</v>
@@ -3071,71 +3175,75 @@
       <c r="F30" t="n">
         <v>0.01396897457475898</v>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>0.009391251501548056</v>
+      </c>
       <c r="H30" t="n">
-        <v>0.01523785203351408</v>
+        <v>0.01517888547115542</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.02618754863150194</v>
+        <v>-0.02619500821580032</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.02876057432263393</v>
+        <v>-0.02990477768518772</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01266101954644078</v>
+        <v>0.0126005801520232</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01266101954644078</v>
+        <v>0.0126005801520232</v>
       </c>
       <c r="M30" t="n">
-        <v>0.01266101954644078</v>
+        <v>0.0126005801520232</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01266101954644078</v>
+        <v>0.0126005801520232</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>0.01239100820764033</v>
+        <v>0.01232579223703169</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01248226120329045</v>
+        <v>0.01241174276846971</v>
       </c>
       <c r="R30" t="n">
-        <v>0.01248226120329045</v>
+        <v>0.01241174276846971</v>
       </c>
       <c r="S30" t="n">
-        <v>0.01248226120329045</v>
+        <v>0.01241174276846971</v>
       </c>
       <c r="T30" t="n">
-        <v>0.01248226120329045</v>
+        <v>0.01241174276846971</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.03601023446440937</v>
+        <v>-0.03602684332907373</v>
       </c>
       <c r="V30" t="n">
         <v>0.02389219967568798</v>
       </c>
       <c r="W30" t="n">
-        <v>-0.01367606646704266</v>
-      </c>
-      <c r="X30" t="inlineStr"/>
+        <v>-0.01367628640305145</v>
+      </c>
+      <c r="X30" t="n">
+        <v>-0.02103068749124296</v>
+      </c>
       <c r="Y30" t="n">
-        <v>-0.00562937849717514</v>
+        <v>-0.005112983820519352</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.01732123365284934</v>
+        <v>0.01685761805030472</v>
       </c>
       <c r="AA30" t="n">
-        <v>-0.004910370532414821</v>
+        <v>-0.004448583537943341</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.004910370532414821</v>
+        <v>-0.004448583537943341</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.004910370532414821</v>
+        <v>-0.004448583537943341</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.004910370532414821</v>
+        <v>-0.004448583537943341</v>
       </c>
       <c r="AE30" t="inlineStr"/>
     </row>
@@ -3151,7 +3259,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.3749356855894273</v>
+        <v>0.3749435174617406</v>
       </c>
       <c r="D31" t="n">
         <v>-0.02383456588138263</v>
@@ -3162,71 +3270,75 @@
       <c r="F31" t="n">
         <v>-0.918948900949956</v>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>0.02645562178064187</v>
+      </c>
       <c r="H31" t="n">
-        <v>-0.893091703499668</v>
+        <v>-0.8930603029544121</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.1113530431101217</v>
+        <v>-0.1113713118148525</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3350708553919217</v>
+        <v>0.3325837439891189</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.9270163765686549</v>
+        <v>-0.9269849142953965</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.9270163765686549</v>
+        <v>-0.9269849142953965</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.9270163765686549</v>
+        <v>-0.9269849142953965</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.9270163765686549</v>
+        <v>-0.9269849142953965</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>-0.917919200108768</v>
+        <v>-0.9178923601396942</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.9198164499126579</v>
+        <v>-0.9197860150314404</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.9198164499126579</v>
+        <v>-0.9197860150314404</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.9198164499126579</v>
+        <v>-0.9197860150314404</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.9198164499126579</v>
+        <v>-0.9197860150314404</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.05266840924273636</v>
+        <v>-0.05288895187555807</v>
       </c>
       <c r="V31" t="n">
         <v>-0.002736661357466454</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.0004707743228309729</v>
-      </c>
-      <c r="X31" t="inlineStr"/>
+        <v>-0.000470948274837931</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.02489709418840877</v>
+      </c>
       <c r="Y31" t="n">
-        <v>0.1551130384925215</v>
+        <v>0.156111951268478</v>
       </c>
       <c r="Z31" t="n">
-        <v>-0.0008858124834324993</v>
+        <v>0.001667204034688161</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.4496981356199253</v>
+        <v>0.4501711376228454</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.4496981356199253</v>
+        <v>0.4501711376228454</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.4496981356199253</v>
+        <v>0.4501711376228454</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.4496981356199253</v>
+        <v>0.4501711376228454</v>
       </c>
       <c r="AE31" t="inlineStr"/>
     </row>
@@ -3242,7 +3354,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.03682300419292016</v>
+        <v>0.03682706537708261</v>
       </c>
       <c r="D32" t="n">
         <v>-0.00373385774935431</v>
@@ -3253,71 +3365,75 @@
       <c r="F32" t="n">
         <v>-0.05578567375142694</v>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>-0.02193727493899481</v>
+      </c>
       <c r="H32" t="n">
-        <v>-0.0556537325941493</v>
+        <v>-0.05567830139513204</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.03096930584677223</v>
+        <v>-0.03093605326944213</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1142055480066158</v>
+        <v>0.1149597621085107</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.05773446854937874</v>
+        <v>-0.05775959069438361</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.05773446854937874</v>
+        <v>-0.05775959069438361</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.05773446854937874</v>
+        <v>-0.05775959069438361</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.05773446854937874</v>
+        <v>-0.05775959069438361</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>-0.05628535089141403</v>
+        <v>-0.05630395665215826</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.05720040622401624</v>
+        <v>-0.05722536699301468</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.05720040622401624</v>
+        <v>-0.05722536699301468</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.05720040622401624</v>
+        <v>-0.05722536699301468</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.05720040622401624</v>
+        <v>-0.05722536699301468</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.0284544102581764</v>
+        <v>-0.02860233167209326</v>
       </c>
       <c r="V32" t="n">
         <v>-0.0212206525288261</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01463860272954411</v>
-      </c>
-      <c r="X32" t="inlineStr"/>
+        <v>0.01463880336955213</v>
+      </c>
+      <c r="X32" t="n">
+        <v>-0.01336130334046627</v>
+      </c>
       <c r="Y32" t="n">
-        <v>0.01175178594207144</v>
+        <v>0.01178457119138285</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.02178948855157954</v>
+        <v>0.02180434685617387</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.03433347622133905</v>
+        <v>0.03461938074477523</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.03433347622133905</v>
+        <v>0.03461938074477523</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.03433347622133905</v>
+        <v>0.03461938074477523</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.03433347622133905</v>
+        <v>0.03461938074477523</v>
       </c>
       <c r="AE32" t="inlineStr"/>
     </row>
@@ -3333,7 +3449,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.008929875909195036</v>
+        <v>0.008934049605361982</v>
       </c>
       <c r="D33" t="n">
         <v>0.01683517286540691</v>
@@ -3344,71 +3460,75 @@
       <c r="F33" t="n">
         <v>0.02107710794708431</v>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>0.005186800719683192</v>
+      </c>
       <c r="H33" t="n">
-        <v>0.02957995894319836</v>
+        <v>0.02956398751855949</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0240189950407598</v>
+        <v>0.0240001275840051</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.02719838492757227</v>
+        <v>-0.0274377957391667</v>
       </c>
       <c r="K33" t="n">
-        <v>0.03896387541455502</v>
+        <v>0.03894676466187059</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03896387541455502</v>
+        <v>0.03894676466187059</v>
       </c>
       <c r="M33" t="n">
-        <v>0.03896387541455502</v>
+        <v>0.03894676466187059</v>
       </c>
       <c r="N33" t="n">
-        <v>0.03896387541455502</v>
+        <v>0.03894676466187059</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>0.03948155783526231</v>
+        <v>0.03946039089041564</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.03945222714608908</v>
+        <v>0.03943866935354676</v>
       </c>
       <c r="R33" t="n">
-        <v>0.03945222714608908</v>
+        <v>0.03943866935354676</v>
       </c>
       <c r="S33" t="n">
-        <v>0.03945222714608908</v>
+        <v>0.03943866935354676</v>
       </c>
       <c r="T33" t="n">
-        <v>0.03945222714608908</v>
+        <v>0.03943866935354676</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02802668742506749</v>
+        <v>0.02731082538043301</v>
       </c>
       <c r="V33" t="n">
         <v>-0.01132488477299539</v>
       </c>
       <c r="W33" t="n">
-        <v>-0.003287355203494208</v>
-      </c>
-      <c r="X33" t="inlineStr"/>
+        <v>-0.003287187683487507</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.03225628636111163</v>
+      </c>
       <c r="Y33" t="n">
-        <v>-0.02507716055508642</v>
+        <v>-0.02388087090723483</v>
       </c>
       <c r="Z33" t="n">
-        <v>-0.007925599325023971</v>
+        <v>-0.005922546476901858</v>
       </c>
       <c r="AA33" t="n">
-        <v>-0.02357082958283318</v>
+        <v>-0.02238250582330023</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.02357082958283318</v>
+        <v>-0.02238250582330023</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.02357082958283318</v>
+        <v>-0.02238250582330023</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.02357082958283318</v>
+        <v>-0.02238250582330023</v>
       </c>
       <c r="AE33" t="inlineStr"/>
     </row>
@@ -3424,7 +3544,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.00979794826391793</v>
+        <v>-0.009804946856197871</v>
       </c>
       <c r="D34" t="n">
         <v>-0.01617879079115163</v>
@@ -3435,71 +3555,75 @@
       <c r="F34" t="n">
         <v>0.008194026567761062</v>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>-0.004178535279789911</v>
+      </c>
       <c r="H34" t="n">
-        <v>0.01297653594306144</v>
+        <v>0.01300539863221594</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.00613449528537981</v>
+        <v>-0.006146026997841079</v>
       </c>
       <c r="J34" t="n">
-        <v>0.005250319857385731</v>
+        <v>0.00461995440654716</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1028599795063992</v>
+        <v>0.1028647986105919</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1028599795063992</v>
+        <v>0.1028647986105919</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1028599795063992</v>
+        <v>0.1028647986105919</v>
       </c>
       <c r="N34" t="n">
-        <v>0.1028599795063992</v>
+        <v>0.1028647986105919</v>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>0.1081175855087034</v>
+        <v>0.1081109108204364</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.1078015516720621</v>
+        <v>0.1077991091439643</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1078015516720621</v>
+        <v>0.1077991091439643</v>
       </c>
       <c r="S34" t="n">
-        <v>0.1078015516720621</v>
+        <v>0.1077991091439643</v>
       </c>
       <c r="T34" t="n">
-        <v>0.1078015516720621</v>
+        <v>0.1077991091439643</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.007062405402496215</v>
+        <v>-0.006545975493839019</v>
       </c>
       <c r="V34" t="n">
         <v>0.01507754546710182</v>
       </c>
       <c r="W34" t="n">
-        <v>0.01072271812490872</v>
-      </c>
-      <c r="X34" t="inlineStr"/>
+        <v>0.01072268327690733</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.008900336870075154</v>
+      </c>
       <c r="Y34" t="n">
-        <v>0.01762187408087496</v>
+        <v>0.01693710374948415</v>
       </c>
       <c r="Z34" t="n">
-        <v>-0.0001784834951393398</v>
+        <v>-0.0009300800052032002</v>
       </c>
       <c r="AA34" t="n">
-        <v>-0.01613136314125452</v>
+        <v>-0.01785442948217717</v>
       </c>
       <c r="AB34" t="n">
-        <v>-0.01613136314125452</v>
+        <v>-0.01785442948217717</v>
       </c>
       <c r="AC34" t="n">
-        <v>-0.01613136314125452</v>
+        <v>-0.01785442948217717</v>
       </c>
       <c r="AD34" t="n">
-        <v>-0.01613136314125452</v>
+        <v>-0.01785442948217717</v>
       </c>
       <c r="AE34" t="inlineStr"/>
     </row>
@@ -3515,7 +3639,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.01090464974818599</v>
+        <v>0.01092402043696082</v>
       </c>
       <c r="D35" t="n">
         <v>0.01409610718784429</v>
@@ -3526,71 +3650,75 @@
       <c r="F35" t="n">
         <v>-0.02397737740709509</v>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>-0.0004380620045224889</v>
+      </c>
       <c r="H35" t="n">
-        <v>-0.02716551190262047</v>
+        <v>-0.02718330291133211</v>
       </c>
       <c r="I35" t="n">
-        <v>0.008529075701163026</v>
+        <v>0.008501687668067507</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005790709592583582</v>
+        <v>0.004100938304241924</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.03010951915638076</v>
+        <v>-0.03013499678939987</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.03010951915638076</v>
+        <v>-0.03013499678939987</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.03010951915638076</v>
+        <v>-0.03013499678939987</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.03010951915638076</v>
+        <v>-0.03013499678939987</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>-0.03057677239107089</v>
+        <v>-0.03060758618430344</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.03026983388279335</v>
+        <v>-0.03030272175610886</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.03026983388279335</v>
+        <v>-0.03030272175610886</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.03026983388279335</v>
+        <v>-0.03030272175610886</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.03026983388279335</v>
+        <v>-0.03030272175610886</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.0325631426465257</v>
+        <v>-0.0329654448706178</v>
       </c>
       <c r="V35" t="n">
         <v>0.002014123088564924</v>
       </c>
       <c r="W35" t="n">
-        <v>0.008687083835483353</v>
-      </c>
-      <c r="X35" t="inlineStr"/>
+        <v>0.008686993691479747</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.008037808908457957</v>
+      </c>
       <c r="Y35" t="n">
-        <v>0.01329670152386806</v>
+        <v>0.0141187401487496</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.01531408093256324</v>
+        <v>0.01630062958002518</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.0200702151708086</v>
+        <v>0.02057501160700046</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.0200702151708086</v>
+        <v>0.02057501160700046</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.0200702151708086</v>
+        <v>0.02057501160700046</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.0200702151708086</v>
+        <v>0.02057501160700046</v>
       </c>
       <c r="AE35" t="inlineStr"/>
     </row>
@@ -3606,7 +3734,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.01915402617416105</v>
+        <v>0.0191833451513338</v>
       </c>
       <c r="D36" t="n">
         <v>-0.01006584808263392</v>
@@ -3617,71 +3745,75 @@
       <c r="F36" t="n">
         <v>-0.01082503800100152</v>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>0.01772523006533339</v>
+      </c>
       <c r="H36" t="n">
-        <v>-0.01230320516412821</v>
+        <v>-0.0123851276314051</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.02026829985073199</v>
+        <v>-0.02029044455561778</v>
       </c>
       <c r="J36" t="n">
-        <v>0.006111884566370981</v>
+        <v>0.006332804864158621</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0007070391642815666</v>
+        <v>0.0006172809846912392</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0007070391642815666</v>
+        <v>0.0006172809846912392</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0007070391642815666</v>
+        <v>0.0006172809846912392</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0007070391642815666</v>
+        <v>0.0006172809846912392</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>0.002069112466764499</v>
+        <v>0.001991087599643504</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.001456696666267866</v>
+        <v>0.001360381590415263</v>
       </c>
       <c r="R36" t="n">
-        <v>0.001456696666267866</v>
+        <v>0.001360381590415263</v>
       </c>
       <c r="S36" t="n">
-        <v>0.001456696666267866</v>
+        <v>0.001360381590415263</v>
       </c>
       <c r="T36" t="n">
-        <v>0.001456696666267866</v>
+        <v>0.001360381590415263</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01559644420785776</v>
+        <v>0.0157157100046284</v>
       </c>
       <c r="V36" t="n">
         <v>0.02320008419200336</v>
       </c>
       <c r="W36" t="n">
-        <v>-0.004425831825033272</v>
-      </c>
-      <c r="X36" t="inlineStr"/>
+        <v>-0.004425502929020116</v>
+      </c>
+      <c r="X36" t="n">
+        <v>-0.0281661148105466</v>
+      </c>
       <c r="Y36" t="n">
-        <v>0.000938811877552475</v>
+        <v>0.001444762233790489</v>
       </c>
       <c r="Z36" t="n">
-        <v>-0.01063782848951314</v>
+        <v>-0.009965052494602097</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.01860754231230169</v>
+        <v>0.0189795048871802</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.01860754231230169</v>
+        <v>0.0189795048871802</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.01860754231230169</v>
+        <v>0.0189795048871802</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.01860754231230169</v>
+        <v>0.0189795048871802</v>
       </c>
       <c r="AE36" t="inlineStr"/>
     </row>
@@ -3697,7 +3829,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.01158374897534996</v>
+        <v>-0.01157828830313153</v>
       </c>
       <c r="D37" t="n">
         <v>0.01336882479075299</v>
@@ -3708,71 +3840,75 @@
       <c r="F37" t="n">
         <v>0.003388387815535512</v>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>-0.01738550874575246</v>
+      </c>
       <c r="H37" t="n">
-        <v>-0.005177797647111904</v>
+        <v>-0.005147081197883247</v>
       </c>
       <c r="I37" t="n">
-        <v>0.005997544463901778</v>
+        <v>0.005989797839591913</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.006282354029688894</v>
+        <v>-0.006197275130334095</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.007661146002445838</v>
+        <v>-0.007656590802263631</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.007661146002445838</v>
+        <v>-0.007656590802263631</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.007661146002445838</v>
+        <v>-0.007656590802263631</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.007661146002445838</v>
+        <v>-0.007656590802263631</v>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>-0.007485682571427302</v>
+        <v>-0.007477792619111703</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.008134690405387616</v>
+        <v>-0.008130923557236942</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.008134690405387616</v>
+        <v>-0.008130923557236942</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.008134690405387616</v>
+        <v>-0.008130923557236942</v>
       </c>
       <c r="T37" t="n">
-        <v>-0.008134690405387616</v>
+        <v>-0.008130923557236942</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01289490118779605</v>
+        <v>0.01237197582287903</v>
       </c>
       <c r="V37" t="n">
         <v>-0.01607773398710936</v>
       </c>
       <c r="W37" t="n">
-        <v>0.003029952121198084</v>
-      </c>
-      <c r="X37" t="inlineStr"/>
+        <v>0.003029803225192129</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.01237211346021055</v>
+      </c>
       <c r="Y37" t="n">
-        <v>0.003091037307641491</v>
+        <v>0.005637097569483903</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.002776889199075567</v>
+        <v>-0.002056534450261378</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.01128806291552252</v>
+        <v>0.01396763134270525</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.01128806291552252</v>
+        <v>0.01396763134270525</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.01128806291552252</v>
+        <v>0.01396763134270525</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.01128806291552252</v>
+        <v>0.01396763134270525</v>
       </c>
       <c r="AE37" t="inlineStr"/>
     </row>
@@ -3788,7 +3924,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.01203854947354198</v>
+        <v>-0.01204205078568203</v>
       </c>
       <c r="D38" t="n">
         <v>-0.02239696351987854</v>
@@ -3799,71 +3935,75 @@
       <c r="F38" t="n">
         <v>0.0007740415989616638</v>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>-0.02718009420153874</v>
+      </c>
       <c r="H38" t="n">
-        <v>-0.004746800541872021</v>
+        <v>-0.004775255135010204</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.02716039817441592</v>
+        <v>-0.0271716625268665</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.0149086656639992</v>
+        <v>-0.01381360388965344</v>
       </c>
       <c r="K38" t="n">
-        <v>0.007357974438318976</v>
+        <v>0.007344415493776619</v>
       </c>
       <c r="L38" t="n">
-        <v>0.007357974438318976</v>
+        <v>0.007344415493776619</v>
       </c>
       <c r="M38" t="n">
-        <v>0.007357974438318976</v>
+        <v>0.007344415493776619</v>
       </c>
       <c r="N38" t="n">
-        <v>0.007357974438318976</v>
+        <v>0.007344415493776619</v>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>0.007960382334415293</v>
+        <v>0.007944979037799161</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.007574426702977068</v>
+        <v>0.007561832174473286</v>
       </c>
       <c r="R38" t="n">
-        <v>0.007574426702977068</v>
+        <v>0.007561832174473286</v>
       </c>
       <c r="S38" t="n">
-        <v>0.007574426702977068</v>
+        <v>0.007561832174473286</v>
       </c>
       <c r="T38" t="n">
-        <v>0.007574426702977068</v>
+        <v>0.007561832174473286</v>
       </c>
       <c r="U38" t="n">
-        <v>-0.01036041468641659</v>
+        <v>-0.01082671665706867</v>
       </c>
       <c r="V38" t="n">
         <v>-0.03236995415879816</v>
       </c>
       <c r="W38" t="n">
-        <v>0.00552986652519466</v>
-      </c>
-      <c r="X38" t="inlineStr"/>
+        <v>0.005529901085196043</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.01785724702824009</v>
+      </c>
       <c r="Y38" t="n">
-        <v>0.02406935443477417</v>
+        <v>0.02702556328902253</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.001868921066756843</v>
+        <v>0.001518215100728604</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.001157914414316576</v>
+        <v>0.003653453330138133</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.001157914414316576</v>
+        <v>0.003653453330138133</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.001157914414316576</v>
+        <v>0.003653453330138133</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.001157914414316576</v>
+        <v>0.003653453330138133</v>
       </c>
       <c r="AE38" t="inlineStr"/>
     </row>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2_agile.xlsx
@@ -730,90 +730,90 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Oil retention [%]</t>
+          <t>Oil recovery [%]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.01449076185963047</v>
+        <v>0.1564461153778446</v>
       </c>
       <c r="D4" t="n">
         <v>0.003529454733178189</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.03833437142137485</v>
+        <v>0.321833825577353</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01530684090027363</v>
+        <v>-0.01530203168408126</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007220401201342729</v>
+        <v>0.00109219051698201</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0443029351161174</v>
+        <v>0.1032331694673642</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00770345176413807</v>
+        <v>-0.02993212871728514</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03550559258851486</v>
+        <v>-0.1028748494207504</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.02973551955742078</v>
+        <v>0.02208006808320272</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.02973551955742078</v>
+        <v>0.02208006808320272</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.02973551955742078</v>
+        <v>0.02208006808320272</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.02973551955742078</v>
+        <v>0.02208006808320272</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>-0.0213915575916623</v>
+        <v>-0.02327832525113301</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.03168001883520075</v>
+        <v>0.03190542665221707</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.03168001883520075</v>
+        <v>0.03190542665221707</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.03168001883520075</v>
+        <v>0.03190542665221707</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.03168001883520075</v>
+        <v>0.03190542665221707</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.07360247632009903</v>
+        <v>0.2425557313982292</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.4369569974462799</v>
+        <v>0.9735189411487576</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01027472393098896</v>
+        <v>0.009795914311836572</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.004733418975928386</v>
+        <v>-0.06157945336436114</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.01922797113711884</v>
+        <v>0.1160118957318398</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.07484190184167606</v>
+        <v>-0.1197627549985102</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0005389885655595426</v>
+        <v>0.1208669360026774</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0005389885655595426</v>
+        <v>0.1208669360026774</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0005389885655595426</v>
+        <v>0.1208669360026774</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0005389885655595426</v>
+        <v>0.1208669360026774</v>
       </c>
       <c r="AE4" t="inlineStr"/>
     </row>
@@ -821,90 +821,90 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Bagasse oil extraction efficiency [%]</t>
+          <t>Saccharification oil recovery [%]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.07277556089502243</v>
+        <v>-0.002397055775882231</v>
       </c>
       <c r="D5" t="n">
         <v>0.007570266830810672</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1229394609815784</v>
+        <v>-0.05541093188043727</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01142706381708255</v>
+        <v>-0.01142728298509132</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01071776005134388</v>
+        <v>0.002789249439933099</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04558606166344246</v>
+        <v>-0.0416371257284235</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.00535089727003589</v>
+        <v>0.0004415790896631636</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.03878848845673392</v>
+        <v>-0.004786033745015666</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01199647977585919</v>
+        <v>-0.02664909994596399</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01199647977585919</v>
+        <v>-0.02664909994596399</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01199647977585919</v>
+        <v>-0.02664909994596399</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01199647977585919</v>
+        <v>-0.02664909994596399</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>-0.005383458455338337</v>
+        <v>-0.01670936303637452</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01603616108944644</v>
+        <v>-0.02891349869253995</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01603616108944644</v>
+        <v>-0.02891349869253995</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01603616108944644</v>
+        <v>-0.02891349869253995</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01603616108944644</v>
+        <v>-0.02891349869253995</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08101435888857435</v>
+        <v>-0.05501886085675443</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8408122722564908</v>
+        <v>-0.1867992094879684</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0003160215486408619</v>
+        <v>0.0002029764561190582</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.01525423226634396</v>
+        <v>0.01884669441105531</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1724678091707123</v>
+        <v>-0.01231354641292732</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.009768306918732275</v>
+        <v>0.02722204467288178</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1310658702346348</v>
+        <v>-0.01134899786195991</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1310658702346348</v>
+        <v>-0.01134899786195991</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1310658702346348</v>
+        <v>-0.01134899786195991</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1310658702346348</v>
+        <v>-0.01134899786195991</v>
       </c>
       <c r="AE5" t="inlineStr"/>
     </row>
@@ -916,86 +916,86 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1738102276244091</v>
+        <v>0.1736652329626093</v>
       </c>
       <c r="D6" t="n">
         <v>0.0108233524329341</v>
       </c>
       <c r="E6" t="n">
-        <v>0.006027640081105602</v>
+        <v>0.0009236422449456897</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0006893062355722493</v>
+        <v>-0.0006891093395643735</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01712317767251707</v>
+        <v>-0.0009457367892410298</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0001178903087156123</v>
+        <v>0.0003042623683088986</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4508148372325935</v>
+        <v>-0.4497649716865988</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.03399475018798377</v>
+        <v>-0.002000616231370912</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0005124210444968418</v>
+        <v>0.0001064440362577614</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0005124210444968418</v>
+        <v>0.0001064440362577614</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0005124210444968418</v>
+        <v>0.0001064440362577614</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0005124210444968418</v>
+        <v>0.0001064440362577614</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>-0.0008127527365101093</v>
+        <v>-0.0005441861977674478</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.000386627727465109</v>
+        <v>0.0001028573801142952</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.000386627727465109</v>
+        <v>0.0001028573801142952</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.000386627727465109</v>
+        <v>0.0001028573801142952</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.000386627727465109</v>
+        <v>0.0001028573801142952</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0001962970638518825</v>
+        <v>-0.003764886294595452</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0218979925559197</v>
+        <v>-0.002869433874777355</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.01900365128814605</v>
+        <v>-0.01924619788984791</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01415647556393152</v>
+        <v>-2.27868291367643e-05</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01010163563606543</v>
+        <v>0.00884199836355477</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.02093405142936205</v>
+        <v>0.0209477026299081</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.005737772485510899</v>
+        <v>0.008441228593649142</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.005737772485510899</v>
+        <v>0.008441228593649142</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.005737772485510899</v>
+        <v>0.008441228593649142</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.005737772485510899</v>
+        <v>0.008441228593649142</v>
       </c>
       <c r="AE6" t="inlineStr"/>
     </row>
@@ -1007,86 +1007,86 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.07810599634023985</v>
+        <v>0.07199522371180894</v>
       </c>
       <c r="D7" t="n">
         <v>-0.004311911308476452</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.007426630665065225</v>
+        <v>-0.009782340199293606</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001799452103978084</v>
+        <v>0.001798667879946715</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.01073018514205765</v>
+        <v>-0.02629031673707161</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0003351532934061317</v>
+        <v>-0.001121676141077485</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2293796710631868</v>
+        <v>-0.2283177426367097</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.01614282918549252</v>
+        <v>-0.0005077615421749621</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001231079377243175</v>
+        <v>0.0003288205571528222</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001231079377243175</v>
+        <v>0.0003288205571528222</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001231079377243175</v>
+        <v>0.0003288205571528222</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001231079377243175</v>
+        <v>0.0003288205571528222</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>0.001724952932998117</v>
+        <v>0.002161173974446959</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0009940778317631131</v>
+        <v>6.401280256051209e-05</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0009940778317631131</v>
+        <v>6.401280256051209e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0009940778317631131</v>
+        <v>6.401280256051209e-05</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0009940778317631131</v>
+        <v>6.401280256051209e-05</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02308060517922421</v>
+        <v>0.01503491080939643</v>
       </c>
       <c r="V7" t="n">
-        <v>0.002079858419194336</v>
+        <v>-0.01395366209414648</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01989632949985318</v>
+        <v>0.01991366978854679</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.001083368623019399</v>
+        <v>0.02228452209971613</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.01737983723919349</v>
+        <v>-0.005704851915633534</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0122049925521997</v>
+        <v>-0.008965704262628169</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.01197764303910572</v>
+        <v>-0.0065772900230916</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.01197764303910572</v>
+        <v>-0.0065772900230916</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.01197764303910572</v>
+        <v>-0.0065772900230916</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.01197764303910572</v>
+        <v>-0.0065772900230916</v>
       </c>
       <c r="AE7" t="inlineStr"/>
     </row>
@@ -1098,86 +1098,86 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1888071824322873</v>
+        <v>0.1855737459189498</v>
       </c>
       <c r="D8" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.001377235927089437</v>
+        <v>-0.003075792795031711</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.002944693365787734</v>
+        <v>-0.002946490197859607</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03269670657768003</v>
+        <v>0.0284369305702279</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.002140800181632007</v>
+        <v>0.001328822680859981</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7721378912375155</v>
+        <v>0.7711386472615457</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03321410268264075</v>
+        <v>0.008900613700707601</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0005688011747520469</v>
+        <v>0.001971885294875411</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0005688011747520469</v>
+        <v>0.001971885294875411</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0005688011747520469</v>
+        <v>0.001971885294875411</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.0005688011747520469</v>
+        <v>0.001971885294875411</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>-0.0001704983108199324</v>
+        <v>0.001370784150831366</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.0006622161864886473</v>
+        <v>0.002110037940401517</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0006622161864886473</v>
+        <v>0.002110037940401517</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.0006622161864886473</v>
+        <v>0.002110037940401517</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.0006622161864886473</v>
+        <v>0.002110037940401517</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.02814874634194985</v>
+        <v>-0.01076537678261507</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.0004448660337946413</v>
+        <v>0.0007140504285620171</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.02385954911438196</v>
+        <v>-0.02349211985168479</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.003664017964009116</v>
+        <v>0.001502747953962546</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.005202932464117298</v>
+        <v>-0.01051825177943913</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.03065887975435519</v>
+        <v>-0.01702597834503913</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.004760166142406645</v>
+        <v>-0.01144687975387519</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.004760166142406645</v>
+        <v>-0.01144687975387519</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.004760166142406645</v>
+        <v>-0.01144687975387519</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.004760166142406645</v>
+        <v>-0.01144687975387519</v>
       </c>
       <c r="AE8" t="inlineStr"/>
     </row>
@@ -1193,86 +1193,86 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.6639215494688618</v>
+        <v>0.6659730426709216</v>
       </c>
       <c r="D9" t="n">
         <v>0.01752971628518865</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002344032669761306</v>
+        <v>-0.00193221300528852</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01370726416429056</v>
+        <v>-0.01370882157235286</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.02702443341727514</v>
+        <v>-0.009807260873283871</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.01803129374525175</v>
+        <v>-0.01858504607213561</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003248652321946092</v>
+        <v>0.003082537179301487</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.01080910025367829</v>
+        <v>-0.03083900145880087</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0152682324827293</v>
+        <v>-0.01642407905696316</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0152682324827293</v>
+        <v>-0.01642407905696316</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0152682324827293</v>
+        <v>-0.01642407905696316</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0152682324827293</v>
+        <v>-0.01642407905696316</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>-0.01469212455568498</v>
+        <v>-0.01499086687163467</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.01572693461307738</v>
+        <v>-0.01683678547347142</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01572693461307738</v>
+        <v>-0.01683678547347142</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.01572693461307738</v>
+        <v>-0.01683678547347142</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.01572693461307738</v>
+        <v>-0.01683678547347142</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.3795639974545598</v>
+        <v>-0.3171398613255945</v>
       </c>
       <c r="V9" t="n">
-        <v>0.005223330448933217</v>
+        <v>-0.004197360167894407</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.01005661297826452</v>
+        <v>-0.01018586354343454</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01958794300865036</v>
+        <v>0.009513660839875634</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.01443795984151839</v>
+        <v>-0.009416321904485738</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.006427877729115109</v>
+        <v>0.006427793633111745</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.007769577142783085</v>
+        <v>-0.01056153882246155</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.007769577142783085</v>
+        <v>-0.01056153882246155</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.007769577142783085</v>
+        <v>-0.01056153882246155</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.007769577142783085</v>
+        <v>-0.01056153882246155</v>
       </c>
       <c r="AE9" t="inlineStr"/>
     </row>
@@ -1288,86 +1288,86 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.3550122178484886</v>
+        <v>0.3311796221751848</v>
       </c>
       <c r="D10" t="n">
         <v>0.003197859583914383</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03039465078378603</v>
+        <v>0.03094710987788439</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.03280610387224415</v>
+        <v>-0.03280650908826036</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02024333632656823</v>
+        <v>-0.008225280841178304</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.03509710133988405</v>
+        <v>-0.0328428748136705</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01863771021750841</v>
+        <v>-0.01974777976591119</v>
       </c>
       <c r="J10" t="n">
-        <v>0.004578455667554999</v>
+        <v>-0.00433268730921712</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.03617523619900944</v>
+        <v>-0.03420161340006453</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.03617523619900944</v>
+        <v>-0.03420161340006453</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.03617523619900944</v>
+        <v>-0.03420161340006453</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.03617523619900944</v>
+        <v>-0.03420161340006453</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>-0.03580269618410784</v>
+        <v>-0.03529869481994779</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.03621950871278034</v>
+        <v>-0.03415726207029048</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.03621950871278034</v>
+        <v>-0.03415726207029048</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.03621950871278034</v>
+        <v>-0.03415726207029048</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.03621950871278034</v>
+        <v>-0.03415726207029048</v>
       </c>
       <c r="U10" t="n">
-        <v>0.7456572247382889</v>
+        <v>0.5423473478378938</v>
       </c>
       <c r="V10" t="n">
-        <v>0.007453833610153343</v>
+        <v>0.001555266590210663</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.01885870529834821</v>
+        <v>-0.01897474578298983</v>
       </c>
       <c r="X10" t="n">
-        <v>0.04343826143621506</v>
+        <v>0.01511660682105438</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.01038478419139137</v>
+        <v>0.01189532926308136</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.004407033872281355</v>
+        <v>0.02031520132460805</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.004472037298881491</v>
+        <v>0.01646443813057752</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.004472037298881491</v>
+        <v>0.01646443813057752</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.004472037298881491</v>
+        <v>0.01646443813057752</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.004472037298881491</v>
+        <v>0.01646443813057752</v>
       </c>
       <c r="AE10" t="inlineStr"/>
     </row>
@@ -1383,86 +1383,86 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.0008615281304611251</v>
+        <v>-0.05841131331245253</v>
       </c>
       <c r="D11" t="n">
         <v>0.007627171025086841</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001292352627694105</v>
+        <v>-0.004934276741371069</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0007660664946426597</v>
+        <v>-0.0007661096946443875</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0005130542618994644</v>
+        <v>0.007956695471364903</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0004247555689902227</v>
+        <v>-0.006148718739593283</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01465643281025731</v>
+        <v>0.014096525171861</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0009176190151933433</v>
+        <v>-0.008898713092624598</v>
       </c>
       <c r="K11" t="n">
-        <v>-9.979699599187984e-05</v>
+        <v>-0.00352287652491506</v>
       </c>
       <c r="L11" t="n">
-        <v>-9.979699599187984e-05</v>
+        <v>-0.00352287652491506</v>
       </c>
       <c r="M11" t="n">
-        <v>-9.979699599187984e-05</v>
+        <v>-0.00352287652491506</v>
       </c>
       <c r="N11" t="n">
-        <v>-9.979699599187984e-05</v>
+        <v>-0.00352287652491506</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>0.0002617038824681553</v>
+        <v>-0.001670281698811268</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.299952131998085e-05</v>
+        <v>-0.003696876819875072</v>
       </c>
       <c r="R11" t="n">
-        <v>3.299952131998085e-05</v>
+        <v>-0.003696876819875072</v>
       </c>
       <c r="S11" t="n">
-        <v>3.299952131998085e-05</v>
+        <v>-0.003696876819875072</v>
       </c>
       <c r="T11" t="n">
-        <v>3.299952131998085e-05</v>
+        <v>-0.003696876819875072</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.02404867401794696</v>
+        <v>0.1224424197136968</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.00724087324963493</v>
+        <v>-0.0134103075444123</v>
       </c>
       <c r="W11" t="n">
-        <v>0.008976128519045138</v>
+        <v>0.008994535463781416</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.006485122168338967</v>
+        <v>-0.007857933122560964</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.003149822813992912</v>
+        <v>0.005451779462209178</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.010521049956842</v>
+        <v>-0.01357342691093708</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.00889544656381786</v>
+        <v>0.0112356974094279</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.00889544656381786</v>
+        <v>0.0112356974094279</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.00889544656381786</v>
+        <v>0.0112356974094279</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.00889544656381786</v>
+        <v>0.0112356974094279</v>
       </c>
       <c r="AE11" t="inlineStr"/>
     </row>
@@ -1478,86 +1478,86 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.003564545230581809</v>
+        <v>-0.002099797043991881</v>
       </c>
       <c r="D12" t="n">
         <v>-0.004942293317691732</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00866815330672613</v>
+        <v>0.01265797836231913</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.00233963452558538</v>
+        <v>-0.002339567805582712</v>
       </c>
       <c r="G12" t="n">
-        <v>0.009256205620119825</v>
+        <v>0.005734019507055594</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.00593171524526861</v>
+        <v>-0.003712928752764675</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.001594413471776538</v>
+        <v>-0.001420376024815041</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.01368230784839873</v>
+        <v>0.0003766606244495228</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.00737136855085474</v>
+        <v>-0.007160920414436815</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.00737136855085474</v>
+        <v>-0.007160920414436815</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.00737136855085474</v>
+        <v>-0.007160920414436815</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.00737136855085474</v>
+        <v>-0.007160920414436815</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>-0.007144834365793373</v>
+        <v>-0.007469230666769225</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.007412886632515465</v>
+        <v>-0.007030934297237371</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007412886632515465</v>
+        <v>-0.007030934297237371</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.007412886632515465</v>
+        <v>-0.007030934297237371</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.007412886632515465</v>
+        <v>-0.007030934297237371</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.002881919827276792</v>
+        <v>0.02195363876614555</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.01107703397908136</v>
+        <v>0.009587708639508344</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0119144650525786</v>
+        <v>0.0118715176268607</v>
       </c>
       <c r="X12" t="n">
-        <v>0.005028713950003646</v>
+        <v>-0.00871083311534252</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.02536632485465299</v>
+        <v>-0.01301928552529202</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.006839135793565431</v>
+        <v>-0.01741245919249837</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01966554808262192</v>
+        <v>-0.009812400008496</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01966554808262192</v>
+        <v>-0.009812400008496</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.01966554808262192</v>
+        <v>-0.009812400008496</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.01966554808262192</v>
+        <v>-0.009812400008496</v>
       </c>
       <c r="AE12" t="inlineStr"/>
     </row>
@@ -1569,86 +1569,86 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.2329817449992698</v>
+        <v>-0.2262524122820964</v>
       </c>
       <c r="D13" t="n">
         <v>-0.002908193588327743</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01319959195198367</v>
+        <v>0.01940512589620503</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.007860968474438738</v>
+        <v>-0.007861038170441526</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01599382058284482</v>
+        <v>-0.007911782414543525</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.007912716604508664</v>
+        <v>-0.00768122226350325</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.003036122425444896</v>
+        <v>-0.003964562174582486</v>
       </c>
       <c r="J13" t="n">
-        <v>0.003718093262807199</v>
+        <v>0.007709826048703523</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.009618498240739928</v>
+        <v>-0.01093403275736131</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.009618498240739928</v>
+        <v>-0.01093403275736131</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.009618498240739928</v>
+        <v>-0.01093403275736131</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.009618498240739928</v>
+        <v>-0.01093403275736131</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>-0.009527079837083192</v>
+        <v>-0.01191694262067771</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.009392551959702077</v>
+        <v>-0.01057426170297047</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.009392551959702077</v>
+        <v>-0.01057426170297047</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.009392551959702077</v>
+        <v>-0.01057426170297047</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.009392551959702077</v>
+        <v>-0.01057426170297047</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003014892408595696</v>
+        <v>-0.009511098140443923</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.01518431091137244</v>
+        <v>0.01303798832951953</v>
       </c>
       <c r="W13" t="n">
-        <v>0.005943911181756447</v>
+        <v>0.005914614956584598</v>
       </c>
       <c r="X13" t="n">
-        <v>0.02146872619162757</v>
+        <v>0.01230346106891601</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.004958290086331603</v>
+        <v>0.02591628868050092</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.01295650813426032</v>
+        <v>-0.01543893700155748</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.003119120860764834</v>
+        <v>0.02677157953486317</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.003119120860764834</v>
+        <v>0.02677157953486317</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.003119120860764834</v>
+        <v>0.02677157953486317</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.003119120860764834</v>
+        <v>0.02677157953486317</v>
       </c>
       <c r="AE13" t="inlineStr"/>
     </row>
@@ -1664,86 +1664,86 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.003132535037301401</v>
+        <v>0.003209873312394933</v>
       </c>
       <c r="D14" t="n">
         <v>-0.03053229702929188</v>
       </c>
       <c r="E14" t="n">
-        <v>0.005767629734705188</v>
+        <v>0.007088331163533246</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003494376907775076</v>
+        <v>0.003497041195881648</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.03713812868871311</v>
+        <v>0.00862884346296902</v>
       </c>
       <c r="H14" t="n">
-        <v>0.006472409730896389</v>
+        <v>0.009509021273826874</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.02826485796259431</v>
+        <v>-0.02908655309946212</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02723008397905134</v>
+        <v>0.02954009711407512</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0043637200145488</v>
+        <v>0.007205769792230791</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0043637200145488</v>
+        <v>0.007205769792230791</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0043637200145488</v>
+        <v>0.007205769792230791</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0043637200145488</v>
+        <v>0.007205769792230791</v>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>0.003515824556632982</v>
+        <v>0.005719374468774978</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.004674186234967449</v>
+        <v>0.007606191472247659</v>
       </c>
       <c r="R14" t="n">
-        <v>0.004674186234967449</v>
+        <v>0.007606191472247659</v>
       </c>
       <c r="S14" t="n">
-        <v>0.004674186234967449</v>
+        <v>0.007606191472247659</v>
       </c>
       <c r="T14" t="n">
-        <v>0.004674186234967449</v>
+        <v>0.007606191472247659</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01973837858153514</v>
+        <v>0.02392908105316324</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.01128154441926177</v>
+        <v>-0.002715854124634165</v>
       </c>
       <c r="W14" t="n">
-        <v>0.02126755774670231</v>
+        <v>0.02125158181006327</v>
       </c>
       <c r="X14" t="n">
-        <v>0.02618000202072573</v>
+        <v>-0.004641195395967038</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.02312592495703699</v>
+        <v>-0.003514382775706945</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.007519624908784996</v>
+        <v>0.009786633703465348</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.02519572929582917</v>
+        <v>-0.00336074375042975</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.02519572929582917</v>
+        <v>-0.00336074375042975</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.02519572929582917</v>
+        <v>-0.00336074375042975</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.02519572929582917</v>
+        <v>-0.00336074375042975</v>
       </c>
       <c r="AE14" t="inlineStr"/>
     </row>
@@ -1759,86 +1759,86 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.01846154819446193</v>
+        <v>-0.01272781740511269</v>
       </c>
       <c r="D15" t="n">
         <v>0.002746113805844552</v>
       </c>
       <c r="E15" t="n">
-        <v>0.006272589178903566</v>
+        <v>0.003100364476014579</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.006617678952707157</v>
+        <v>-0.006620207880808314</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.009354200019329786</v>
+        <v>0.008154229162704219</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.006233513913340556</v>
+        <v>-0.004702719201966799</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001713073124522925</v>
+        <v>0.002329485405179416</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.008375528229735561</v>
+        <v>-0.01420756535647279</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.005167422830696912</v>
+        <v>-0.003966838046673521</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.005167422830696912</v>
+        <v>-0.003966838046673521</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.005167422830696912</v>
+        <v>-0.003966838046673521</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.005167422830696912</v>
+        <v>-0.003966838046673521</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>-0.005875312843012513</v>
+        <v>-0.004715855324634212</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.005133271789330871</v>
+        <v>-0.003923054460922179</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.005133271789330871</v>
+        <v>-0.003923054460922179</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.005133271789330871</v>
+        <v>-0.003923054460922179</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.005133271789330871</v>
+        <v>-0.003923054460922179</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.04946697951467918</v>
+        <v>-0.04664875376995014</v>
       </c>
       <c r="V15" t="n">
-        <v>0.002217834520713381</v>
+        <v>0.001489720091588804</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.008195136711805467</v>
+        <v>-0.008286053515442138</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01994201690412866</v>
+        <v>-0.01222947276657242</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.003712745044509801</v>
+        <v>-3.461827711935102e-05</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.01494130350965214</v>
+        <v>0.0006139530485581219</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.008841008609640344</v>
+        <v>-0.00291165150846606</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.008841008609640344</v>
+        <v>-0.00291165150846606</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.008841008609640344</v>
+        <v>-0.00291165150846606</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.008841008609640344</v>
+        <v>-0.00291165150846606</v>
       </c>
       <c r="AE15" t="inlineStr"/>
     </row>
@@ -1854,86 +1854,86 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.01566379973055199</v>
+        <v>-0.01719588145583526</v>
       </c>
       <c r="D16" t="n">
         <v>-0.004229653321186132</v>
       </c>
       <c r="E16" t="n">
-        <v>0.002989581335583253</v>
+        <v>0.004140368133614724</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004841014945640597</v>
+        <v>0.004840568833622753</v>
       </c>
       <c r="G16" t="n">
-        <v>0.005318562538709343</v>
+        <v>-0.006175730606227428</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01126465581058623</v>
+        <v>0.01271272051096079</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02241988236879529</v>
+        <v>0.02682629070505163</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01618568296332289</v>
+        <v>0.03590087172786287</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01107745551509822</v>
+        <v>0.01279455295978212</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01107745551509822</v>
+        <v>0.01279455295978212</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01107745551509822</v>
+        <v>0.01279455295978212</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01107745551509822</v>
+        <v>0.01279455295978212</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>0.009159862350394492</v>
+        <v>0.01052213072488523</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01148265290730612</v>
+        <v>0.01323219739328789</v>
       </c>
       <c r="R16" t="n">
-        <v>0.01148265290730612</v>
+        <v>0.01323219739328789</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01148265290730612</v>
+        <v>0.01323219739328789</v>
       </c>
       <c r="T16" t="n">
-        <v>0.01148265290730612</v>
+        <v>0.01323219739328789</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.004695117211804688</v>
+        <v>-0.008372405998896239</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0007866799034671961</v>
+        <v>-7.893993915759755e-05</v>
       </c>
       <c r="W16" t="n">
-        <v>0.02052605918904237</v>
+        <v>0.02039124158364966</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.004404894906209732</v>
+        <v>-0.03304199542099311</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.01146649073065963</v>
+        <v>-0.009216520386939087</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.09316653051066121</v>
+        <v>0.06853769698150787</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.003680252691210107</v>
+        <v>-0.008197578471903139</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.003680252691210107</v>
+        <v>-0.008197578471903139</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.003680252691210107</v>
+        <v>-0.008197578471903139</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.003680252691210107</v>
+        <v>-0.008197578471903139</v>
       </c>
       <c r="AE16" t="inlineStr"/>
     </row>
@@ -1949,86 +1949,86 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.07818572664742905</v>
+        <v>-0.07849303341172133</v>
       </c>
       <c r="D17" t="n">
         <v>0.001087392523495701</v>
       </c>
       <c r="E17" t="n">
-        <v>0.005268286290731451</v>
+        <v>0.006579801095192043</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003101092732043709</v>
+        <v>0.003102832636113305</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01984993381070193</v>
+        <v>-0.01911499817434947</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.002238244985529799</v>
+        <v>-0.003218904104347619</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.006838617201544687</v>
+        <v>-0.007108364828334593</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0009479369204882817</v>
+        <v>-0.01384720711673523</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.004070562882822515</v>
+        <v>-0.005038374345534973</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.004070562882822515</v>
+        <v>-0.005038374345534973</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.004070562882822515</v>
+        <v>-0.005038374345534973</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.004070562882822515</v>
+        <v>-0.005038374345534973</v>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>-0.004513092084523682</v>
+        <v>-0.006190636279625451</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.00416494576659783</v>
+        <v>-0.005154305198172207</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.00416494576659783</v>
+        <v>-0.005154305198172207</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.00416494576659783</v>
+        <v>-0.005154305198172207</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.00416494576659783</v>
+        <v>-0.005154305198172207</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.06631720834868832</v>
+        <v>-0.0309925052077002</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.0008789854431594176</v>
+        <v>0.008482843443313735</v>
       </c>
       <c r="W17" t="n">
-        <v>0.02576230384649215</v>
+        <v>0.02573260922130436</v>
       </c>
       <c r="X17" t="n">
-        <v>0.03061478236307125</v>
+        <v>-0.0009351172140173346</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.03101567077662682</v>
+        <v>-0.01878879373848693</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.01343328149733126</v>
+        <v>0.001486140443445618</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.02506219069848763</v>
+        <v>-0.01703703936948157</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.02506219069848763</v>
+        <v>-0.01703703936948157</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.02506219069848763</v>
+        <v>-0.01703703936948157</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.02506219069848763</v>
+        <v>-0.01703703936948157</v>
       </c>
       <c r="AE17" t="inlineStr"/>
     </row>
@@ -2040,86 +2040,86 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.01148149917925997</v>
+        <v>-0.0005308529492341179</v>
       </c>
       <c r="D18" t="n">
         <v>1.123824044952962e-05</v>
       </c>
       <c r="E18" t="n">
-        <v>0.005417275128691004</v>
+        <v>0.02349971681198867</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001798260359930414</v>
+        <v>0.001799136455965458</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01227897347167663</v>
+        <v>-0.003591608217299711</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.001959461166378447</v>
+        <v>0.005219035631095447</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.003060964346438573</v>
+        <v>-0.00488970125158805</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.006378173312424538</v>
+        <v>0.005498592624134538</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.003975874719034989</v>
+        <v>-0.001212054960482198</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.003975874719034989</v>
+        <v>-0.001212054960482198</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.003975874719034989</v>
+        <v>-0.001212054960482198</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.003975874719034989</v>
+        <v>-0.001212054960482198</v>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>-0.004260753674430146</v>
+        <v>-0.004687244059489762</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.003966471422658857</v>
+        <v>-0.0006408207616328303</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.003966471422658857</v>
+        <v>-0.0006408207616328303</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.003966471422658857</v>
+        <v>-0.0006408207616328303</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.003966471422658857</v>
+        <v>-0.0006408207616328303</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.02129281640371266</v>
+        <v>0.00998343975933759</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.0336747327389893</v>
+        <v>0.04318150060726002</v>
       </c>
       <c r="W18" t="n">
-        <v>0.03200562944022518</v>
+        <v>0.03195348703813948</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.003275577961183862</v>
+        <v>-0.00887142866777154</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.003888308411532336</v>
+        <v>-0.002408135780115133</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.03030914454036578</v>
+        <v>-0.009999012207960487</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.01176460664658426</v>
+        <v>0.003462357834494313</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.01176460664658426</v>
+        <v>0.003462357834494313</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.01176460664658426</v>
+        <v>0.003462357834494313</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.01176460664658426</v>
+        <v>0.003462357834494313</v>
       </c>
       <c r="AE18" t="inlineStr"/>
     </row>
@@ -2135,86 +2135,86 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.03564919323396773</v>
+        <v>-0.03816003570240142</v>
       </c>
       <c r="D19" t="n">
         <v>0.005544996989799878</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01786708468268339</v>
+        <v>0.01219782855191314</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01350054457202178</v>
+        <v>-0.01350151340406053</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.008818374179807607</v>
+        <v>0.003949454963465461</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.00950249654009986</v>
+        <v>-0.01110784516375432</v>
       </c>
       <c r="I19" t="n">
-        <v>0.165044824873793</v>
+        <v>0.1605880886315235</v>
       </c>
       <c r="J19" t="n">
-        <v>0.003945028824500071</v>
+        <v>0.002932994480089735</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.01199488819179553</v>
+        <v>-0.010942924949717</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.01199488819179553</v>
+        <v>-0.010942924949717</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.01199488819179553</v>
+        <v>-0.010942924949717</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.01199488819179553</v>
+        <v>-0.010942924949717</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>-0.01232828948513158</v>
+        <v>-0.01171921938076877</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.01176124050244962</v>
+        <v>-0.01088199451527978</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.01176124050244962</v>
+        <v>-0.01088199451527978</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.01176124050244962</v>
+        <v>-0.01088199451527978</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.01176124050244962</v>
+        <v>-0.01088199451527978</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.01812735490109419</v>
+        <v>-0.01560227044809082</v>
       </c>
       <c r="V19" t="n">
-        <v>0.02051704814868192</v>
+        <v>-0.01096624066264962</v>
       </c>
       <c r="W19" t="n">
-        <v>0.001514493948579758</v>
+        <v>0.001633938113357524</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.003883011858499954</v>
+        <v>0.001692619825475345</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.01145814333832573</v>
+        <v>-0.004025553763298913</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.1144274775050991</v>
+        <v>0.07113598556543942</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.01255132207005288</v>
+        <v>-0.001311592948463718</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01255132207005288</v>
+        <v>-0.001311592948463718</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.01255132207005288</v>
+        <v>-0.001311592948463718</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.01255132207005288</v>
+        <v>-0.001311592948463718</v>
       </c>
       <c r="AE19" t="inlineStr"/>
     </row>
@@ -2230,86 +2230,86 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.009432091289283649</v>
+        <v>-0.008477379891095194</v>
       </c>
       <c r="D20" t="n">
         <v>-0.0007818678072747121</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01185940713037629</v>
+        <v>0.01568102827524113</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1091652696466108</v>
+        <v>0.109164475534579</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01000600563173329</v>
+        <v>-0.005025201464708655</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1051093200763728</v>
+        <v>0.1001531412003694</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01440125184005007</v>
+        <v>0.01390786145231446</v>
       </c>
       <c r="J20" t="n">
-        <v>0.03016909031258218</v>
+        <v>0.02737560057154723</v>
       </c>
       <c r="K20" t="n">
-        <v>0.07460192784807711</v>
+        <v>0.07101932876077313</v>
       </c>
       <c r="L20" t="n">
-        <v>0.07460192784807711</v>
+        <v>0.07101932876077313</v>
       </c>
       <c r="M20" t="n">
-        <v>0.07460192784807711</v>
+        <v>0.07101932876077313</v>
       </c>
       <c r="N20" t="n">
-        <v>0.07460192784807711</v>
+        <v>0.07101932876077313</v>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>0.0669875301995012</v>
+        <v>0.06372260213290408</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.07676270457450818</v>
+        <v>0.07315207041408281</v>
       </c>
       <c r="R20" t="n">
-        <v>0.07676270457450818</v>
+        <v>0.07315207041408281</v>
       </c>
       <c r="S20" t="n">
-        <v>0.07676270457450818</v>
+        <v>0.07315207041408281</v>
       </c>
       <c r="T20" t="n">
-        <v>0.07676270457450818</v>
+        <v>0.07315207041408281</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02161883904075356</v>
+        <v>0.03264513144980525</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.006481193923247756</v>
+        <v>0.01324404417776177</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2859420223816809</v>
+        <v>0.2859784460311378</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.02097764444295659</v>
+        <v>-0.01579847953078341</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.03355112092604483</v>
+        <v>-0.01789534440636363</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.006780598927223956</v>
+        <v>-0.04483612652944505</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.05752630166105206</v>
+        <v>-0.004415326448613058</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.05752630166105206</v>
+        <v>-0.004415326448613058</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.05752630166105206</v>
+        <v>-0.004415326448613058</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.05752630166105206</v>
+        <v>-0.004415326448613058</v>
       </c>
       <c r="AE20" t="inlineStr"/>
     </row>
@@ -2321,86 +2321,86 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.01758923647956945</v>
+        <v>-0.01602408342496334</v>
       </c>
       <c r="D21" t="n">
         <v>0.002703635724145429</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01809299073971963</v>
+        <v>0.01566725601869024</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04144546994581879</v>
+        <v>0.04144419986576799</v>
       </c>
       <c r="G21" t="n">
-        <v>0.007624634828984744</v>
+        <v>-0.00595740522630821</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03637917150316685</v>
+        <v>0.02958435130894893</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04607908312316332</v>
+        <v>0.04374400744576029</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0816009672293405</v>
+        <v>0.04772442458022107</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02168064029122561</v>
+        <v>0.01608342160333686</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02168064029122561</v>
+        <v>0.01608342160333686</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02168064029122561</v>
+        <v>0.01608342160333686</v>
       </c>
       <c r="N21" t="n">
-        <v>0.02168064029122561</v>
+        <v>0.01608342160333686</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>0.01765159923406397</v>
+        <v>0.01325875608235024</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.02253372723734908</v>
+        <v>0.01665762844230514</v>
       </c>
       <c r="R21" t="n">
-        <v>0.02253372723734908</v>
+        <v>0.01665762844230514</v>
       </c>
       <c r="S21" t="n">
-        <v>0.02253372723734908</v>
+        <v>0.01665762844230514</v>
       </c>
       <c r="T21" t="n">
-        <v>0.02253372723734908</v>
+        <v>0.01665762844230514</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.001956892302275692</v>
+        <v>0.001010172520406901</v>
       </c>
       <c r="V21" t="n">
-        <v>0.004063898082555923</v>
+        <v>0.007427232585089302</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1401599545343981</v>
+        <v>0.1401523891580956</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.005236718264090562</v>
+        <v>-0.01641901891818418</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.02875654953426198</v>
+        <v>0.0144061144983763</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.009606941184277646</v>
+        <v>0.01069055706762228</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.03506047541841901</v>
+        <v>0.01847091923483677</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.03506047541841901</v>
+        <v>0.01847091923483677</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.03506047541841901</v>
+        <v>0.01847091923483677</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.03506047541841901</v>
+        <v>0.01847091923483677</v>
       </c>
       <c r="AE21" t="inlineStr"/>
     </row>
@@ -2412,86 +2412,86 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.02198650398346016</v>
+        <v>-0.01993923410956936</v>
       </c>
       <c r="D22" t="n">
         <v>-0.007685123731404949</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.004735556829422272</v>
+        <v>-0.003441323081652923</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1438543581061743</v>
+        <v>0.1438549535941981</v>
       </c>
       <c r="G22" t="n">
-        <v>0.001064563557775172</v>
+        <v>0.0167176138520213</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1314234722649389</v>
+        <v>0.1211540572551233</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.00762287454491498</v>
+        <v>-0.007551379118055164</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.003385265664591467</v>
+        <v>-0.006863920523761137</v>
       </c>
       <c r="K22" t="n">
-        <v>0.09480314654412585</v>
+        <v>0.0884089625123585</v>
       </c>
       <c r="L22" t="n">
-        <v>0.09480314654412585</v>
+        <v>0.0884089625123585</v>
       </c>
       <c r="M22" t="n">
-        <v>0.09480314654412585</v>
+        <v>0.0884089625123585</v>
       </c>
       <c r="N22" t="n">
-        <v>0.09480314654412585</v>
+        <v>0.0884089625123585</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>0.08789913135596523</v>
+        <v>0.08225050082602002</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.09690913530036539</v>
+        <v>0.09009147489965899</v>
       </c>
       <c r="R22" t="n">
-        <v>0.09690913530036539</v>
+        <v>0.09009147489965899</v>
       </c>
       <c r="S22" t="n">
-        <v>0.09690913530036539</v>
+        <v>0.09009147489965899</v>
       </c>
       <c r="T22" t="n">
-        <v>0.09690913530036539</v>
+        <v>0.09009147489965899</v>
       </c>
       <c r="U22" t="n">
-        <v>0.008192621415704855</v>
+        <v>0.01889608347584333</v>
       </c>
       <c r="V22" t="n">
-        <v>0.002777030703081228</v>
+        <v>-0.002016837488673499</v>
       </c>
       <c r="W22" t="n">
-        <v>0.3137275233331009</v>
+        <v>0.3137234641649385</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.001524018522753937</v>
+        <v>-0.03804466203229784</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.06013399238935968</v>
+        <v>-0.006074608546313146</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.0330789953071598</v>
+        <v>-0.008276894443075776</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.07469718058788723</v>
+        <v>0.006894744083789763</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.07469718058788723</v>
+        <v>0.006894744083789763</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.07469718058788723</v>
+        <v>0.006894744083789763</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.07469718058788723</v>
+        <v>0.006894744083789763</v>
       </c>
       <c r="AE22" t="inlineStr"/>
     </row>
@@ -2503,86 +2503,86 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.01162375419295017</v>
+        <v>-0.009748620677944825</v>
       </c>
       <c r="D23" t="n">
         <v>-0.001372140150885606</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.008548805333952213</v>
+        <v>-0.01229206282768251</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02327396867495874</v>
+        <v>0.02327487107499484</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.005855364231867829</v>
+        <v>-0.0006202811932935215</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02184676676187067</v>
+        <v>0.01908689981020742</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01294157091766284</v>
+        <v>0.01217007792680311</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01143094426423849</v>
+        <v>0.004508938180914347</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01863091082523643</v>
+        <v>0.01701810221672409</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01863091082523643</v>
+        <v>0.01701810221672409</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01863091082523643</v>
+        <v>0.01701810221672409</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01863091082523643</v>
+        <v>0.01701810221672409</v>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>0.01731123198844927</v>
+        <v>0.01629405540376221</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01883073848122954</v>
+        <v>0.0171426549257062</v>
       </c>
       <c r="R23" t="n">
-        <v>0.01883073848122954</v>
+        <v>0.0171426549257062</v>
       </c>
       <c r="S23" t="n">
-        <v>0.01883073848122954</v>
+        <v>0.0171426549257062</v>
       </c>
       <c r="T23" t="n">
-        <v>0.01883073848122954</v>
+        <v>0.0171426549257062</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.01275287119811484</v>
+        <v>-0.01795933223837329</v>
       </c>
       <c r="V23" t="n">
-        <v>0.00802813577712543</v>
+        <v>-0.009339386677575464</v>
       </c>
       <c r="W23" t="n">
-        <v>0.03390136714805468</v>
+        <v>0.03383564986542599</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.01790014276841993</v>
+        <v>0.003241106876214502</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.0128772474590899</v>
+        <v>0.002741386485396249</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.03291930784477231</v>
+        <v>0.01313290420531617</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.006679309035172361</v>
+        <v>0.003201037664041506</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.006679309035172361</v>
+        <v>0.003201037664041506</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.006679309035172361</v>
+        <v>0.003201037664041506</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.006679309035172361</v>
+        <v>0.003201037664041506</v>
       </c>
       <c r="AE23" t="inlineStr"/>
     </row>
@@ -2598,86 +2598,86 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.02217499048699962</v>
+        <v>-0.02176439232657569</v>
       </c>
       <c r="D24" t="n">
         <v>0.01651558885262355</v>
       </c>
       <c r="E24" t="n">
-        <v>0.006790529935621196</v>
+        <v>0.009482441947297676</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1287280947491238</v>
+        <v>0.1287285824291433</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.01901674560728818</v>
+        <v>-0.004245362337642051</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1228617883384715</v>
+        <v>0.1163244278503328</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04583252554530102</v>
+        <v>0.04586807559472302</v>
       </c>
       <c r="J24" t="n">
-        <v>0.09178855904047294</v>
+        <v>0.0727760855622772</v>
       </c>
       <c r="K24" t="n">
-        <v>0.09002097912083915</v>
+        <v>0.08576088563843542</v>
       </c>
       <c r="L24" t="n">
-        <v>0.09002097912083915</v>
+        <v>0.08576088563843542</v>
       </c>
       <c r="M24" t="n">
-        <v>0.09002097912083915</v>
+        <v>0.08576088563843542</v>
       </c>
       <c r="N24" t="n">
-        <v>0.09002097912083915</v>
+        <v>0.08576088563843542</v>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.08176349981453999</v>
+        <v>0.07791975143679006</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.09237381441495256</v>
+        <v>0.0879844952313798</v>
       </c>
       <c r="R24" t="n">
-        <v>0.09237381441495256</v>
+        <v>0.0879844952313798</v>
       </c>
       <c r="S24" t="n">
-        <v>0.09237381441495256</v>
+        <v>0.0879844952313798</v>
       </c>
       <c r="T24" t="n">
-        <v>0.09237381441495256</v>
+        <v>0.0879844952313798</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03140812368832494</v>
+        <v>0.03799372155174885</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.01135575463023018</v>
+        <v>0.009757591398303653</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.4948363780014551</v>
+        <v>-0.4948421653616866</v>
       </c>
       <c r="X24" t="n">
-        <v>0.01966311201353663</v>
+        <v>-0.03190884705959405</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.1519001811160072</v>
+        <v>-0.0784482462569271</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.06607969877118794</v>
+        <v>-0.06215772632630904</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.06518275729531028</v>
+        <v>-0.05036619820664792</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.06518275729531028</v>
+        <v>-0.05036619820664792</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.06518275729531028</v>
+        <v>-0.05036619820664792</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.06518275729531028</v>
+        <v>-0.05036619820664792</v>
       </c>
       <c r="AE24" t="inlineStr"/>
     </row>
@@ -2689,86 +2689,86 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.008398969775958789</v>
+        <v>-0.006653072042122881</v>
       </c>
       <c r="D25" t="n">
         <v>-0.02022354388094175</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01683269635330785</v>
+        <v>0.02220650056826002</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2767957230078289</v>
+        <v>0.2767945667837826</v>
       </c>
       <c r="G25" t="n">
-        <v>0.007592102987824392</v>
+        <v>-0.02448358103709621</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2476768854910754</v>
+        <v>0.2254370646083813</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0409560551102422</v>
+        <v>0.03815548779821951</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1200954221215157</v>
+        <v>0.05383440455905612</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1763922491036899</v>
+        <v>0.1602731328749253</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1763922491036899</v>
+        <v>0.1602731328749253</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1763922491036899</v>
+        <v>0.1602731328749253</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1763922491036899</v>
+        <v>0.1602731328749253</v>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>0.1602468955938758</v>
+        <v>0.1458713126188525</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1809486100219444</v>
+        <v>0.1640912552036502</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1809486100219444</v>
+        <v>0.1640912552036502</v>
       </c>
       <c r="S25" t="n">
-        <v>0.1809486100219444</v>
+        <v>0.1640912552036502</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1809486100219444</v>
+        <v>0.1640912552036502</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01407831800313272</v>
+        <v>0.02111150638046025</v>
       </c>
       <c r="V25" t="n">
-        <v>-0.01957830692713227</v>
+        <v>0.01324732526589301</v>
       </c>
       <c r="W25" t="n">
-        <v>0.7177964202318567</v>
+        <v>0.7177960413198415</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.03135424214271309</v>
+        <v>-0.05787379410602142</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.0984884906915396</v>
+        <v>0.01257377581141004</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.04295658824626353</v>
+        <v>0.01365261433810457</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.1427568688782747</v>
+        <v>0.04240261302410452</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.1427568688782747</v>
+        <v>0.04240261302410452</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1427568688782747</v>
+        <v>0.04240261302410452</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.1427568688782747</v>
+        <v>0.04240261302410452</v>
       </c>
       <c r="AE25" t="inlineStr"/>
     </row>
@@ -2784,86 +2784,86 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.1791128235485129</v>
+        <v>0.2075284036291361</v>
       </c>
       <c r="D26" t="n">
         <v>-0.01490230658009226</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01913056319722253</v>
+        <v>0.02248856806754272</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.02472371292494852</v>
+        <v>-0.02472246962889878</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.03019404595620929</v>
+        <v>-0.01039632432173874</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.2387568593742743</v>
+        <v>-0.2986039467289345</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2854049628401985</v>
+        <v>-0.2923900923676037</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.6528454951163367</v>
+        <v>-0.6498322837554754</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.239718851220754</v>
+        <v>-0.3080528437781138</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.239718851220754</v>
+        <v>-0.3080528437781138</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.239718851220754</v>
+        <v>-0.3080528437781138</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.239718851220754</v>
+        <v>-0.3080528437781138</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>-0.2153415899256636</v>
+        <v>-0.2749581844383273</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.2480675714267028</v>
+        <v>-0.3179248886849955</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.2480675714267028</v>
+        <v>-0.3179248886849955</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.2480675714267028</v>
+        <v>-0.3179248886849955</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.2480675714267028</v>
+        <v>-0.3179248886849955</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.2219455234058209</v>
+        <v>-0.1057661379906455</v>
       </c>
       <c r="V26" t="n">
-        <v>0.01439752243190089</v>
+        <v>0.01619673069586923</v>
       </c>
       <c r="W26" t="n">
-        <v>0.02402745782509831</v>
+        <v>0.0239714474868579</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.00655908756035084</v>
+        <v>0.04558262130156296</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.3639756967350278</v>
+        <v>0.131137667520639</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.3267273542530941</v>
+        <v>0.2047848648313945</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.3028200731688029</v>
+        <v>0.1537191224687649</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.3028200731688029</v>
+        <v>0.1537191224687649</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.3028200731688029</v>
+        <v>0.1537191224687649</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.3028200731688029</v>
+        <v>0.1537191224687649</v>
       </c>
       <c r="AE26" t="inlineStr"/>
     </row>
@@ -2875,86 +2875,86 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.02545740322629612</v>
+        <v>0.02392108434884337</v>
       </c>
       <c r="D27" t="n">
         <v>0.01960177316807092</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.01173824629352985</v>
+        <v>-0.01357917875116715</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01956340321453613</v>
+        <v>0.01956149915045996</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02273596511169864</v>
+        <v>-0.02367338934231262</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02273469921338797</v>
+        <v>0.02266081650159051</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.04075725167829006</v>
+        <v>-0.04021057946442318</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01162513369653271</v>
+        <v>0.01476746301292464</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02093326950933078</v>
+        <v>0.02111817098872684</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02093326950933078</v>
+        <v>0.02111817098872684</v>
       </c>
       <c r="M27" t="n">
-        <v>0.02093326950933078</v>
+        <v>0.02111817098872684</v>
       </c>
       <c r="N27" t="n">
-        <v>0.02093326950933078</v>
+        <v>0.02111817098872684</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>0.02046434779457391</v>
+        <v>0.02120520123220804</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.02119890286395611</v>
+        <v>0.02136142914245716</v>
       </c>
       <c r="R27" t="n">
-        <v>0.02119890286395611</v>
+        <v>0.02136142914245716</v>
       </c>
       <c r="S27" t="n">
-        <v>0.02119890286395611</v>
+        <v>0.02136142914245716</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02119890286395611</v>
+        <v>0.02136142914245716</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.006831102417244096</v>
+        <v>-0.01699470519178821</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.0005739669349586773</v>
+        <v>-0.009719331076773242</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.00326750576270023</v>
+        <v>-0.003285680771427231</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.02228008387126658</v>
+        <v>0.03201458202269743</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.007693835827753431</v>
+        <v>-0.005247660248024028</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.09125821123432844</v>
+        <v>0.07077733175909326</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.001723331300933252</v>
+        <v>-0.00377126952685078</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.001723331300933252</v>
+        <v>-0.00377126952685078</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.001723331300933252</v>
+        <v>-0.00377126952685078</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.001723331300933252</v>
+        <v>-0.00377126952685078</v>
       </c>
       <c r="AE27" t="inlineStr"/>
     </row>
@@ -2970,86 +2970,86 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.0118593551943742</v>
+        <v>-0.007772136118885444</v>
       </c>
       <c r="D28" t="n">
         <v>0.01176916271076651</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.06006970425878816</v>
+        <v>-0.04812063187682526</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03263010399320416</v>
+        <v>0.0326300451452018</v>
       </c>
       <c r="G28" t="n">
-        <v>0.001362332620480502</v>
+        <v>0.02575514991381168</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00397652377506095</v>
+        <v>0.01144186177835207</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02437551812702072</v>
+        <v>0.02372972888518915</v>
       </c>
       <c r="J28" t="n">
-        <v>0.005519641195754914</v>
+        <v>-0.001195179412195875</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01428242044329681</v>
+        <v>0.01870046599601864</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01428242044329681</v>
+        <v>0.01870046599601864</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01428242044329681</v>
+        <v>0.01870046599601864</v>
       </c>
       <c r="N28" t="n">
-        <v>0.01428242044329681</v>
+        <v>0.01870046599601864</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>0.02097337178293487</v>
+        <v>0.02320185443207417</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01275271548610862</v>
+        <v>0.01757035212681408</v>
       </c>
       <c r="R28" t="n">
-        <v>0.01275271548610862</v>
+        <v>0.01757035212681408</v>
       </c>
       <c r="S28" t="n">
-        <v>0.01275271548610862</v>
+        <v>0.01757035212681408</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01275271548610862</v>
+        <v>0.01757035212681408</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.04636957212678288</v>
+        <v>-0.02508700785148031</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.2806375019455</v>
+        <v>-0.09119297068771881</v>
       </c>
       <c r="W28" t="n">
-        <v>0.04827231236289249</v>
+        <v>0.04818086544723461</v>
       </c>
       <c r="X28" t="n">
-        <v>-0.005066999604017067</v>
+        <v>-0.01953259295246093</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.04254782387791295</v>
+        <v>-0.00727294000352241</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.01723308299332332</v>
+        <v>0.00612182578087303</v>
       </c>
       <c r="AA28" t="n">
-        <v>-0.0453037024201481</v>
+        <v>-0.008731311997252479</v>
       </c>
       <c r="AB28" t="n">
-        <v>-0.0453037024201481</v>
+        <v>-0.008731311997252479</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.0453037024201481</v>
+        <v>-0.008731311997252479</v>
       </c>
       <c r="AD28" t="n">
-        <v>-0.0453037024201481</v>
+        <v>-0.008731311997252479</v>
       </c>
       <c r="AE28" t="inlineStr"/>
     </row>
@@ -3065,86 +3065,86 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.01165133365005335</v>
+        <v>-0.009915452172618085</v>
       </c>
       <c r="D29" t="n">
         <v>-0.01346903641076145</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.02570641974825679</v>
+        <v>-0.02524009550560382</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02539382885575315</v>
+        <v>0.02539445967177838</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01949655490812378</v>
+        <v>-0.001755685210226998</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01824659400986376</v>
+        <v>0.016277274608365</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.02339852167194087</v>
+        <v>-0.02346738084269523</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.01712010313123384</v>
+        <v>-0.006508440668236621</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01793600154944006</v>
+        <v>0.0157974101358964</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01793600154944006</v>
+        <v>0.0157974101358964</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01793600154944006</v>
+        <v>0.0157974101358964</v>
       </c>
       <c r="N29" t="n">
-        <v>0.01793600154944006</v>
+        <v>0.0157974101358964</v>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>0.02044163822566553</v>
+        <v>0.01876663035066521</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01773308634132345</v>
+        <v>0.01563690628947625</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01773308634132345</v>
+        <v>0.01563690628947625</v>
       </c>
       <c r="S29" t="n">
-        <v>0.01773308634132345</v>
+        <v>0.01563690628947625</v>
       </c>
       <c r="T29" t="n">
-        <v>0.01773308634132345</v>
+        <v>0.01563690628947625</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.04187401444296057</v>
+        <v>-0.02711093801243752</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.07657974632718983</v>
+        <v>-0.03498739973549598</v>
       </c>
       <c r="W29" t="n">
-        <v>0.03880943464037738</v>
+        <v>0.03889235598769424</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.002180340873995988</v>
+        <v>-0.009665656205390038</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.007196987903879515</v>
+        <v>0.003271834659838928</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.01161849032073961</v>
+        <v>0.01903065071322603</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.007032758105310323</v>
+        <v>0.002461905890476235</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.007032758105310323</v>
+        <v>0.002461905890476235</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.007032758105310323</v>
+        <v>0.002461905890476235</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.007032758105310323</v>
+        <v>0.002461905890476235</v>
       </c>
       <c r="AE29" t="inlineStr"/>
     </row>
@@ -3160,86 +3160,86 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.01621863626474545</v>
+        <v>-0.02157989865519594</v>
       </c>
       <c r="D30" t="n">
         <v>-0.02053317413332696</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.004801578528063141</v>
+        <v>-0.01407686917107476</v>
       </c>
       <c r="F30" t="n">
-        <v>0.008285351083414041</v>
+        <v>0.00828530231541209</v>
       </c>
       <c r="G30" t="n">
-        <v>9.928693538498253e-05</v>
+        <v>-0.003161036757164427</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01006870792274831</v>
+        <v>0.006012371734774978</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.02186607303464292</v>
+        <v>-0.02109652212386088</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.01803691651439277</v>
+        <v>-0.0007714878576924178</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01093421054936842</v>
+        <v>0.008431250833250033</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01093421054936842</v>
+        <v>0.008431250833250033</v>
       </c>
       <c r="M30" t="n">
-        <v>0.01093421054936842</v>
+        <v>0.008431250833250033</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01093421054936842</v>
+        <v>0.008431250833250033</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>0.01010809394032376</v>
+        <v>0.009518746748749869</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01112683071707323</v>
+        <v>0.00828108551524342</v>
       </c>
       <c r="R30" t="n">
-        <v>0.01112683071707323</v>
+        <v>0.00828108551524342</v>
       </c>
       <c r="S30" t="n">
-        <v>0.01112683071707323</v>
+        <v>0.00828108551524342</v>
       </c>
       <c r="T30" t="n">
-        <v>0.01112683071707323</v>
+        <v>0.00828108551524342</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006372091838883672</v>
+        <v>-0.007941150653646025</v>
       </c>
       <c r="V30" t="n">
-        <v>0.06200946180837846</v>
+        <v>-0.001834254217370169</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0003856151194246047</v>
+        <v>0.0004344158573766342</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.01705359387230663</v>
+        <v>-0.005026571796973453</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.01988489618739584</v>
+        <v>0.01007344636966131</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.0003395139975805599</v>
+        <v>0.008036160609446423</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.01290964870838594</v>
+        <v>0.007029107705164307</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.01290964870838594</v>
+        <v>0.007029107705164307</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.01290964870838594</v>
+        <v>0.007029107705164307</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.01290964870838594</v>
+        <v>0.007029107705164307</v>
       </c>
       <c r="AE30" t="inlineStr"/>
     </row>
@@ -3255,86 +3255,86 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.0009188399407535975</v>
+        <v>0.0005417201496688059</v>
       </c>
       <c r="D31" t="n">
         <v>-0.002391382367655294</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.001223010480920419</v>
+        <v>0.00116070849442834</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.004086688387467535</v>
+        <v>-0.004086284611451384</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.01958825558477172</v>
+        <v>0.006032650081708801</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.003690020499600819</v>
+        <v>-0.004649027542618529</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01270018380400735</v>
+        <v>0.01285679081827163</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.005945451373942119</v>
+        <v>-0.03106268377256952</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.00305786777031471</v>
+        <v>-0.005036949801477991</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.00305786777031471</v>
+        <v>-0.005036949801477991</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.00305786777031471</v>
+        <v>-0.005036949801477991</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.00305786777031471</v>
+        <v>-0.005036949801477991</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>-0.001847887561915502</v>
+        <v>-0.004163790982551639</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.003056189786247591</v>
+        <v>-0.004933066757322669</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.003056189786247591</v>
+        <v>-0.004933066757322669</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.003056189786247591</v>
+        <v>-0.004933066757322669</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.003056189786247591</v>
+        <v>-0.004933066757322669</v>
       </c>
       <c r="U31" t="n">
-        <v>0.002532450629298025</v>
+        <v>-0.03040450278418011</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.0008866014114640563</v>
+        <v>0.0003087089403483575</v>
       </c>
       <c r="W31" t="n">
-        <v>0.001552489886099595</v>
+        <v>0.001475352539014101</v>
       </c>
       <c r="X31" t="n">
-        <v>0.005959213525150725</v>
+        <v>-0.006919778252281826</v>
       </c>
       <c r="Y31" t="n">
-        <v>-0.01576226991049079</v>
+        <v>0.03668746099334194</v>
       </c>
       <c r="Z31" t="n">
-        <v>-0.006049129201965167</v>
+        <v>0.01531861482074459</v>
       </c>
       <c r="AA31" t="n">
-        <v>-0.01117561388702455</v>
+        <v>0.03429712178788487</v>
       </c>
       <c r="AB31" t="n">
-        <v>-0.01117561388702455</v>
+        <v>0.03429712178788487</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.01117561388702455</v>
+        <v>0.03429712178788487</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.01117561388702455</v>
+        <v>0.03429712178788487</v>
       </c>
       <c r="AE31" t="inlineStr"/>
     </row>
@@ -3350,86 +3350,86 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4842944538997782</v>
+        <v>0.4672434662097386</v>
       </c>
       <c r="D32" t="n">
         <v>-0.001273986386959456</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9873117757804709</v>
+        <v>0.9435281861891274</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.9158583885703354</v>
+        <v>-0.9158585582983422</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.03017044502999384</v>
+        <v>0.013232499286858</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.8919204503648178</v>
+        <v>-0.8747433167897601</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.06797797337511892</v>
+        <v>-0.06908949578757981</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4195070653099857</v>
+        <v>0.3636663377700363</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.9271352843814111</v>
+        <v>-0.9086905160276205</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.9271352843814111</v>
+        <v>-0.9086905160276205</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.9271352843814111</v>
+        <v>-0.9086905160276205</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.9271352843814111</v>
+        <v>-0.9086905160276205</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>-0.9408016487040658</v>
+        <v>-0.9282090640083624</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.9225513120380523</v>
+        <v>-0.902608950248358</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.9225513120380523</v>
+        <v>-0.902608950248358</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.9225513120380523</v>
+        <v>-0.902608950248358</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.9225513120380523</v>
+        <v>-0.902608950248358</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.0666445851617834</v>
+        <v>-0.01909191877967675</v>
       </c>
       <c r="V32" t="n">
-        <v>0.004893011907720476</v>
+        <v>0.02310492351619694</v>
       </c>
       <c r="W32" t="n">
-        <v>0.02051159381246375</v>
+        <v>0.0203155399166216</v>
       </c>
       <c r="X32" t="n">
-        <v>0.03852056641057625</v>
+        <v>0.0899849698396393</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.1116283157291326</v>
+        <v>0.1149324712362145</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.03681453440058138</v>
+        <v>0.008666874298674972</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.5056179405767176</v>
+        <v>0.2785130746605229</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.5056179405767176</v>
+        <v>0.2785130746605229</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.5056179405767176</v>
+        <v>0.2785130746605229</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.5056179405767176</v>
+        <v>0.2785130746605229</v>
       </c>
       <c r="AE32" t="inlineStr"/>
     </row>
@@ -3445,86 +3445,86 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.03375112531804501</v>
+        <v>0.03518392892735715</v>
       </c>
       <c r="D33" t="n">
         <v>-0.003106481884259275</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05353209314928372</v>
+        <v>0.05637792619111705</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.05868764337150573</v>
+        <v>-0.05869031284361251</v>
       </c>
       <c r="G33" t="n">
-        <v>0.006934342280674567</v>
+        <v>0.01996462969819824</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.05454850691794027</v>
+        <v>-0.04965068009416847</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.0214526227141049</v>
+        <v>-0.01870181930807277</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1066015263771644</v>
+        <v>0.1202688421643809</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.05426267161050686</v>
+        <v>-0.05175429346217172</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.05426267161050686</v>
+        <v>-0.05175429346217172</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.05426267161050686</v>
+        <v>-0.05175429346217172</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.05426267161050686</v>
+        <v>-0.05175429346217172</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>-0.05444622630584904</v>
+        <v>-0.05365282985811319</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.05406899400275976</v>
+        <v>-0.05119009635160385</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.05406899400275976</v>
+        <v>-0.05119009635160385</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.05406899400275976</v>
+        <v>-0.05119009635160385</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.05406899400275976</v>
+        <v>-0.05119009635160385</v>
       </c>
       <c r="U33" t="n">
-        <v>0.005149999981999998</v>
+        <v>-0.008603385176135405</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.02557525494301019</v>
+        <v>0.02097921808716872</v>
       </c>
       <c r="W33" t="n">
-        <v>-0.02615480927019237</v>
+        <v>-0.02627357855494314</v>
       </c>
       <c r="X33" t="n">
-        <v>0.02914287494871666</v>
+        <v>0.02721591203098041</v>
       </c>
       <c r="Y33" t="n">
-        <v>-0.01167724721908989</v>
+        <v>0.02374878303197017</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.00548231100329244</v>
+        <v>0.01724430568177222</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.01163833035353321</v>
+        <v>0.03310245866809834</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.01163833035353321</v>
+        <v>0.03310245866809834</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.01163833035353321</v>
+        <v>0.03310245866809834</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.01163833035353321</v>
+        <v>0.03310245866809834</v>
       </c>
       <c r="AE33" t="inlineStr"/>
     </row>
@@ -3540,86 +3540,86 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.0009247645809905831</v>
+        <v>0.0007097033563881342</v>
       </c>
       <c r="D34" t="n">
         <v>0.002479635075185403</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002002802672112107</v>
+        <v>0.001747389093895564</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.001321499092859963</v>
+        <v>-0.00132169925286797</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0114169395224465</v>
+        <v>-0.006998691655601238</v>
       </c>
       <c r="H34" t="n">
-        <v>4.321651372866054e-05</v>
+        <v>-0.0009884739049238591</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01408465419538616</v>
+        <v>0.01429063170762527</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.03118064283578761</v>
+        <v>-0.02461118440281965</v>
       </c>
       <c r="K34" t="n">
-        <v>0.001738834245553369</v>
+        <v>-0.0006037517041500681</v>
       </c>
       <c r="L34" t="n">
-        <v>0.001738834245553369</v>
+        <v>-0.0006037517041500681</v>
       </c>
       <c r="M34" t="n">
-        <v>0.001738834245553369</v>
+        <v>-0.0006037517041500681</v>
       </c>
       <c r="N34" t="n">
-        <v>0.001738834245553369</v>
+        <v>-0.0006037517041500681</v>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>0.001147395597895824</v>
+        <v>-0.0007962752958510117</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.00188861575554463</v>
+        <v>-0.0003604735824189432</v>
       </c>
       <c r="R34" t="n">
-        <v>0.00188861575554463</v>
+        <v>-0.0003604735824189432</v>
       </c>
       <c r="S34" t="n">
-        <v>0.00188861575554463</v>
+        <v>-0.0003604735824189432</v>
       </c>
       <c r="T34" t="n">
-        <v>0.00188861575554463</v>
+        <v>-0.0003604735824189432</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.01033599804543992</v>
+        <v>-0.01539404231176169</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.01057749901509996</v>
+        <v>0.0009930245197209806</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.001261884722475389</v>
+        <v>-0.001416145688645827</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.01661065547696289</v>
+        <v>0.02969661995960157</v>
       </c>
       <c r="Y34" t="n">
-        <v>-0.0008968813798752551</v>
+        <v>0.01722126585868089</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.01851297914051916</v>
+        <v>0.02143930300157212</v>
       </c>
       <c r="AA34" t="n">
-        <v>-0.001729689381187575</v>
+        <v>0.01639665137586606</v>
       </c>
       <c r="AB34" t="n">
-        <v>-0.001729689381187575</v>
+        <v>0.01639665137586606</v>
       </c>
       <c r="AC34" t="n">
-        <v>-0.001729689381187575</v>
+        <v>0.01639665137586606</v>
       </c>
       <c r="AD34" t="n">
-        <v>-0.001729689381187575</v>
+        <v>0.01639665137586606</v>
       </c>
       <c r="AE34" t="inlineStr"/>
     </row>
@@ -3635,86 +3635,86 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.03363370838534833</v>
+        <v>-0.02772553090102124</v>
       </c>
       <c r="D35" t="n">
         <v>0.007347835109913403</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.03095121215004848</v>
+        <v>-0.01962457268898291</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01786464973858599</v>
+        <v>0.01786503114660124</v>
       </c>
       <c r="G35" t="n">
-        <v>0.006036595745901797</v>
+        <v>-0.01280319937645925</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01719084385563375</v>
+        <v>0.02184173520846947</v>
       </c>
       <c r="I35" t="n">
-        <v>0.008064809794592389</v>
+        <v>0.00813603430944137</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.01099128469345975</v>
+        <v>-0.008328344811715474</v>
       </c>
       <c r="K35" t="n">
-        <v>0.05350983382039335</v>
+        <v>0.05496060901442435</v>
       </c>
       <c r="L35" t="n">
-        <v>0.05350983382039335</v>
+        <v>0.05496060901442435</v>
       </c>
       <c r="M35" t="n">
-        <v>0.05350983382039335</v>
+        <v>0.05496060901442435</v>
       </c>
       <c r="N35" t="n">
-        <v>0.05350983382039335</v>
+        <v>0.05496060901442435</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>0.04959435452777418</v>
+        <v>0.05018686098347443</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.05430253762810149</v>
+        <v>0.05594087311763492</v>
       </c>
       <c r="R35" t="n">
-        <v>0.05430253762810149</v>
+        <v>0.05594087311763492</v>
       </c>
       <c r="S35" t="n">
-        <v>0.05430253762810149</v>
+        <v>0.05594087311763492</v>
       </c>
       <c r="T35" t="n">
-        <v>0.05430253762810149</v>
+        <v>0.05594087311763492</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.003776468983058759</v>
+        <v>0.01678416201536648</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.02229370476374819</v>
+        <v>0.01665730319429212</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.02884743907389756</v>
+        <v>-0.02879706067188242</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.01243528698543266</v>
+        <v>0.01313616681275606</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.02677098817483952</v>
+        <v>-0.02509318364678014</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.02776592808663712</v>
+        <v>0.004137416421496656</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.04039010676760426</v>
+        <v>-0.03401038446441538</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.04039010676760426</v>
+        <v>-0.03401038446441538</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.04039010676760426</v>
+        <v>-0.03401038446441538</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.04039010676760426</v>
+        <v>-0.03401038446441538</v>
       </c>
       <c r="AE35" t="inlineStr"/>
     </row>
@@ -3730,86 +3730,86 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.01106139634645585</v>
+        <v>-0.009858664138346565</v>
       </c>
       <c r="D36" t="n">
         <v>-0.005466936218677448</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01565639889825595</v>
+        <v>0.01508586338743453</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.01583263532130541</v>
+        <v>-0.01583363324134533</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.715098758850323e-05</v>
+        <v>0.01886857189649572</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.01112805894112236</v>
+        <v>-0.01146270789475811</v>
       </c>
       <c r="I36" t="n">
-        <v>0.002162695190507808</v>
+        <v>0.001515725052629002</v>
       </c>
       <c r="J36" t="n">
-        <v>0.03054160714449312</v>
+        <v>0.01197670799504679</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.01165042971401719</v>
+        <v>-0.01165802091432084</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.01165042971401719</v>
+        <v>-0.01165802091432084</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.01165042971401719</v>
+        <v>-0.01165802091432084</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.01165042971401719</v>
+        <v>-0.01165802091432084</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>-0.01270279558011182</v>
+        <v>-0.01285793955431758</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.01141214772048591</v>
+        <v>-0.01152293450891738</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.01141214772048591</v>
+        <v>-0.01152293450891738</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.01141214772048591</v>
+        <v>-0.01152293450891738</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.01141214772048591</v>
+        <v>-0.01152293450891738</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02716355811054232</v>
+        <v>0.0240319226892769</v>
       </c>
       <c r="V36" t="n">
-        <v>0.01096096027843841</v>
+        <v>0.00692334728493389</v>
       </c>
       <c r="W36" t="n">
-        <v>-0.01359679830387193</v>
+        <v>-0.01361145299245812</v>
       </c>
       <c r="X36" t="n">
-        <v>-0.007276471229951413</v>
+        <v>0.01328642759237281</v>
       </c>
       <c r="Y36" t="n">
-        <v>-0.008791498143659924</v>
+        <v>-0.000604581833405565</v>
       </c>
       <c r="Z36" t="n">
-        <v>-0.007694068435762736</v>
+        <v>-0.01657107435884297</v>
       </c>
       <c r="AA36" t="n">
-        <v>-0.01205130153805206</v>
+        <v>-0.004981106407244256</v>
       </c>
       <c r="AB36" t="n">
-        <v>-0.01205130153805206</v>
+        <v>-0.004981106407244256</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.01205130153805206</v>
+        <v>-0.004981106407244256</v>
       </c>
       <c r="AD36" t="n">
-        <v>-0.01205130153805206</v>
+        <v>-0.004981106407244256</v>
       </c>
       <c r="AE36" t="inlineStr"/>
     </row>
@@ -3825,86 +3825,86 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.0002670606826824273</v>
+        <v>-0.0009815875592635022</v>
       </c>
       <c r="D37" t="n">
         <v>0.01341683295267332</v>
       </c>
       <c r="E37" t="n">
-        <v>0.001266827378673095</v>
+        <v>-0.004401766928070676</v>
       </c>
       <c r="F37" t="n">
-        <v>0.006256305754252229</v>
+        <v>0.006256723450268937</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01069609925017153</v>
+        <v>-0.006995598683024611</v>
       </c>
       <c r="H37" t="n">
-        <v>0.00699243176769727</v>
+        <v>0.005735473212249703</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02672095306883812</v>
+        <v>0.02710910815636432</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.003997972442761399</v>
+        <v>0.01193941900141831</v>
       </c>
       <c r="K37" t="n">
-        <v>0.009484684987387399</v>
+        <v>0.00981533050461322</v>
       </c>
       <c r="L37" t="n">
-        <v>0.009484684987387399</v>
+        <v>0.00981533050461322</v>
       </c>
       <c r="M37" t="n">
-        <v>0.009484684987387399</v>
+        <v>0.00981533050461322</v>
       </c>
       <c r="N37" t="n">
-        <v>0.009484684987387399</v>
+        <v>0.00981533050461322</v>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>0.008143904389756176</v>
+        <v>0.008541218933648757</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.009935831245433249</v>
+        <v>0.009937274029490959</v>
       </c>
       <c r="R37" t="n">
-        <v>0.009935831245433249</v>
+        <v>0.009937274029490959</v>
       </c>
       <c r="S37" t="n">
-        <v>0.009935831245433249</v>
+        <v>0.009937274029490959</v>
       </c>
       <c r="T37" t="n">
-        <v>0.009935831245433249</v>
+        <v>0.009937274029490959</v>
       </c>
       <c r="U37" t="n">
-        <v>0.006324086460963457</v>
+        <v>-0.001166994478679779</v>
       </c>
       <c r="V37" t="n">
-        <v>-0.001443678393747136</v>
+        <v>-0.0164580125623205</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01890933685237347</v>
+        <v>0.01903961308158452</v>
       </c>
       <c r="X37" t="n">
-        <v>-0.002932718473463062</v>
+        <v>-0.01276877855568752</v>
       </c>
       <c r="Y37" t="n">
-        <v>-0.02339449907977996</v>
+        <v>-0.01279591720426031</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.0005324876372995054</v>
+        <v>-0.01776406170256247</v>
       </c>
       <c r="AA37" t="n">
-        <v>-0.01327300526692021</v>
+        <v>-0.008762844542513781</v>
       </c>
       <c r="AB37" t="n">
-        <v>-0.01327300526692021</v>
+        <v>-0.008762844542513781</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.01327300526692021</v>
+        <v>-0.008762844542513781</v>
       </c>
       <c r="AD37" t="n">
-        <v>-0.01327300526692021</v>
+        <v>-0.008762844542513781</v>
       </c>
       <c r="AE37" t="inlineStr"/>
     </row>
@@ -3920,86 +3920,86 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.002122805844912233</v>
+        <v>0.001805164872206595</v>
       </c>
       <c r="D38" t="n">
         <v>0.02909218925968757</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.01864712205788488</v>
+        <v>-0.01515299724611989</v>
       </c>
       <c r="F38" t="n">
-        <v>0.009684142179365687</v>
+        <v>0.009683619459344777</v>
       </c>
       <c r="G38" t="n">
-        <v>0.00532386831741302</v>
+        <v>-0.03174783116429901</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01150522970820919</v>
+        <v>0.01545722745903982</v>
       </c>
       <c r="I38" t="n">
-        <v>0.009905767596230701</v>
+        <v>0.01061863674474547</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0009395938001319304</v>
+        <v>0.007757029394764988</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01448865129954605</v>
+        <v>0.01795584407823376</v>
       </c>
       <c r="L38" t="n">
-        <v>0.01448865129954605</v>
+        <v>0.01795584407823376</v>
       </c>
       <c r="M38" t="n">
-        <v>0.01448865129954605</v>
+        <v>0.01795584407823376</v>
       </c>
       <c r="N38" t="n">
-        <v>0.01448865129954605</v>
+        <v>0.01795584407823376</v>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>0.0152212674568507</v>
+        <v>0.01759834092793364</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01448068435522737</v>
+        <v>0.01796401819056073</v>
       </c>
       <c r="R38" t="n">
-        <v>0.01448068435522737</v>
+        <v>0.01796401819056073</v>
       </c>
       <c r="S38" t="n">
-        <v>0.01448068435522737</v>
+        <v>0.01796401819056073</v>
       </c>
       <c r="T38" t="n">
-        <v>0.01448068435522737</v>
+        <v>0.01796401819056073</v>
       </c>
       <c r="U38" t="n">
-        <v>0.009760413126416524</v>
+        <v>0.01240000619200025</v>
       </c>
       <c r="V38" t="n">
-        <v>-0.01162977963319118</v>
+        <v>-0.004714786460591458</v>
       </c>
       <c r="W38" t="n">
-        <v>0.00512160327686413</v>
+        <v>0.005174165678966627</v>
       </c>
       <c r="X38" t="n">
-        <v>0.0172171085558736</v>
+        <v>0.01805266262941733</v>
       </c>
       <c r="Y38" t="n">
-        <v>-0.01856584163863366</v>
+        <v>-0.01043287133481307</v>
       </c>
       <c r="Z38" t="n">
-        <v>-0.001937615885504635</v>
+        <v>-0.02608474885138995</v>
       </c>
       <c r="AA38" t="n">
-        <v>-0.02227891337115653</v>
+        <v>-0.01529239673969587</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.02227891337115653</v>
+        <v>-0.01529239673969587</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.02227891337115653</v>
+        <v>-0.01529239673969587</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.02227891337115653</v>
+        <v>-0.01529239673969587</v>
       </c>
       <c r="AE38" t="inlineStr"/>
     </row>
@@ -4015,86 +4015,86 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01078707892748316</v>
+        <v>0.004902707236108288</v>
       </c>
       <c r="D39" t="n">
         <v>0.009771227334849092</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001614831904593276</v>
+        <v>-0.008129534053181361</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.005167455566698222</v>
+        <v>-0.005166420302656811</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0311973649194502</v>
+        <v>0.01186522016560601</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.01084047441761897</v>
+        <v>-0.01473930810730038</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.001403203544128142</v>
+        <v>-0.001676998819079953</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.0104586321747091</v>
+        <v>-0.02715399872186943</v>
       </c>
       <c r="K39" t="n">
-        <v>0.00189691725987669</v>
+        <v>-0.001105335404213416</v>
       </c>
       <c r="L39" t="n">
-        <v>0.00189691725987669</v>
+        <v>-0.001105335404213416</v>
       </c>
       <c r="M39" t="n">
-        <v>0.00189691725987669</v>
+        <v>-0.001105335404213416</v>
       </c>
       <c r="N39" t="n">
-        <v>0.00189691725987669</v>
+        <v>-0.001105335404213416</v>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>0.001623399904935996</v>
+        <v>-0.0001235480689419227</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.002012071568482862</v>
+        <v>-0.001328943701157748</v>
       </c>
       <c r="R39" t="n">
-        <v>0.002012071568482862</v>
+        <v>-0.001328943701157748</v>
       </c>
       <c r="S39" t="n">
-        <v>0.002012071568482862</v>
+        <v>-0.001328943701157748</v>
       </c>
       <c r="T39" t="n">
-        <v>0.002012071568482862</v>
+        <v>-0.001328943701157748</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0137239176689567</v>
+        <v>-0.02120974846438993</v>
       </c>
       <c r="V39" t="n">
-        <v>0.008541944309677772</v>
+        <v>-0.02714199622167985</v>
       </c>
       <c r="W39" t="n">
-        <v>-0.0008142958405718334</v>
+        <v>-0.0007491283499651339</v>
       </c>
       <c r="X39" t="n">
-        <v>-0.02154876269661839</v>
+        <v>-0.005215353789073674</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.001997437423897496</v>
+        <v>0.02691750599656094</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.01580507333620293</v>
+        <v>0.0346221927768877</v>
       </c>
       <c r="AA39" t="n">
-        <v>-0.03889881246795249</v>
+        <v>0.005933938317357531</v>
       </c>
       <c r="AB39" t="n">
-        <v>-0.03889881246795249</v>
+        <v>0.005933938317357531</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.03889881246795249</v>
+        <v>0.005933938317357531</v>
       </c>
       <c r="AD39" t="n">
-        <v>-0.03889881246795249</v>
+        <v>0.005933938317357531</v>
       </c>
       <c r="AE39" t="inlineStr"/>
     </row>
